--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="237">
   <si>
     <t>ID</t>
   </si>
@@ -41,127 +41,274 @@
     <t>No.</t>
   </si>
   <si>
-    <t>b1101_del;NC_000913.3:1157868-1159302</t>
-  </si>
-  <si>
-    <t>b2296_del;NC_000913.3:2413469-2414672</t>
-  </si>
-  <si>
-    <t>b2297_del;NC_000913.3:2414746-2416891</t>
-  </si>
-  <si>
-    <t>b3956_del;NC_000913.3:4150446-4153098</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAGCCGTCAAACAAATTGGCACTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAATGGCATAGACTCAAGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTGTCCTGCGGTGGTTATCCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAACGACAATTCCTTAAGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAATTGAGAGTGCTCCTGAGTATGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGAAGTACCTATAATTGATACGTGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGTTTATCCTCTTTCGTTACCGCCG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTTCCTCTTCTGCAAACCCTCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTAATCCGTAAGACGTTGGGGAGACT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCTTTTTCACACCGCCAGCTCAGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCAATCTCGTCATCATCCGCAGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGAAATTACCCCAGACACCCCATCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGACAAAACCTACGATACCAACGTGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGATCACGCCAAGGCTGACGCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGAGTGGGATGGCGCAATTCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGCTGAAGCGATTTCGCAGCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTAATCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCTTTTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCAATCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGAAATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCAGGTGTTTAGAGGCGATTCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCTGACTGCCTGATTTCACACGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGAACAGCTGGCAGAAATCCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGTGAAATGTTTCGGCGTACCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGTCCACAAATCTCCGCTAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGACTGACGGACTAAAGTGTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGACTTGTCGACCGTCTTTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCACTTTACAAAGCCGCATGACTCTGGACC</t>
+    <t>153019_ecoil_ybeL_ins;BA000036.3:153019-153020</t>
+  </si>
+  <si>
+    <t>Cgl0006_1176_G_A_sub;BA000036.3:6529-6530</t>
+  </si>
+  <si>
+    <t>Cgl0141_cds_del;BA000036.3:153222-155613</t>
+  </si>
+  <si>
+    <t>Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470</t>
+  </si>
+  <si>
+    <t>Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378</t>
+  </si>
+  <si>
+    <t>Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459</t>
+  </si>
+  <si>
+    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092</t>
+  </si>
+  <si>
+    <t>Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020</t>
+  </si>
+  <si>
+    <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTCGCGGACAGGCCTTCACGA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCAGACGGAGGGTCTGTTT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAAT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATAGCCAGTGGAACCCGCGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGAAGCCATAGAAGCCTGCA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAAAGAACTGTACTAAATCCTGCCAGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCACCTGTGAGTTTTCCAATGCCTTCGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATCGACCTCTCCCGACTGATCACC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGTCAATTGCTGATCTACATACCA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATATCGATCTTGATGCTATTGCGGA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGCACAACGGCGGGCCGAG</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCACTCTACGGAGCGTGTGCGCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACAGAAGACC</t>
   </si>
   <si>
     <t>plasmid</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTACAGGCCCATGGATTCTT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGTACTCTGGACC</t>
+    <t>CCAGAAGACAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTttaaccgcgccacgcttt</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACAGAAGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -170,7 +317,121 @@
     <t>SEQUENCING_PRIMER_1_TM</t>
   </si>
   <si>
-    <t>GCACAAAGCATCTTCTGTTGAGT</t>
+    <t>SEQUENCING_PRIMER_2</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_2_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_3</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_3_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_4</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_4_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_5</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_5_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_6</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_6_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_7</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_7_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_8</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_8_TM</t>
+  </si>
+  <si>
+    <t>TGCTCACCCAGAAACGCTG</t>
+  </si>
+  <si>
+    <t>TACCGCTCGCCGCAGCC</t>
+  </si>
+  <si>
+    <t>AGCATCTCCGAGCGCAACT</t>
+  </si>
+  <si>
+    <t>ACCACCGAGTTTGATTTCGAAACG</t>
+  </si>
+  <si>
+    <t>GCAGCCGCCGACATCGC</t>
+  </si>
+  <si>
+    <t>GCCTGTTGTTGGGCGCGA</t>
+  </si>
+  <si>
+    <t>CCCAGCAGCGCCCACGA</t>
+  </si>
+  <si>
+    <t>ACGTTGCAGTGGAGCAGCT</t>
+  </si>
+  <si>
+    <t>TGGTCGCACCCTTCTTATCGA</t>
+  </si>
+  <si>
+    <t>CGGCATAAAACGCTCAGTGGTGG</t>
+  </si>
+  <si>
+    <t>ACCGTGGTCAATGTGGGCA</t>
+  </si>
+  <si>
+    <t>CACTGAGCGAACGCCTGCG</t>
+  </si>
+  <si>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+  </si>
+  <si>
+    <t>GGCACGCCGATTCCTTGGAC</t>
+  </si>
+  <si>
+    <t>cctggcaggcactacagaaacact</t>
+  </si>
+  <si>
+    <t>CCGGATCGCTTTGAGGGTCGT</t>
+  </si>
+  <si>
+    <t>TCCCTGATTATGCTGCTGC</t>
+  </si>
+  <si>
+    <t>CCGACCATGAGCTTTTTCATCGCC</t>
+  </si>
+  <si>
+    <t>CGGACAGGACCTTGGGTTCGT</t>
+  </si>
+  <si>
+    <t>TCACTGCGTACAAAGAGGGCCT</t>
+  </si>
+  <si>
+    <t>gcccatagcgcgcgtg</t>
+  </si>
+  <si>
+    <t>acccgctctctgatcatcacca</t>
+  </si>
+  <si>
+    <t>CCCGGTGTTGGGCGACTGT</t>
+  </si>
+  <si>
+    <t>TGGTCAATGTCGCGGGGG</t>
   </si>
   <si>
     <t>UHA</t>
@@ -185,12 +446,6 @@
     <t>ref</t>
   </si>
   <si>
-    <t>SEQUENCING_PRIMER_2</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_2_TM</t>
-  </si>
-  <si>
     <t>SEQUENCING_TARGET</t>
   </si>
   <si>
@@ -203,91 +458,199 @@
     <t>WT_SEQUENCING_TARGET_SIZE</t>
   </si>
   <si>
-    <t>AGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATT</t>
-  </si>
-  <si>
-    <t>AATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCC</t>
-  </si>
-  <si>
-    <t>GTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACC</t>
-  </si>
-  <si>
-    <t>AACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGA</t>
-  </si>
-  <si>
-    <t>TCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGT</t>
-  </si>
-  <si>
-    <t>TTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGAT</t>
-  </si>
-  <si>
-    <t>TCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACT</t>
-  </si>
-  <si>
-    <t>ATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAG</t>
+    <t>CGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTC</t>
+  </si>
+  <si>
+    <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCG</t>
+  </si>
+  <si>
+    <t>GTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAA</t>
+  </si>
+  <si>
+    <t>GGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGC</t>
+  </si>
+  <si>
+    <t>ACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGA</t>
+  </si>
+  <si>
+    <t>ACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAG</t>
+  </si>
+  <si>
+    <t>ATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTG</t>
+  </si>
+  <si>
+    <t>TCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATT</t>
+  </si>
+  <si>
+    <t>TCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAG</t>
+  </si>
+  <si>
+    <t>CTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTA</t>
+  </si>
+  <si>
+    <t>TTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTC</t>
+  </si>
+  <si>
+    <t>CAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTT</t>
+  </si>
+  <si>
+    <t>TGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGG</t>
+  </si>
+  <si>
+    <t>GAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGA</t>
+  </si>
+  <si>
+    <t>GTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGAC</t>
+  </si>
+  <si>
+    <t>AGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATA</t>
+  </si>
+  <si>
+    <t>TTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGC</t>
+  </si>
+  <si>
+    <t>CTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAG</t>
+  </si>
+  <si>
+    <t>ATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAA</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACA</t>
+  </si>
+  <si>
+    <t>atgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaa</t>
+  </si>
+  <si>
+    <t>GCGTGGCGCGGTTAA</t>
+  </si>
+  <si>
+    <t>TTA</t>
+  </si>
+  <si>
+    <t>GCA</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>ATGTTTAAGAATGCATTTGCTAACCTGCAAAAGGTCGGTAAATCGCTGATGCTGCCGGTATCCGTACTGCCTATCGCAGGTATTCTGCTGGGCGTCGGTTCCGCGAATTTCAGCTGGCTGCCCGCCGTTGTATCGCATGTTATGGCAGAAGCAGGCGGTTCCGTCTTTGCAAACATGCCACTGATTTTTGCGATCGGTGTCGCCCTCGGCTTTACCAATAACGATGGCGTATCCGCGCTGGCCGCAGTTGTTGCCTATGGCATCATGGTTAAAACCATGGCCGTGGTTGCGCCACTGGTACTGCATTTACCTGCTGAAGAAATCGCCTCTAAACACCTGGCGGATACTGGCGTACTCGGAGGGATTATCTCCGGTGCGATCGCAGCGTACATGTTTAACCGTTTCTACCGTATTAAGCTGCCTGAGTATCTTGGCTTCTTTGCCGGTAAACGCTTTGTGCCGATCATTTCTGGCCTGGCTGCCATCTTTACTGGCGTTGTGCTGTCCTTCATTTGGCCGCCGATTGGTTCTGCAATCCAGACCTTCTCTCAGTGGGCTGCTTACCAGAACCCGGTAGTTGCGTTTGGCATTTACGGTTTCATCGAACGTTGCCTGGTACCGTTTGGTCTGCACCACATCTGGAACGTACCTTTCCAGATGCAGATTGGTGAATACACCAACGCAGCAGGTCAGGTTTTCCACGGCGACATTCCGCGTTATATGGCGGGTGACCCGACTGCGGGTAAACTGTCTGGTGGCTTCCTGTTCAAAATGTACGGTCTGCCAGCTGCCGCAATTGCTATCTGGCACTCTGCTAAACCAGAAAACCGCGCGAAAGTGGGCGGTATTATGATCTCCGCGGCGCTGACCTCGTTCCTGACCGGTATCACCGAGCCGATCGAGTTCTCCTTCATGTTCGTTGCGCCGATCCTGTACATCATCCACGCGATTCTGGCAGGCCTGGCATTCCCAATCTGTATTCTTCTGGGGATGCGTGACGGTACGTCGTTCTCGCACGGTCTGATCGACTTCATCGTTCTGTCTGGTAACAGCAGCAAACTGTGGCTGTTCCCGATCGTCGGTATCGGTTATGCGATTGTTTACTACACCATCTTCCGCGTGCTGATTAAAGCACTGGATCTGAAAACGCCGGGTCGTGAAGACGCGACTGAAGATGCAAAAGCGACAGGTACCAGCGAAATGGCACCGGCTCTGGTTGCTGCATTTGGTGGTAAAGAAAACATTACTAACCTCGACGCATGTATTACCCGTCTGCGCGTCAGCGTTGCTGATGTGTCTAAAGTGGATCAGGCCGGCCTGAAGAAACTGGGCGCAGCGGGCGTAGTGGTTGCTGGTTCTGGTGTTCAGGCGATTTTCGGTACTAAATCCGATAACCTGAAAACCGAGATGGATGAGTACATCCGTAACCACTAA</t>
-  </si>
-  <si>
-    <t>ATGTCGAGTAAGTTAGTACTGGTTCTGAACTGCGGTAGTTCTTCACTGAAATTTGCCATCATCGATGCAGTAAATGGTGAAGAGTACCTTTCTGGTTTAGCCGAATGTTTCCACCTGCCCGAAGCACGTATCAAATGGAAAATGGACGGCAATAAACAGGAAGCGGCTTTAGGTGCAGGCGCCGCTCACAGCGAAGCGCTCAACTTTATCGTTAATACTATTCTGGCACAAAAACCAGAACTGTCTGCGCAGCTGACTGCTATCGGTCACCGTATCGTACACGGCGGCGAAAAGTATACCAGCTCCGTAGTGATCGATGAGTCTGTTATTCAGGGTATCAAAGATGCAGCTTCTTTTGCACCGCTGCACAACCCGGCTCACCTGATCGGTATCGAAGAAGCTCTGAAATCTTTCCCACAGCTGAAAGACAAAAACGTTGCTGTATTTGACACCGCGTTCCACCAGACTATGCCGGAAGAGTCTTACCTCTACGCCCTGCCTTACAACCTGTACAAAGAGCACGGCATCCGTCGTTACGGCGCGCACGGCACCAGCCACTTCTATGTAACCCAGGAAGCGGCAAAAATGCTGAACAAACCGGTAGAAGAACTGAACATCATCACCTGCCACCTGGGCAACGGTGGTTCCGTTTCTGCTATCCGCAACGGTAAATGCGTTGACACCTCTATGGGCCTGACCCCGCTGGAAGGTCTGGTCATGGGTACCCGTTCTGGTGATATCGATCCGGCGATCATCTTCCACCTGCACGACACCCTGGGCATGAGCGTTGACGCAATCAACAAACTGCTGACCAAAGAGTCTGGCCTGCTGGGTCTGACCGAAGTGACCAGCGACTGCCGCTATGTTGAAGACAACTACGCGACGAAAGAAGACGCGAAGCGCGCAATGGACGTTTACTGCCACCGCCTGGCGAAATACATCGGTGCCTACACTGCGCTGATGGATGGTCGTCTGGACGCTGTTGTATTCACTGGTGGTATCGGTGAAAATGCCGCAATGGTTCGTGAACTGTCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGA</t>
-  </si>
-  <si>
-    <t>GTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCACCACGACGGCCGCTGAACCGCTGAAAATGAGCTACGTTGAAGGTCTGCTTTCCAGCAATCAGAAAGATGTGCTGATGGAAGAGATCGTCGCAAACTACCACGCTAACACCAAAGACGCTGAAGTCGTTCTGGTTGAAGGTCTGGTCCCGACACGTAAGCACCAGTTTGCCCAGTCTCTGAACTACGAAATCGCTAAAACGCTGAATGCGGAAATCGTCTTCGTTATGTCTCAGGGCACTGACACCCCGGAACAGCTGAAAGAGCGTATCGAACTGACCCGCAACAGCTTCGGCGGTGCCAAAAACACCAACATCACCGGCGTTATCGTTAACAAACTGAACGCACCGGTTGATGAACAGGGTCGTACTCGCCCGGATCTGTCCGAGATTTTCGACGACTCTTCCAAAGCTAAAGTAAACAATGTTGATCCGGCGAAGCTGCAAGAATCCAGCCCGCTGCCGGTTCTCGGCGCTGTGCCGTGGAGCTTTGACCTGATCGCGACTCGTGCGATCGATATGGCTCGCCACCTGAATGCGACCATCATCAACGAAGGCGACATCAATACTCGCCGCGTTAAATCCGTCACTTTCTGCGCACGCAGCATTCCGCACATGCTGGAGCACTTCCGTGCCGGTTCTCTGCTGGTGACTTCCGCAGACCGTCCTGACGTGCTGGTGGCCGCTTGCCTGGCAGCCATGAACGGCGTAGAAATCGGTGCCCTGCTGCTGACTGGCGGTTACGAAATGGACGCGCGCATTTCTAAACTGTGCGAACGTGCTTTCGCTACCGGCCTGCCGGTATTTATGGTGAACACCAACACCTGGCAGACCTCTCTGAGCCTGCAGAGCTTCAACCTGGAAGTTCCGGTTGACGATCACGAACGTATCGAGAAAGTTCAGGAATACGTTGCTAACTACATCAACGCTGACTGGATCGAATCTCTGACTGCCACTTCTGAGCGCAGCCGTCGTCTGTCTCCGCCTGCGTTCCGTTATCAGCTGACTGAACTTGCGCGCAAAGCGGGCAAACGTATCGTACTGCCGGAAGGTGACGAACCGCGTACCGTTAAAGCAGCCGCTATCTGTGCTGAACGTGGTATCGCAACTTGCGTACTGCTGGGTAATCCGGCAGAGATCAACCGTGTTGCAGCGTCTCAGGGTGTAGAACTGGGTGCAGGGATTGAAATCGTTGATCCAGAAGTGGTTCGCGAAAGCTATGTTGGTCGTCTGGTCGAACTGCGTAAGAACAAAGGCATGACCGAAACCGTTGCCCGCGAACAGCTGGAAGACAACGTGGTGCTCGGTACGCTGATGCTGGAACAGGATGAAGTTGATGGTCTGGTTTCCGGTGCTGTTCACACTACCGCAAACACCATCCGTCCGCCGCTGCAGCTGATCAAAACTGCACCGGGCAGCTCCCTGGTATCTTCCGTGTTCTTCATGCTGCTGCCGGAACAGGTTTACGTTTACGGTGACTGTGCGATCAACCCGGATCCGACCGCTGAACAGCTGGCAGAAATCGCGATTCAGTCCGCTGATTCCGCTGCGGCCTTCGGTATCGAACCGCGCGTTGCTATGCTCTCCTACTCCACCGGTACTTCTGGTGCAGGTAGCGACGTAGAAAAAGTTCGCGAAGCAACTCGTCTGGCGCAGGAAAAACGTCCTGACCTGATGATCGACGGTCCGCTGCAGTACGACGCTGCGGTAATGGCTGACGTTGCGAAATCCAAAGCGCCGAACTCTCCGGTTGCAGGTCGCGCTACCGTGTTCATCTTCCCGGATCTGAACACCGGTAACACCACCTACAAAGCGGTACAGCGTTCTGCCGACCTGATCTCCATCGGGCCGATGCTGCAGGGTATGCGCAAGCCGGTTAACGACCTGTCCCGTGGCGCACTGGTTGACGATATCGTCTACACCATCGCGCTGACTGCGATTCAGTCTGCACAGCAGCAGTAA</t>
-  </si>
-  <si>
-    <t>TTAGCCGGTATTACGCATACCTGCCGCAATCCCGGCAATAGTGACCATTAACGCTTGTTCGACGCGAGGATCCGGTTCCTGGCCTTCTTTTTCTGCCTGGCGGGAGCGGTGCAGCAACTCGGCCTGCAATACGTTCAGCGGGTCGGTGTAAATATTCCGTAGCTGAATAGACTCTGCAATCCACGGCAGATCGGCCATCAGATGGGAATCGTTGGCAATCGCCAGCACCACTTTGATGTCTTCTTCTTGCAGGTTGCGTAACTCTTTACCTAACGGCCACAGTGCTTTGTCTACCAGGCGTTGGTCATAGTATTCCGCCAGCCACAGGTCTGCTTTGGCGAAGACCATCTCCAGCATGCCGAGACGCGTCGAGAAGAATGGCCAATCGCGGCACATAGCCTCCAGCTCGCTCTGTTTGCCGTCTTCGACCACTTTTTGCAGCGCCGTACCTGCACCCAGCCAGGCGGGGAGCATCAGACGGTTTTGCGTCCAGGCGAAGATCCACGGAATGGCGCGTAGTGACTCGACGCCGCCGGTTGGGCGACGTTTCGCCGGACGTGAACCCAACGGCAGTTTGCCCAGTTCTTGTTCCGGCGTAGCGGAGCGGAAGTAAGGCACAAAATCTTTGTTTTCACGTACGTAGCCGCGGTAGACATCGCAGGAGATGACTGACAGTTCATCCATAATGCGACGCCAGCTCTCTTTCGGCTCCGGCGGTGGCAGCAGGTTGGCTTCCAGAATCGCCCCGGTATAAAGCGACAGGCTGCTGACGGTGATTTCTGGCAGACCATATTTAAAGCGGATCATCTCGCCCTGTTCGGTTACGCGCAGGCCGCCTTTCAGGCTTCCTGGCGGTTGTGACAGCAGCGCCGCATGAGCAGGTGCGCCGCCGCGACCAATGGAACCGCCGCGACCGTGGAACAACGTCAGCTCAATACCCGCTTTTTCGCAGGTTTTGATTAATGCATCCTGTGCCTGATATTGCGCCCAGGAAGCTGCCATCACTCCCGCATCTTTTGCTGAGTCGGAATAGCCAATCATCACCATCTGTTTGCCCTGAATCAGGCCACGATACCAGTCAATATTGAGCAGCTGGGTCATGACATCGTTGGCGTTGTTCAGATCATCGAGGGTTTCAAACAGCGGAGCAACCGGCATCGCAAACCCGATACCCGCTTCTTTCAGCAGCAGGTGGACAGCCAGTACGTCGGACGGCGTTTTCGCCATCGAGATCACGTAGGCGGCAATGGAGCCTTGCGGTGCTTCGGCAATCACCTGGCAGGTATCGAGCACTTCGCGCGTTTCGGCGCTTGGTTGCCAGTTGCGCGGCAGAAGCGGACGTTTGGAGTTCAGTTCGCGGATCAGGAACGCCTGTTTGTCGGCCTCTGACCAGCTTTCGTAGTCGCCGATACCGAGGTAGCGGGTCAGCTCGCCCAGCGCTTCGGTATGACGCGTGCTCTCCTGACGGATATCAATACGGACCAGCGGTACGCCGAAACATTTCACGCGGCGCAGGGTGTCGAGCAGATCGCCGTTGGCGATAATACCCATGCCACACGCCTGAAGTGACTGGTAGCAAGCGTAGAGCGGTTCCCACAGTTCTTCGTTTTGTGTCAGCAGGCCTTCTGGTTTTGGCAGTTCTTCGCCTTTCAGGCGCGCTTCCAGCCATGCCTGTGTCGCCATCAGGCGAGAACGCAGGTTTTTCATCAGATAGCGATACGGTTCTGCGGCACCTTCTTCGCCAACCAGCGCCAGCAGTTCAGGGGTCGCTTCAACCATCGACAGTTCAGAAACCAGCACCTGAATATCTTTCAGGAACAAATCGGTGGCTTTCCAGCGGCTGAGTAGCAGGACGTGGCGGGTGATATCGGCAGTGACGTTCGGGTTGCCGTCGCGGTCGCCGCCCATCCACGAAGTAAAACGGACCGGAACAAATTCGACGGGCAGTTTGTAGCCGAGGTTCTCTTCCAGTTGTTCGTTCAGTTCGCGCAGGTAATTTGGTACGCCTTGCCACAGGCTGTTTTCCACTACGGCAAAGCCCCATTTGGCTTCATCTACCGGGCTTGGACGCAGCTTACGGATTTCATCGGTATGCCATGACTGGGCGATCAACTGGCGCAGGCGACGCATCAGCTGGTTGTGTTCGTAGTCAGCGATATCTTTGTTATCGAGCTGTTTTAAACAGGCGTTCACTTCCACCATTTTGTGGATCAGTGTACGACGGGTAATTTCGGTTGGGTGAGCCGTGAGGACCAGTTCCAGCGACAGCGATTCCACTGCTTTTTTGATGGTGTCTTCGCTCAGTTCCGGCTGGTTTTTCAGTTTACGCAGGGTGCGGGCGATCACTTCCGGGTTGCTGGCAGCTTCGCCTTTCGGCGAAATGCTGTGGTATTGCTCGGCGGTGTTGGCCAGGTTCAGGAACTGACTAAACGCACGCGCAACGGGCAGCAGCTCGTCGTTCGACAAATTTTGTAAGGTGGTGAGCAACTCCTGGCGGTTAGCATCATTGCCAGCGCGTGAAGATTTCGACAACTTACGGATAGTTTCTACGCGTTCAAGAATGTGTTCTCCCAACGCATCCTTGATGGTTTCTCCCAGCACTTTGCCGAGCATACTGACATTACTACGCAATGCGGAATATTGTTCGTTCAT</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTG</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGT</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGT</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGG</t>
-  </si>
-  <si>
-    <t>GGCACCTTCCGCGCCGA</t>
-  </si>
-  <si>
-    <t>TGGAAGAGTTCGCACGCACGA</t>
-  </si>
-  <si>
-    <t>TCACCAACGTATCGGGCATTGC</t>
-  </si>
-  <si>
-    <t>ACCTTTGGTGTTACTTGGGGCGA</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTGAATAACCACGTTTGAAATATTGTGACATATGTTTTGTCAAAATGTGCAACTTCTCCAATGATCTGAAGTTGAAACGTGATAGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTTCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCGAACAGGTTATTGACGTTCCCCTGTAACGAGAAGTTTTTCGTCACCTGGTAGCGGGTGAAGAGATCCACCAGCGCGTAGCTACCTTGCTCGGCGCGGAAGGT</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGTATCCTTTAGCAGCCTGAAGGCCTAAGTAGTACATATTCATTGAGTCGTCAAATTCATATACATTATGCCATTGGCTGAAAATTACGCAAAATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCTTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCA</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCTCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTTTGCATACTTACCACTTTGTTTTGTGCAAGGGAATATTTGCGCTATGTCCGCAATCACTGAATCCAAACCAACAAGAAGATGGGCAATGCCCGATACGTTGGT</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGGGCTTTCCAGCTAAAAAGAGGTTTAGCCTGGACTTCTGTGGAATGCATAGTAAGAACCTGTCTTGAAAAAATATCGCCGAATGTAACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGAATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCAAACGAATAAATAGCAGGAATTTACGTCATTAAATTCACGACGCTTTAAATAAGCGTAACTTATGGAAATGTTAAAAAATCGCCCCAAGTAACACCAAAGGT</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTGAATAACCACGTTTGAAATATTGTGACATATGTTTTGTCAAAATGTGCAACTTCTCCAATGATCTGAAGTTGAAACGTGATAGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTATGTTTAAGAATGCATTTGCTAACCTGCAAAAGGTCGGTAAATCGCTGATGCTGCCGGTATCCGTACTGCCTATCGCAGGTATTCTGCTGGGCGTCGGTTCCGCGAATTTCAGCTGGCTGCCCGCCGTTGTATCGCATGTTATGGCAGAAGCAGGCGGTTCCGTCTTTGCAAACATGCCACTGATTTTTGCGATCGGTGTCGCCCTCGGCTTTACCAATAACGATGGCGTATCCGCGCTGGCCGCAGTTGTTGCCTATGGCATCATGGTTAAAACCATGGCCGTGGTTGCGCCACTGGTACTGCATTTACCTGCTGAAGAAATCGCCTCTAAACACCTGGCGGATACTGGCGTACTCGGAGGGATTATCTCCGGTGCGATCGCAGCGTACATGTTTAACCGTTTCTACCGTATTAAGCTGCCTGAGTATCTTGGCTTCTTTGCCGGTAAACGCTTTGTGCCGATCATTTCTGGCCTGGCTGCCATCTTTACTGGCGTTGTGCTGTCCTTCATTTGGCCGCCGATTGGTTCTGCAATCCAGACCTTCTCTCAGTGGGCTGCTTACCAGAACCCGGTAGTTGCGTTTGGCATTTACGGTTTCATCGAACGTTGCCTGGTACCGTTTGGTCTGCACCACATCTGGAACGTACCTTTCCAGATGCAGATTGGTGAATACACCAACGCAGCAGGTCAGGTTTTCCACGGCGACATTCCGCGTTATATGGCGGGTGACCCGACTGCGGGTAAACTGTCTGGTGGCTTCCTGTTCAAAATGTACGGTCTGCCAGCTGCCGCAATTGCTATCTGGCACTCTGCTAAACCAGAAAACCGCGCGAAAGTGGGCGGTATTATGATCTCCGCGGCGCTGACCTCGTTCCTGACCGGTATCACCGAGCCGATCGAGTTCTCCTTCATGTTCGTTGCGCCGATCCTGTACATCATCCACGCGATTCTGGCAGGCCTGGCATTCCCAATCTGTATTCTTCTGGGGATGCGTGACGGTACGTCGTTCTCGCACGGTCTGATCGACTTCATCGTTCTGTCTGGTAACAGCAGCAAACTGTGGCTGTTCCCGATCGTCGGTATCGGTTATGCGATTGTTTACTACACCATCTTCCGCGTGCTGATTAAAGCACTGGATCTGAAAACGCCGGGTCGTGAAGACGCGACTGAAGATGCAAAAGCGACAGGTACCAGCGAAATGGCACCGGCTCTGGTTGCTGCATTTGGTGGTAAAGAAAACATTACTAACCTCGACGCATGTATTACCCGTCTGCGCGTCAGCGTTGCTGATGTGTCTAAAGTGGATCAGGCCGGCCTGAAGAAACTGGGCGCAGCGGGCGTAGTGGTTGCTGGTTCTGGTGTTCAGGCGATTTTCGGTACTAAATCCGATAACCTGAAAACCGAGATGGATGAGTACATCCGTAACCACTAATCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCGAACAGGTTATTGACGTTCCCCTGTAACGAGAAGTTTTTCGTCACCTGGTAGCGGGTGAAGAGATCCACCAGCGCGTAGCTACCTTGCTCGGCGCGGAAGGT</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGTATCCTTTAGCAGCCTGAAGGCCTAAGTAGTACATATTCATTGAGTCGTCAAATTCATATACATTATGCCATTGGCTGAAAATTACGCAAAATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCATGTCGAGTAAGTTAGTACTGGTTCTGAACTGCGGTAGTTCTTCACTGAAATTTGCCATCATCGATGCAGTAAATGGTGAAGAGTACCTTTCTGGTTTAGCCGAATGTTTCCACCTGCCCGAAGCACGTATCAAATGGAAAATGGACGGCAATAAACAGGAAGCGGCTTTAGGTGCAGGCGCCGCTCACAGCGAAGCGCTCAACTTTATCGTTAATACTATTCTGGCACAAAAACCAGAACTGTCTGCGCAGCTGACTGCTATCGGTCACCGTATCGTACACGGCGGCGAAAAGTATACCAGCTCCGTAGTGATCGATGAGTCTGTTATTCAGGGTATCAAAGATGCAGCTTCTTTTGCACCGCTGCACAACCCGGCTCACCTGATCGGTATCGAAGAAGCTCTGAAATCTTTCCCACAGCTGAAAGACAAAAACGTTGCTGTATTTGACACCGCGTTCCACCAGACTATGCCGGAAGAGTCTTACCTCTACGCCCTGCCTTACAACCTGTACAAAGAGCACGGCATCCGTCGTTACGGCGCGCACGGCACCAGCCACTTCTATGTAACCCAGGAAGCGGCAAAAATGCTGAACAAACCGGTAGAAGAACTGAACATCATCACCTGCCACCTGGGCAACGGTGGTTCCGTTTCTGCTATCCGCAACGGTAAATGCGTTGACACCTCTATGGGCCTGACCCCGCTGGAAGGTCTGGTCATGGGTACCCGTTCTGGTGATATCGATCCGGCGATCATCTTCCACCTGCACGACACCCTGGGCATGAGCGTTGACGCAATCAACAAACTGCTGACCAAAGAGTCTGGCCTGCTGGGTCTGACCGAAGTGACCAGCGACTGCCGCTATGTTGAAGACAACTACGCGACGAAAGAAGACGCGAAGCGCGCAATGGACGTTTACTGCCACCGCCTGGCGAAATACATCGGTGCCTACACTGCGCTGATGGATGGTCGTCTGGACGCTGTTGTATTCACTGGTGGTATCGGTGAAAATGCCGCAATGGTTCGTGAACTGTCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCA</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCACCACGACGGCCGCTGAACCGCTGAAAATGAGCTACGTTGAAGGTCTGCTTTCCAGCAATCAGAAAGATGTGCTGATGGAAGAGATCGTCGCAAACTACCACGCTAACACCAAAGACGCTGAAGTCGTTCTGGTTGAAGGTCTGGTCCCGACACGTAAGCACCAGTTTGCCCAGTCTCTGAACTACGAAATCGCTAAAACGCTGAATGCGGAAATCGTCTTCGTTATGTCTCAGGGCACTGACACCCCGGAACAGCTGAAAGAGCGTATCGAACTGACCCGCAACAGCTTCGGCGGTGCCAAAAACACCAACATCACCGGCGTTATCGTTAACAAACTGAACGCACCGGTTGATGAACAGGGTCGTACTCGCCCGGATCTGTCCGAGATTTTCGACGACTCTTCCAAAGCTAAAGTAAACAATGTTGATCCGGCGAAGCTGCAAGAATCCAGCCCGCTGCCGGTTCTCGGCGCTGTGCCGTGGAGCTTTGACCTGATCGCGACTCGTGCGATCGATATGGCTCGCCACCTGAATGCGACCATCATCAACGAAGGCGACATCAATACTCGCCGCGTTAAATCCGTCACTTTCTGCGCACGCAGCATTCCGCACATGCTGGAGCACTTCCGTGCCGGTTCTCTGCTGGTGACTTCCGCAGACCGTCCTGACGTGCTGGTGGCCGCTTGCCTGGCAGCCATGAACGGCGTAGAAATCGGTGCCCTGCTGCTGACTGGCGGTTACGAAATGGACGCGCGCATTTCTAAACTGTGCGAACGTGCTTTCGCTACCGGCCTGCCGGTATTTATGGTGAACACCAACACCTGGCAGACCTCTCTGAGCCTGCAGAGCTTCAACCTGGAAGTTCCGGTTGACGATCACGAACGTATCGAGAAAGTTCAGGAATACGTTGCTAACTACATCAACGCTGACTGGATCGAATCTCTGACTGCCACTTCTGAGCGCAGCCGTCGTCTGTCTCCGCCTGCGTTCCGTTATCAGCTGACTGAACTTGCGCGCAAAGCGGGCAAACGTATCGTACTGCCGGAAGGTGACGAACCGCGTACCGTTAAAGCAGCCGCTATCTGTGCTGAACGTGGTATCGCAACTTGCGTACTGCTGGGTAATCCGGCAGAGATCAACCGTGTTGCAGCGTCTCAGGGTGTAGAACTGGGTGCAGGGATTGAAATCGTTGATCCAGAAGTGGTTCGCGAAAGCTATGTTGGTCGTCTGGTCGAACTGCGTAAGAACAAAGGCATGACCGAAACCGTTGCCCGCGAACAGCTGGAAGACAACGTGGTGCTCGGTACGCTGATGCTGGAACAGGATGAAGTTGATGGTCTGGTTTCCGGTGCTGTTCACACTACCGCAAACACCATCCGTCCGCCGCTGCAGCTGATCAAAACTGCACCGGGCAGCTCCCTGGTATCTTCCGTGTTCTTCATGCTGCTGCCGGAACAGGTTTACGTTTACGGTGACTGTGCGATCAACCCGGATCCGACCGCTGAACAGCTGGCAGAAATCGCGATTCAGTCCGCTGATTCCGCTGCGGCCTTCGGTATCGAACCGCGCGTTGCTATGCTCTCCTACTCCACCGGTACTTCTGGTGCAGGTAGCGACGTAGAAAAAGTTCGCGAAGCAACTCGTCTGGCGCAGGAAAAACGTCCTGACCTGATGATCGACGGTCCGCTGCAGTACGACGCTGCGGTAATGGCTGACGTTGCGAAATCCAAAGCGCCGAACTCTCCGGTTGCAGGTCGCGCTACCGTGTTCATCTTCCCGGATCTGAACACCGGTAACACCACCTACAAAGCGGTACAGCGTTCTGCCGACCTGATCTCCATCGGGCCGATGCTGCAGGGTATGCGCAAGCCGGTTAACGACCTGTCCCGTGGCGCACTGGTTGACGATATCGTCTACACCATCGCGCTGACTGCGATTCAGTCTGCACAGCAGCAGTAATCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTTTGCATACTTACCACTTTGTTTTGTGCAAGGGAATATTTGCGCTATGTCCGCAATCACTGAATCCAAACCAACAAGAAGATGGGCAATGCCCGATACGTTGGT</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGGGCTTTCCAGCTAAAAAGAGGTTTAGCCTGGACTTCTGTGGAATGCATAGTAAGAACCTGTCTTGAAAAAATATCGCCGAATGTAACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGATTAGCCGGTATTACGCATACCTGCCGCAATCCCGGCAATAGTGACCATTAACGCTTGTTCGACGCGAGGATCCGGTTCCTGGCCTTCTTTTTCTGCCTGGCGGGAGCGGTGCAGCAACTCGGCCTGCAATACGTTCAGCGGGTCGGTGTAAATATTCCGTAGCTGAATAGACTCTGCAATCCACGGCAGATCGGCCATCAGATGGGAATCGTTGGCAATCGCCAGCACCACTTTGATGTCTTCTTCTTGCAGGTTGCGTAACTCTTTACCTAACGGCCACAGTGCTTTGTCTACCAGGCGTTGGTCATAGTATTCCGCCAGCCACAGGTCTGCTTTGGCGAAGACCATCTCCAGCATGCCGAGACGCGTCGAGAAGAATGGCCAATCGCGGCACATAGCCTCCAGCTCGCTCTGTTTGCCGTCTTCGACCACTTTTTGCAGCGCCGTACCTGCACCCAGCCAGGCGGGGAGCATCAGACGGTTTTGCGTCCAGGCGAAGATCCACGGAATGGCGCGTAGTGACTCGACGCCGCCGGTTGGGCGACGTTTCGCCGGACGTGAACCCAACGGCAGTTTGCCCAGTTCTTGTTCCGGCGTAGCGGAGCGGAAGTAAGGCACAAAATCTTTGTTTTCACGTACGTAGCCGCGGTAGACATCGCAGGAGATGACTGACAGTTCATCCATAATGCGACGCCAGCTCTCTTTCGGCTCCGGCGGTGGCAGCAGGTTGGCTTCCAGAATCGCCCCGGTATAAAGCGACAGGCTGCTGACGGTGATTTCTGGCAGACCATATTTAAAGCGGATCATCTCGCCCTGTTCGGTTACGCGCAGGCCGCCTTTCAGGCTTCCTGGCGGTTGTGACAGCAGCGCCGCATGAGCAGGTGCGCCGCCGCGACCAATGGAACCGCCGCGACCGTGGAACAACGTCAGCTCAATACCCGCTTTTTCGCAGGTTTTGATTAATGCATCCTGTGCCTGATATTGCGCCCAGGAAGCTGCCATCACTCCCGCATCTTTTGCTGAGTCGGAATAGCCAATCATCACCATCTGTTTGCCCTGAATCAGGCCACGATACCAGTCAATATTGAGCAGCTGGGTCATGACATCGTTGGCGTTGTTCAGATCATCGAGGGTTTCAAACAGCGGAGCAACCGGCATCGCAAACCCGATACCCGCTTCTTTCAGCAGCAGGTGGACAGCCAGTACGTCGGACGGCGTTTTCGCCATCGAGATCACGTAGGCGGCAATGGAGCCTTGCGGTGCTTCGGCAATCACCTGGCAGGTATCGAGCACTTCGCGCGTTTCGGCGCTTGGTTGCCAGTTGCGCGGCAGAAGCGGACGTTTGGAGTTCAGTTCGCGGATCAGGAACGCCTGTTTGTCGGCCTCTGACCAGCTTTCGTAGTCGCCGATACCGAGGTAGCGGGTCAGCTCGCCCAGCGCTTCGGTATGACGCGTGCTCTCCTGACGGATATCAATACGGACCAGCGGTACGCCGAAACATTTCACGCGGCGCAGGGTGTCGAGCAGATCGCCGTTGGCGATAATACCCATGCCACACGCCTGAAGTGACTGGTAGCAAGCGTAGAGCGGTTCCCACAGTTCTTCGTTTTGTGTCAGCAGGCCTTCTGGTTTTGGCAGTTCTTCGCCTTTCAGGCGCGCTTCCAGCCATGCCTGTGTCGCCATCAGGCGAGAACGCAGGTTTTTCATCAGATAGCGATACGGTTCTGCGGCACCTTCTTCGCCAACCAGCGCCAGCAGTTCAGGGGTCGCTTCAACCATCGACAGTTCAGAAACCAGCACCTGAATATCTTTCAGGAACAAATCGGTGGCTTTCCAGCGGCTGAGTAGCAGGACGTGGCGGGTGATATCGGCAGTGACGTTCGGGTTGCCGTCGCGGTCGCCGCCCATCCACGAAGTAAAACGGACCGGAACAAATTCGACGGGCAGTTTGTAGCCGAGGTTCTCTTCCAGTTGTTCGTTCAGTTCGCGCAGGTAATTTGGTACGCCTTGCCACAGGCTGTTTTCCACTACGGCAAAGCCCCATTTGGCTTCATCTACCGGGCTTGGACGCAGCTTACGGATTTCATCGGTATGCCATGACTGGGCGATCAACTGGCGCAGGCGACGCATCAGCTGGTTGTGTTCGTAGTCAGCGATATCTTTGTTATCGAGCTGTTTTAAACAGGCGTTCACTTCCACCATTTTGTGGATCAGTGTACGACGGGTAATTTCGGTTGGGTGAGCCGTGAGGACCAGTTCCAGCGACAGCGATTCCACTGCTTTTTTGATGGTGTCTTCGCTCAGTTCCGGCTGGTTTTTCAGTTTACGCAGGGTGCGGGCGATCACTTCCGGGTTGCTGGCAGCTTCGCCTTTCGGCGAAATGCTGTGGTATTGCTCGGCGGTGTTGGCCAGGTTCAGGAACTGACTAAACGCACGCGCAACGGGCAGCAGCTCGTCGTTCGACAAATTTTGTAAGGTGGTGAGCAACTCCTGGCGGTTAGCATCATTGCCAGCGCGTGAAGATTTCGACAACTTACGGATAGTTTCTACGCGTTCAAGAATGTGTTCTCCCAACGCATCCTTGATGGTTTCTCCCAGCACTTTGCCGAGCATACTGACATTACTACGCAATGCGGAATATTGTTCGTTCATATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCAAACGAATAAATAGCAGGAATTTACGTCATTAAATTCACGACGCTTTAAATAAGCGTAACTTATGGAAATGTTAAAAAATCGCCCCAAGTAACACCAAAGGT</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCGCCAAGATTTTTGCGGATTGTTCACCGAAGCGGAGGAGAGAAGCGCTGAGTTGAGGGCAGAGGGGAAGCGTCGATAAGCGATGTCCCAGGCTCGTGATAGCGTCACCTTCAAGCGCGCCGATGAGGCGCAGGATCTGTTGTGCAGCCGTCCAGGCTGCGTGAGGGGGTTGATCAAGAAGCGGTAAATCCGCAGGTGACGTTCCCCATTGGGCGAGCCAGAGGGCTGCTTGGGTGAGGTCAGCGGAGCTGATTTCTGGTGTCACAAATCGTGGGAAGTGGGAGAAGTCTTCTTCGGAATAGCATCTGATTATTTGTCCTGGTCCTTCACGGCCAGCGCGACCTGCGCGTTGGCCTGCTGAAGCCTGCGCGCAACTGCTGGTGATCAGTCCTGTCATGCCGCGGGCAGAGTCTCGTTTGGGGCTTCGTGAGAGGCCGGAATCCACCACGATGCGAACTCCAGGCACAGTTAGGGAGCTTTCCGCAACGGGAGTGGAGACAATGATGCGCTGCTGTTGTGACGGTGCGAGGGCGCGGTCTTGTTCGGTCGGGCTGAGTTGGCCATGAAGTGGGAAAACATTATTATGGCCGAGCGATTTGAGCGTGCTCATTACTCGATCAATTTCACGCACACCTGGGACGAAAATGAGTGCAGAGTGCTCTGAATGTGTCACCGCATCGTGAGTTTTCTGCGCCATGTGGTCGAGGAAATCCCAGTCGACACCTTTTGCATTGAGGCGAGGCGCGCGGGCTGGAGCATAAGAAATGTCTAAGGGGAAAATCGGTGCTTCAACACTAAGGACCTGAGCGTCTAATAAGTTTGCGAATTTATCTGAATCTAAGGTTGCGGACATGGCGATGAGGGAGAAATCGTCGCGCAGTTGACTGAGTTCAGCAAGCATTCCTAGCAGTAGATCGGAATCGAGTTGACGTTCGTGGACTTCATCGATAATCACAGCGCCGATGCCGGGTAATTCTGGGTTGTTTAAGAGCTGGCGGATTAACACACCGGGGGTCATAAATTGCACGTGGGAGCCTGAAATATGTTCACCACGCACGCTGAATCCCACTTTTGTTCCGAGCTGGCTATCATCTAGTTGGGCGAGTCTGCGAGCTGCTGCTCGGACGGCCACACGACGAGGTGCCGTTACTAAAACCTTGGTTGGGGTGGCATTTCCCGCTCCTTCATTACATAAGATGTTAGCTACTAATGGGGGGAGAAGTGTCGTTTTTCCTGTGCCGGGAGGGGCCTGAATGACAAGGTTTTTAGGTCCGGCCGAAAAAGCTTCTTGCAGGTGAGGGATAATATTTTCTACGGGCAGGCCCGTGGAAATGCGATTTATAAGAAAATTGCCAATTCTTGAACTCAT</t>
+  </si>
+  <si>
+    <t>ctacctatttgcgcggtaccacttaatcagtgaatcagtggaagaatctcccgagtcaacatcctcttcaccagagacagccggagcgaggtcatttgcctgctgtttgcccagttcaacaccccattggtcgaaggagttgatgtcccaaatcacgccctgaaccatcacgatgtgttcgtacaaagcgatcaacgcaccgagaatagaaggggtaagttcctccgccaaaatggtggtggttgggcgattacctggcatgaccttgtggttgaccagctcaggtgcgacaccttccgcagcgatctcttcagcgttcttaccgaaagccaaaaccttggtctgtgcgaagaagttgctcatcaaaaggtcatgcatggtgcgctcaccggcaggaagatcctgctttggacgagcgaaaccaatgaaatcagctggaacaaggcgagtgccctggtggatcagctggaagaaagcgtgctggccatttgtgccaggctcaccccagtaaatttcgccagtgccagtggaaacaggggagccgtcgcggtggactgacttgccatttgattccatggtcagctgctggaggtaagcagcaaaacggctgagatcctcggaataaggtaggacagcgtgggtttctgcaccatagaaatcggagtaccagacaccgagcagagccatcaagattggaacgttctcttcgaacttggtggtgcggaagtgttcatccatcgcgtggaatccaccgaggaaacgcatgaagtcgcgagggccgatcactgccatgagggaaagaccaactgcggagtccacggagtaacgacctccgacccagtcccagaagccgaacatgttgtccgtgtcgataccgaactctgcgaccttttcagcattggtggacactgcgacgaagtgcttcgcgacagcctcttcaccgagcttctctaccagccaagcacgagctgcacgagcgttggacagcgtctcctgggtggtgaaagttttcgaagcgatcacgaacaatgtggattctgcatcgaggtcttccaacacagaaacgaggtctgctgggtcgacgttggagacgaattctgctgagataccagcggtcgcgtatgcacgcagagccttcgtagccatggctggtccgaggtcagagccaccgataccaatgttgacgatcttcttgatcgtgtggccggtgtgtcccaaccagttgcctgagcgcagcgcagtagcgaagtcacgcatgcgtcccaaaacttcgtggacatcagcagcaacatcttggccatctactgacagatcagcttcggcaggaaggcgcagcgcggtgtggaggacagcgcggtcttcggtgttgttgaggtgttcaccggcaaacatcgcgtcaatgcgttcgcgaaggccagattcttcggtcagtgcaaggagcttggtgagggtggcgtcgtcaagcagattcttcgacaggtcgacgtggaggccagccgcggagaaggtgtacttctcggcgcggttttcttccttgaaaagttcacgcagagtggttgcctggaagtttgagtaatgatcggtcaggtcttgccaaacctgggtggtcgaaatgtccgccat</t>
+  </si>
+  <si>
+    <t>gctgagatcgaaaagcgt</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>GAC</t>
+  </si>
+  <si>
+    <t>TGCTCCGGTGCAGGCGC</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGA</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGG</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGA</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCC</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCA</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCA</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGA</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTG</t>
+  </si>
+  <si>
+    <t>GGCACCTGCGTCGGTTGG</t>
+  </si>
+  <si>
+    <t>GCCAAGAAACCGGCCAGGA</t>
+  </si>
+  <si>
+    <t>TGGTACGTGGCTACCGGCG</t>
+  </si>
+  <si>
+    <t>TGTGTTCATGCTGGCTGGTGA</t>
+  </si>
+  <si>
+    <t>GCCTCGCCATCGTCACAGGT</t>
+  </si>
+  <si>
+    <t>GCCAGAAGCTCGCGTGGGA</t>
+  </si>
+  <si>
+    <t>GGTGTAGGGGTCGCAGGTTCA</t>
+  </si>
+  <si>
+    <t>AGCAGTTGGAGCGCGATGC</t>
+  </si>
+  <si>
+    <t>GCTCCGTTGATGCCAGCGC</t>
+  </si>
+  <si>
+    <t>TGCTCCGGTGCAGGCGCCCTGGCTGCGAGTCTCATTGACAAACAAATCATGCGACCGCTGATCATCGTGTTGATGCTGGTCGTTGGCCTGATCGTGGTGTTCAAACCAAACTTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCC</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGA</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAGTATTTCGGCAGTTCGTGCGGGGTCTGTAGGTCCAATTTGGTTGTATTCGTGGAAAAGTAACGCTGTTTTTTGTGCCACTTCTTCACGTTCCGCGCCGGTAGCCACGT</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGAGCGAAACTGCTCAAAGTAAATCACCGGGAAGATGCTCGAAAAGAAGGCATGATCACCGCACCGCTGGTGTGGAAGGGTGTGCAGCTCAAACCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGCCAAGGGCGCTGCAGCAGTGTATGCCAATGACGTTTTCGTCCCAGTGGATTACTCTCTGGAAACCGCACAACACCTGCCCGGTGTGCAGCTGTTTATCACCAGCCAGCATGAACACA</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCCTCTAATAACGAAGAGTGTTGCAACCGCAAAAAGCACAAAGATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAGGTGGTACAGCTTTTGTTGCAGGGCTTTGAGTTCGGGCAAGTCGGCGAGCGTGGCAAACGCGATGGATATGCGGGAGACCTGCGCTTTTGTTAGACCTGTGACGATGGCGAGGC</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCAGAGTCATGGGAAGAGTTCTCCGAGTGGGGTCCAAAGCTGCAGGAAGCGATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACGCCACGTTTAGTGCTTTCCACGAGGGCAAGATCGCGCCCACATTTTTTAGCGGGATGTAATCAAGAATGCGCAGATCATCCATGGACGCATCGCGCAAGATTCCCACGCGAGCTTCTGGC</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCATGGCGATCAGCCTGCTGCTGTTTATCTAGCGTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATCAATGGTGAGTTTCATGTTTTATCCAGCCTGACAAATAGAGAAAACCTAGGGGAGAAAATACATCCTCACCTAGGCTAATTGTCGGACTAACAGGATTTGAACCTGCGACCCCTACACC</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGATATAGGTATTAAGAAAACTCACCTCACGGTTGTAATCGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGCAGCAGCTTTCCCTGACTGCTCCGCTACAAATTCTTGAGCCTTACGCTTACGCTCAATCTCTTTATCGCGCTCAGCTTGGGTTCGCTTGCGTTGTGCATCGCGCTCC</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTGTCATAGACAGAGTCGAAAATCATCGCACGAGCTGGGGCGTCTTCCTCAAATTCAGAGGTAGGTGCTGGGATAAGTTCAACGACCTTATCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGACAATGAGGCACACAGCAGAGAAGGTAACAAAGGTCTGCACTAAAATCGCCACGATGATAGAGAACGCCAGCACCGGTGATGGGTGCGCTGGCATCAACGGAGC</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGA</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCCAAACGGCGAAGGCGTTCCACTTCACGCTTGTCGGGTTGTTGCTTTTCGACGTCCCCCTGCGGGTTTTCGGACACCACCGCCAAGATTTTTGCGGATTGTTCACCGAAGCGGAGGAGAGAAGCGCTGAGTTGAGGGCAGAGGGGAAGCGTCGATAAGCGATGTCCCAGGCTCGTGATAGCGTCACCTTCAAGCGCGCCGATGAGGCGCAGGATCTGTTGTGCAGCCGTCCAGGCTGCGTGAGGGGGTTGATCAAGAAGCGGTAAATCCGCAGGTGACGTTCCCCATTGGGCGAGCCAGAGGGCTGCTTGGGTGAGGTCAGCGGAGCTGATTTCTGGTGTCACAAATCGTGGGAAGTGGGAGAAGTCTTCTTCGGAATAGCATCTGATTATTTGTCCTGGTCCTTCACGGCCAGCGCGACCTGCGCGTTGGCCTGCTGAAGCCTGCGCGCAACTGCTGGTGATCAGTCCTGTCATGCCGCGGGCAGAGTCTCGTTTGGGGCTTCGTGAGAGGCCGGAATCCACCACGATGCGAACTCCAGGCACAGTTAGGGAGCTTTCCGCAACGGGAGTGGAGACAATGATGCGCTGCTGTTGTGACGGTGCGAGGGCGCGGTCTTGTTCGGTCGGGCTGAGTTGGCCATGAAGTGGGAAAACATTATTATGGCCGAGCGATTTGAGCGTGCTCATTACTCGATCAATTTCACGCACACCTGGGACGAAAATGAGTGCAGAGTGCTCTGAATGTGTCACCGCATCGTGAGTTTTCTGCGCCATGTGGTCGAGGAAATCCCAGTCGACACCTTTTGCATTGAGGCGAGGCGCGCGGGCTGGAGCATAAGAAATGTCTAAGGGGAAAATCGGTGCTTCAACACTAAGGACCTGAGCGTCTAATAAGTTTGCGAATTTATCTGAATCTAAGGTTGCGGACATGGCGATGAGGGAGAAATCGTCGCGCAGTTGACTGAGTTCAGCAAGCATTCCTAGCAGTAGATCGGAATCGAGTTGACGTTCGTGGACTTCATCGATAATCACAGCGCCGATGCCGGGTAATTCTGGGTTGTTTAAGAGCTGGCGGATTAACACACCGGGGGTCATAAATTGCACGTGGGAGCCTGAAATATGTTCACCACGCACGCTGAATCCCACTTTTGTTCCGAGCTGGCTATCATCTAGTTGGGCGAGTCTGCGAGCTGCTGCTCGGACGGCCACACGACGAGGTGCCGTTACTAAAACCTTGGTTGGGGTGGCATTTCCCGCTCCTTCATTACATAAGATGTTAGCTACTAATGGGGGGAGAAGTGTCGTTTTTCCTGTGCCGGGAGGGGCCTGAATGACAAGGTTTTTAGGTCCGGCCGAAAAAGCTTCTTGCAGGTGAGGGATAATATTTTCTACGGGCAGGCCCGTGGAAATGCGATTTATAAGAAAATTGCCAATTCTTGAACTCATCAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAGTATTTCGGCAGTTCGTGCGGGGTCTGTAGGTCCAATTTGGTTGTATTCGTGGAAAAGTAACGCTGTTTTTTGTGCCACTTCTTCACGTTCCGCGCCGGTAGCCACGT</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCCTCTAATAACGAAGAGTGTTGCAACCGCAAAAAGCACAAAGATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGActacctatttgcgcggtaccacttaatcagtgaatcagtggaagaatctcccgagtcaacatcctcttcaccagagacagccggagcgaggtcatttgcctgctgtttgcccagttcaacaccccattggtcgaaggagttgatgtcccaaatcacgccctgaaccatcacgatgtgttcgtacaaagcgatcaacgcaccgagaatagaaggggtaagttcctccgccaaaatggtggtggttgggcgattacctggcatgaccttgtggttgaccagctcaggtgcgacaccttccgcagcgatctcttcagcgttcttaccgaaagccaaaaccttggtctgtgcgaagaagttgctcatcaaaaggtcatgcatggtgcgctcaccggcaggaagatcctgctttggacgagcgaaaccaatgaaatcagctggaacaaggcgagtgccctggtggatcagctggaagaaagcgtgctggccatttgtgccaggctcaccccagtaaatttcgccagtgccagtggaaacaggggagccgtcgcggtggactgacttgccatttgattccatggtcagctgctggaggtaagcagcaaaacggctgagatcctcggaataaggtaggacagcgtgggtttctgcaccatagaaatcggagtaccagacaccgagcagagccatcaagattggaacgttctcttcgaacttggtggtgcggaagtgttcatccatcgcgtggaatccaccgaggaaacgcatgaagtcgcgagggccgatcactgccatgagggaaagaccaactgcggagtccacggagtaacgacctccgacccagtcccagaagccgaacatgttgtccgtgtcgataccgaactctgcgaccttttcagcattggtggacactgcgacgaagtgcttcgcgacagcctcttcaccgagcttctctaccagccaagcacgagctgcacgagcgttggacagcgtctcctgggtggtgaaagttttcgaagcgatcacgaacaatgtggattctgcatcgaggtcttccaacacagaaacgaggtctgctgggtcgacgttggagacgaattctgctgagataccagcggtcgcgtatgcacgcagagccttcgtagccatggctggtccgaggtcagagccaccgataccaatgttgacgatcttcttgatcgtgtggccggtgtgtcccaaccagttgcctgagcgcagcgcagtagcgaagtcacgcatgcgtcccaaaacttcgtggacatcagcagcaacatcttggccatctactgacagatcagcttcggcaggaaggcgcagcgcggtgtggaggacagcgcggtcttcggtgttgttgaggtgttcaccggcaaacatcgcgtcaatgcgttcgcgaaggccagattcttcggtcagtgcaaggagcttggtgagggtggcgtcgtcaagcagattcttcgacaggtcgacgtggaggccagccgcggagaaggtgtacttctcggcgcggttttcttccttgaaaagttcacgcagagtggttgcctggaagtttgagtaatgatcggtcaggtcttgccaaacctgggtggtcgaaatgtccgccatatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAGGTGGTACAGCTTTTGTTGCAGGGCTTTGAGTTCGGGCAAGTCGGCGAGCGTGGCAAACGCGATGGATATGCGGGAGACCTGCGCTTTTGTTAGACCTGTGACGATGGCGAGGC</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCAGAGTCATGGGAAGAGTTCTCCGAGTGGGGTCCAAAGCTGCAGGAAGCGATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGgctgagatcgaaaagcgtGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACGCCACGTTTAGTGCTTTCCACGAGGGCAAGATCGCGCCCACATTTTTTAGCGGGATGTAATCAAGAATGCGCAGATCATCCATGGACGCATCGCGCAAGATTCCCACGCGAGCTTCTGGC</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCATGGCGATCAGCCTGCTGCTGTTTATCTAGCGTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGCAAAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATCAATGGTGAGTTTCATGTTTTATCCAGCCTGACAAATAGAGAAAACCTAGGGGAGAAAATACATCCTCACCTAGGCTAATTGTCGGACTAACAGGATTTGAACCTGCGACCCCTACACC</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGATATAGGTATTAAGAAAACTCACCTCACGGTTGTAATCGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTGACTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGCAGCAGCTTTCCCTGACTGCTCCGCTACAAATTCTTGAGCCTTACGCTTACGCTCAATCTCTTTATCGCGCTCAGCTTGGGTTCGCTTGCGTTGTGCATCGCGCTCC</t>
   </si>
   <si>
     <t>NAME</t>
@@ -311,16 +674,31 @@
     <t>PLASMID SEQUENCE SIZE(bp)</t>
   </si>
   <si>
-    <t>AGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTTCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAATCGCCTCTAAACACCTGG</t>
-  </si>
-  <si>
-    <t>AATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCTTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGTGAAATCAGGCAGTCAGG</t>
-  </si>
-  <si>
-    <t>GTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCTCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGATTTCTGCCAGCTGTTCAG</t>
-  </si>
-  <si>
-    <t>AACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGAATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTACGCCGAAACATTTCACG</t>
+    <t>CGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
+  </si>
+  <si>
+    <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCG</t>
+  </si>
+  <si>
+    <t>GTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCT</t>
+  </si>
+  <si>
+    <t>GGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCG</t>
+  </si>
+  <si>
+    <t>ACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
+  </si>
+  <si>
+    <t>ACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>ATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGG</t>
+  </si>
+  <si>
+    <t>TCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTA</t>
+  </si>
+  <si>
+    <t>TCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTA</t>
   </si>
   <si>
     <t>NOT</t>
@@ -329,16 +707,31 @@
     <t>pMB1-sgRNA</t>
   </si>
   <si>
-    <t>AGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATT-TCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAATCGCCTCTAAACACCTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
-  </si>
-  <si>
-    <t>AATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCC-TTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGTGAAATCAGGCAGTCAGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
-  </si>
-  <si>
-    <t>GTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACC-TCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGATTTCTGCCAGCTGTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
-  </si>
-  <si>
-    <t>AACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGA-ATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTACGCCGAAACATTTCACGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+    <t>CGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>GTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>GGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>ACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>ACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>ATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>TCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>TCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
 </sst>
 </file>
@@ -696,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,16 +1123,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>169</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -750,16 +1143,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>169</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -770,16 +1163,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>169</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -790,16 +1183,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>169</v>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -809,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -843,16 +1336,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F2">
-        <v>169</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -863,16 +1356,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>169</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -883,16 +1376,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>169</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -903,16 +1396,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <v>169</v>
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,16 +1549,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F2">
-        <v>90</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -976,16 +1569,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -996,16 +1589,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F4">
-        <v>90</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1016,16 +1609,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F5">
-        <v>90</v>
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>3681</v>
       </c>
     </row>
   </sheetData>
@@ -1066,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F2">
-        <v>7375</v>
+        <v>7713</v>
       </c>
     </row>
   </sheetData>
@@ -1088,15 +1781,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -1106,13 +1854,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1120,13 +1868,55 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1134,13 +1924,43 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D2">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>62.01163517884282</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2">
+        <v>64.47237827659706</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2">
+        <v>63.90605700066322</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1148,13 +1968,37 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>62.3070547928009</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3">
+        <v>64.78597081263268</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1162,13 +2006,37 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4">
+        <v>64.72517295129251</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <v>65.02802783225161</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1176,10 +2044,242 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>59.99589418478223</v>
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>63.96643472816334</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5">
+        <v>64.06962284156873</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6">
+        <v>65.33046891902711</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6">
+        <v>64.88966510285542</v>
+      </c>
+      <c r="K6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6">
+        <v>61.80880265667895</v>
+      </c>
+      <c r="M6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6">
+        <v>63.20315157291196</v>
+      </c>
+      <c r="O6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6">
+        <v>65.06141045233028</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7">
+        <v>62.46679097625599</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7">
+        <v>64.76421932244233</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>61.22969895770865</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8">
+        <v>57.59079941647826</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9">
+        <v>64.60735549723296</v>
+      </c>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9">
+        <v>64.75610972804407</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10">
+        <v>62.12670289646758</v>
+      </c>
+      <c r="I10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10">
+        <v>64.35166066214509</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10">
+        <v>62.40252848344147</v>
       </c>
     </row>
   </sheetData>
@@ -1189,13 +2289,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1203,43 +2303,73 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>141</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>101</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1247,43 +2377,61 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="H2">
-        <v>60.12611002183172</v>
+        <v>66.00255393960521</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="J2">
-        <v>65.66953459855546</v>
+        <v>64.02025660626504</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="L2">
-        <v>491</v>
+        <v>2794</v>
       </c>
       <c r="M2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="N2">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>62.01163517884282</v>
+      </c>
+      <c r="O2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2">
+        <v>64.47237827659706</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2">
+        <v>63.90605700066322</v>
+      </c>
+      <c r="W2" t="s">
+        <v>195</v>
+      </c>
+      <c r="X2">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1291,43 +2439,55 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="H3">
-        <v>60.57417248282036</v>
+        <v>61.75288997524922</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="J3">
-        <v>64.84955785617689</v>
+        <v>62.86092969455734</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="L3">
-        <v>519</v>
+        <v>2326</v>
       </c>
       <c r="M3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="N3">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>62.3070547928009</v>
+      </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3">
+        <v>64.78597081263268</v>
+      </c>
+      <c r="W3" t="s">
+        <v>204</v>
+      </c>
+      <c r="X3">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1335,43 +2495,52 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="H4">
-        <v>64.22898477421717</v>
+        <v>64.59749529410232</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="J4">
-        <v>63.74478854774412</v>
+        <v>64.54515808958774</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="L4">
-        <v>493</v>
+        <v>2329</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="N4">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>64.72517295129251</v>
+      </c>
+      <c r="O4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4">
+        <v>65.02802783225161</v>
+      </c>
+      <c r="W4" t="s">
+        <v>205</v>
+      </c>
+      <c r="X4">
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1379,40 +2548,347 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="H5">
-        <v>64.60113494502525</v>
+        <v>64.52423562230456</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="J5">
-        <v>64.49313181010598</v>
+        <v>62.53971658740039</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="L5">
-        <v>496</v>
+        <v>2391</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="N5">
-        <v>3148</v>
+        <v>63.96643472816334</v>
+      </c>
+      <c r="O5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5">
+        <v>64.06962284156873</v>
+      </c>
+      <c r="W5" t="s">
+        <v>198</v>
+      </c>
+      <c r="X5">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H6">
+        <v>65.00319862891456</v>
+      </c>
+      <c r="I6" t="s">
+        <v>190</v>
+      </c>
+      <c r="J6">
+        <v>64.95400195660716</v>
+      </c>
+      <c r="K6" t="s">
+        <v>199</v>
+      </c>
+      <c r="L6">
+        <v>3982</v>
+      </c>
+      <c r="M6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>65.33046891902711</v>
+      </c>
+      <c r="O6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6">
+        <v>64.88966510285542</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>133</v>
+      </c>
+      <c r="R6">
+        <v>61.80880265667895</v>
+      </c>
+      <c r="S6" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6">
+        <v>63.20315157291196</v>
+      </c>
+      <c r="U6" t="s">
+        <v>135</v>
+      </c>
+      <c r="V6">
+        <v>65.06141045233028</v>
+      </c>
+      <c r="W6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X6">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7">
+        <v>64.69801219278492</v>
+      </c>
+      <c r="I7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J7">
+        <v>65.14920789589138</v>
+      </c>
+      <c r="K7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L7">
+        <v>2343</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N7">
+        <v>62.46679097625599</v>
+      </c>
+      <c r="O7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7">
+        <v>64.76421932244233</v>
+      </c>
+      <c r="W7" t="s">
+        <v>207</v>
+      </c>
+      <c r="X7">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8">
+        <v>62.01931167424249</v>
+      </c>
+      <c r="I8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8">
+        <v>64.10520005439656</v>
+      </c>
+      <c r="K8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8">
+        <v>2326</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8">
+        <v>61.22969895770865</v>
+      </c>
+      <c r="O8" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8">
+        <v>57.59079941647826</v>
+      </c>
+      <c r="W8" t="s">
+        <v>208</v>
+      </c>
+      <c r="X8">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9">
+        <v>62.40864996439342</v>
+      </c>
+      <c r="I9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9">
+        <v>63.92839694794333</v>
+      </c>
+      <c r="K9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L9">
+        <v>2323</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+      <c r="N9">
+        <v>64.60735549723296</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9">
+        <v>64.75610972804407</v>
+      </c>
+      <c r="W9" t="s">
+        <v>209</v>
+      </c>
+      <c r="X9">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10">
+        <v>65.04737031446456</v>
+      </c>
+      <c r="I10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10">
+        <v>64.88518553740045</v>
+      </c>
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10">
+        <v>2312</v>
+      </c>
+      <c r="M10" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10">
+        <v>62.12670289646758</v>
+      </c>
+      <c r="O10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10">
+        <v>64.35166066214509</v>
+      </c>
+      <c r="W10" t="s">
+        <v>203</v>
+      </c>
+      <c r="X10">
+        <v>2312</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +2898,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1433,25 +2909,25 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1462,22 +2938,22 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="D2">
-        <v>360</v>
+        <v>2173</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="H2">
-        <v>7712</v>
+        <v>13929</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1488,22 +2964,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>360</v>
+        <v>2173</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="H3">
-        <v>7712</v>
+        <v>13447</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1514,22 +2990,22 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="D4">
-        <v>360</v>
+        <v>2173</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>230</v>
       </c>
       <c r="H4">
-        <v>7712</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1540,22 +3016,152 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="D5">
-        <v>360</v>
+        <v>2173</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="H5">
-        <v>7712</v>
+        <v>13510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6">
+        <v>2173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H6">
+        <v>15096</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7">
+        <v>2173</v>
+      </c>
+      <c r="E7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H7">
+        <v>13461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8">
+        <v>2173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8">
+        <v>13446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9">
+        <v>2173</v>
+      </c>
+      <c r="E9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9">
+        <v>13449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10">
+        <v>2173</v>
+      </c>
+      <c r="E10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10">
+        <v>13449</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="414">
   <si>
     <t>ID</t>
   </si>
@@ -41,127 +41,763 @@
     <t>No.</t>
   </si>
   <si>
-    <t>b1101_del;NC_000913.3:1157868-1159302</t>
-  </si>
-  <si>
-    <t>b2296_del;NC_000913.3:2413469-2414672</t>
-  </si>
-  <si>
-    <t>b2297_del;NC_000913.3:2414746-2416891</t>
-  </si>
-  <si>
-    <t>b3956_del;NC_000913.3:4150446-4153098</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAGCCGTCAAACAAATTGGCACTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAATGGCATAGACTCAAGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTGTCCTGCGGTGGTTATCCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAACGACAATTCCTTAAGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAATTGAGAGTGCTCCTGAGTATGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGAAGTACCTATAATTGATACGTGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGTTTATCCTCTTTCGTTACCGCCG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTTCCTCTTCTGCAAACCCTCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGTAACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTAATCCGTAAGACGTTGGGGAGACT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCTTTTTCACACCGCCAGCTCAGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCAATCTCGTCATCATCCGCAGCT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGAAATTACCCCAGACACCCCATCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGACAAAACCTACGATACCAACGTGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGATCACGCCAAGGCTGACGCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGAGTGGGATGGCGCAATTCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTAGCTGAAGCGATTTCGCAGCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCATTAATCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCTTTTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACCAATCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGAAATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCAGGTGTTTAGAGGCGATTCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCTGACTGCCTGATTTCACACGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGAACAGCTGGCAGAAATCCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGTGAAATGTTTCGGCGTACCGCTTAAGATCTGACTCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGTCCACAAATCTCCGCTAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGACTGACGGACTAAAGTGTACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGACTTGTCGACCGTCTTTAGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCACTTTACAAAGCCGCATGACTCTGGACC</t>
-  </si>
-  <si>
-    <t>plasmid</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTACAGGCCCATGGATTCTT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCACTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGTACTCTGGACC</t>
+    <t>b0455;NC_000913.3:476447-476561</t>
+  </si>
+  <si>
+    <t>b4425;NC_000913.3:1287065-1287236</t>
+  </si>
+  <si>
+    <t>b4429;NC_000913.3:1492118-1492175</t>
+  </si>
+  <si>
+    <t>b4431;NC_000913.3:1770371-1770477</t>
+  </si>
+  <si>
+    <t>b4432;NC_000913.3:1923065-1923337</t>
+  </si>
+  <si>
+    <t>b4439;NC_000913.3:2313083-2313176</t>
+  </si>
+  <si>
+    <t>b4440;NC_000913.3:2653854-2654158</t>
+  </si>
+  <si>
+    <t>b4442;NC_000913.3:2814801-2814874</t>
+  </si>
+  <si>
+    <t>b4444;NC_000913.3:2976101-2976189</t>
+  </si>
+  <si>
+    <t>b4445;NC_000913.3:2976303-2976385</t>
+  </si>
+  <si>
+    <t>b4454;NC_000913.3:3700135-3700199</t>
+  </si>
+  <si>
+    <t>b4459;NC_000913.3:4277925-4278066</t>
+  </si>
+  <si>
+    <t>b4616;NC_000913.3:3853117-3853257</t>
+  </si>
+  <si>
+    <t>b4698;NC_000913.3:1622816-1622914</t>
+  </si>
+  <si>
+    <t>b4701;NC_000913.3:2887352-2887411</t>
+  </si>
+  <si>
+    <t>b4718;NC_000913.3:3658991-3659082</t>
+  </si>
+  <si>
+    <t>b4760;NC_000913.3:3808165-3808238</t>
+  </si>
+  <si>
+    <t>b4761;NC_000913.3:2640594-2640686</t>
+  </si>
+  <si>
+    <t>b4764;NC_000913.3:765049-765150</t>
+  </si>
+  <si>
+    <t>b4804;NC_000913.3:3937044-3937278</t>
+  </si>
+  <si>
+    <t>b4805;NC_000913.3:2737380-2737542</t>
+  </si>
+  <si>
+    <t>b4808;NC_000913.3:708235-708333</t>
+  </si>
+  <si>
+    <t>b4809;NC_000913.3:194783-194844</t>
+  </si>
+  <si>
+    <t>b4810;NC_000913.3:92484-92658</t>
+  </si>
+  <si>
+    <t>b4827;NC_000913.3:2001911-2002106</t>
+  </si>
+  <si>
+    <t>b4828;NC_000913.3:1977207-1977302</t>
+  </si>
+  <si>
+    <t>b4833;NC_000913.3:1418404-1418502</t>
+  </si>
+  <si>
+    <t>b4835;NC_000913.3:607732-607792</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCTGAGGTAATTTTTCAGCATAATCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCTTCGCCCTTCGGGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAACCGCAGTTCGTAGAGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCTAATTGATATTTGCTTGCTCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCCATTGATGACCCGCAATT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCTTTTTAAGATTATTGCGGAATGGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGTTGCTGGTCCGGTTCGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTCATTGTTTTCGCCACCCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCGTAACGCGAACGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCGAATAATCTCACCAATCAATACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTGTTCAGCCAGTTCACGATCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCGCATTCATACCTTAGTGGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCATGGAAGTAGTCATTGGGGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGGCCGTACTGGGAATAATTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAAAAGGTTCCATTAATAGCCTCCCT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGACGTATGAGCGACATCGTCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGATTTTTGCATCAGGATAATTCTGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCGGATTTCACTGTAACCGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCAAACGTATGGGCCACGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTCAGGCTGTATTCGCGCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAAAAATGGCAAACACATCTGAT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTACGCTTTTATTCTTCTGCAAGCC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTATGTGTGGACGATGTGTTATCTG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAAACCGATGGTGGTAATGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTCAGCGGTATAGAGTGAATTCAC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCAAGGCTTCCACCGGTC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTGATGCGGTGTCTGGTGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCGGGTTCAGCTTCAGTTGAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATTGAGAGCGTTGAGAACCA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCACTTTCAAAAGTCCCTGAACT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAATTCAGATCTTAGCCTCTTACCCG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGAGCTAATAGTAGGCATACGGACT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATAGTCAACCATAACACACACTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGGAGTTATTCTAGTTGCGAGTG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGTGGATAATACACTAACAGAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATATACTCAGACTCGCCTGGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCACCTAATTTACTGTCGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCGGTCATCAATCTGTAACAG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCACTCAAGAATAGCCGCGAA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTCATCTTCCAGCAAGCGTG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTATCTGCAATTCAGTACAAAACG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCCGTCATAAAAATCAGGCC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAATTCGAATGTTAGTCTCTTCTTTG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGTTTTAGCCTCTCCTTTAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAACCAGACAATCACACAAAAGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATTCAGAAAGAGAATAAACGTGGCA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTATTTCAGAACAGTTTTCAGTGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCTGCTAGTTTGCCATCATTCA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGTTAATTGCGGTGTACAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGAACAGACTATTTTTCGCGAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGCGCAGACTATATCACTGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGTAATACCCCGGTCAGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCCTGGAATTTACCTGTAACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGCCCCAATCGCGCGTTAA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAAAGTGAATTTTGTGATGCGGTG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCAGACCTCAGAGTAAACCTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCTGAGGTAATTTTTCAGCATAATCTGGAAAAACGCCCGAGTGAAGTCGCATTGCGCAAGAAACCAGCATCTGGCACGCGATGGGTTGCAATTAGCCGGGGCAGCAGTGATAATGCGCCTGCGCGTTGGTTCTCAACGCTCTCAATACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCTTCGCCCTTCGGGTCGTTGCCTGCGGCAACGCTCTCTCGCTGACGCTCGAGCCGAACCTTAGTCGAAGCTTCTCATCCTTCCCCGCATGGGCAGAATATTTGATTGCGGATTCGCTTGAGAGTTCAGGGACTTTTGAAAGTGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAACCGCAGTTCGTAGAGCGTTTGTCGGGTCAGGAGTGTGAATGTCAGAATCGTAATGCAGATAATGAGCAGACACACCACCAGAGGGTTGTGCTTCATAGCCTTTCTCCTTGCCGGATGGCGGGTAAGAGGCTAAGATCTGAATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCTAATTGATATTTGCTTGCTCTTCCCCATATTTTCCTGCTTACCGCCATTCAGCTGGTAGTACCTGTCGCAAATTCTTTACAGTTTTTAAACTAATGAGACGAATCTGATCGACGCAAAAAGTCCGTATGCCTACTATTAGCTCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCCATTGATGACCCGCAATTCTCTGATAAACGGGCGCAGGCTGTTTCATCAATATTTTCCTCCCGCGCTAAAGATCACATAATCTTAACAAGAATGTTAAAAAACGCTGGACTCAGACAGTAGAGTGTGTGTTATGGTTGACTATACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCTTTTTAAGATTATTGCGGAATGGCGAAATAAGCACCTAACATCAAGCAATAATAATTCAAGGTTAAAATCAATAACTTATTCTTAAGTATTTGACAGCACTGAATGTCAAAACAAAACCTTCACTCGCAACTAGAATAACTCCCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGTTGCTGGTCCGGTTCGCGGCCTTTCCAGCAGGTTGTATTACCGTAGTAATGCAAGCGCGTCTCAGCGGAGACAATACTCGCCAGTAACTCTCTTTTTGTCAAGCAAAAGAGAGTTATTATTGTTCTGTTAGTGTATTATCCACTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTCATTGTTTTCGCCACCCGAACTGCAGGCGCTTCCATCCGGGTATGATCGACTGTGAAGCTATCTAACAACGGCATTTAGCCACCTCCGGTAATTTTTTTAAAAATTTTCTGAACTCTTTCTTCCCAGGCGAGTCTGAGTATATACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCGTAACGCGAACGCGATACAAAACACGGCACAAATTTCGAAAAAAGCTAAAAAGCATTCCAACTCCCTTTGCTCTGATTCAGTAAAAGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCGAATAATCTCACCAATCAATACCTCTGGGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTGTTCAGCCAGTTCACGATCATACTGGCAAGAATGCCAGCAATGACCGGAGCCGCTAAATCATGCCAGAAGGCCATGCCCAGCTCTGCGAACGTCATATAGCCGCCTGTGTTGTAATGACAACGTTTCGCGGCTATTCTTGAGTGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAACACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCATGGAAGTAGTCATTGGGGACCTTGTTGGTTTTGTGTTTAACAATATTTATACAAGCACAGCTTTACAGGGGAGACAATGGAAAATTTTTCAGCAAGGGAAAATTGAGGGGTTGATCACGTTTTGTACTGAATTGCAGATAACACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGGCCGTACTGGGAATAATTTTATTTTCTGGTTTTCTGGCCGCGTATTTCAGCCACAAATGGGATGACTAATGAACGGAGATAATCCCTCACCTAACCGGCCCCTTGTTACAGTTGTGTACAAGGGGCCTGATTTTTATGACGGCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAAAAGGTTCCATTAATAGCCTCCCTGTTTTTTTAGTATTATCGATGATATCAGCGGGCTATTTTTCGATGCTGCTCATAAATATCGAATTACAGTGATATACACATGTCTTGCCTCCCTGCAAAGAAGAGACTAACATTCGAATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGACGTATGAGCGACATCGTCACCCTGGGTATCACATCTTATTTTTAGTCAGGACATAAGCAACTGAAATTGATGGCTGGCATGACGAGGGATGCAGATGCTGATTTCATTACCCCCGGTGATTACTAAAGGAGAGGCTAAAACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGATTTTTGCATCAGGATAATTCTGCTTGAGCGTACTGATGACAGGAGTAGTTAATAACATATCCCCATGATATCGCATCTTTATGACCAGGATTTTTCGAAATGGCTTTTCCACTAGCGACTCTTTTGTGTGATTGTCTGGTTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTGCGGATTTCACTGTAACCGTAGCTGCCGAGCACGTTTTTCAGTGTGCCTTCAATGCGCTGCCAGATGGCCGTTTCGCCAGGCAGGTAATCGTTCATGCCGCGAATGGCTTGAATGTTTTTTGCCACGTTTATTCTCTTTCTGAATACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCAAACGTATGGGCCACGCGGGTGCCATCATTGCCGGTGGGAAAGGGACTGCGGATGAGAAATTCGCTGCTCTGGAAGCCGCAGGCGTGAAAACCGTTCGCAGCCTGGCGGATATCGGTGAAGCACTGAAAACTGTTCTGAAATAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTCAGGCTGTATTCGCGCAGAATGATGAAATGGCGCTGGGCGCGCTGCGCGCACTGCAAACTGCCGGTAAATCGGATGTGATGGTCGTCGGATTTGACGGTACACCGGATGGCGAAAAAGCGGTGAATGATGGCAAACTAGCAGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAAAAATGGCAAACACATCTGATTAATCCACATATCATTCTGTCCAAAGAGCCACAAGGGTTTGTTGCTGACGCCACAATCAATACACCTAACGGCGTTCTGGTTGCCAGTGGTAAACATGAAGATATGTACACCGCAATTAACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTACGCTTTTATTCTTCTGCAAGCCTTTCAACCGCAAACTTAAGCCTTGTAACAAAAATCATCAAAATATGTGCGGTTGCTCATGTTCTTACATTCTGGTTACAGAAAGAGATTGATAATTCGCGTCGCGAAAAATAGTCTGTTCCTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTATGTGTGGACGATGTGTTATCTGTTGATGCGAACGCGCGTGAAGTCGCCAGAAAAGAGGTGATGCGTCTCGCAAGCTGAGGATAATCCGGCTACAGAGAGTCGCGCTATTTGTTAGCGTAGGGCTTCAGTGATATAGTCTGCGCCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTAAACCGATGGTGGTAATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGGGTATTACAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTCAGCGGTATAGAGTGAATTCACGATAAACAGCCCTGCGTTATATGAGTTATCGGCATGATTATCCGTTTCTGCAGGGTTTTTAATCGGACGATTAGTGGGTGAAATGAGGGGTTATTTGGGGGTTACAGGTAAATTCCAGGCAGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCCAAGGCTTCCACCGGTCATCAAATAACCGCCGAAAACTGTACCGAGAACAACCAGGTAACCTAATAAGATAAGCACGACATCATCCTTCCACTGTTGACCATGACAGGATGTTCAGTCGTCAGGCGTTAACGCGCGATTGGGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTTTGATGCGGTGTCTGGTGCCTCCAGGTGACTGCAACCAGTTAACAATTACAGTCGGCTTTCCCACCCAAACCAATAAGGACTAACATGACTTTTAACTGTGCCACGTGCGCTTAGCCGCATTCACCGCATCACAAAATTCACTTTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTGTCGGGTTCAGCTTCAGTTGATTAAATGAGGAGTGAGAAGTCCGAAACAGGACTCACTGTATAAATAAACAGCTATTTTGTTGAGGAAGGGTAAGATAACGGCGGGTGCCTGAAGCTTTCCGGTTTCAGGTTTACTCTGAGGTCTGGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATAACATTTCTGCCTCCCACCGTTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTGAAAGTGATGGTGGTGGGGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTAACTGATTCCCGGTTAGCCTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTCGAACATTTTTCCGCTTCGCTACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATATCTGGAAATCAAAAGGCTATTTTAGGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACCCTACCCTTCTTTACACACTTTTCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCACAGATTATCCGATTCTGTTTAAAGTC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATATACTTTTCTGTCAGGCGTGTTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGTATCTTGATTGTGGTCTGCACG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGGCATCACCACTTTAGCAACCTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTGACTCTCTCCAGCAACCAATG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACAAGGCTTTAATTGTATGTCACCGACGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACAATATAGTTGAGTATCGATCACAGTTTG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGGGTTGACACAGTAGCATCAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTAACTGGAACCTCGCGAATGCTT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGTCGTTGACCTCACCATGTC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATTCGTGCTAGTGTATCATTTCTTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATAAGTATTTTTCAACCTGCTGAACGTCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATAGCTTATCGCGATGATTTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGACATGGACATCCCGAATATGCA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGTTGACAGCGTGAAAACAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTATGCGTACGTTTAGTGGCAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACCGCTTTGTATAGGCTTCAGTATTCCTG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGACCTTTCGGCTACGGGCTAATG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGACGCGATTAACCCTGCAGCAGAGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGGGGGGATAATATCGGCAGGATTCTG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTCCATTTAAATTTAACAGACAAGACCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGTCAATTTGGATGGTAGTCCCTTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGGAACGGCAACCACAAAACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAATCCTTCCCCCACCACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTGGCTAAACTGGCTAACCCG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCGTTCATCGTGTAATGGCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTGCCAGTGGGAAGACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGACCTACAAAAAGCCCAACAA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTTACCTGGCGATGAACCAATC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTGCTGCGTGAAGAGCCG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGACCAGCCTGCGCAGATG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGTGGCGTGTTTTCATCGTGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAGCTGGAAGGCATCGCG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGATCGTCGGTGCGCAAGATT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCACCCGTTTCAGCCAGGAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGGTCATTGGAAGAGCGGACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCCTCTGTCAGAAATGATGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGTCCCTGAAAATTCTTGAGAAAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCGGCCCCATTTTCAAATCTACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAGAAAAGCGGCCTCTATGAAGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGATATCAGCCAGACAAAGCCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCTTTGCCGCCAAATGCAACC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGTCGTCTTCGCATTCTGTTTCAC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCCAGTAATAGATACCGCCGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCCATTGCCGTCCATAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGACAATGGATTCCGGGAAGACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGCAGTCCCGTATTCAGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGAACTTTCCAGCTGCAACTGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGGTATTGAAATGTTAACACAAGCTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTAGCTTCACCGTAAACTCACACAGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATAACATTTCTGCCTCCCACCGTTTCGTCAAAAAATCCCAACATGGCTAAACTTTAACCACAACTGACGTCGCAAGAATTGTCTGGCTGCGCAGTACGCTTCGGAGGTATGTCTGATGAAGTATGTTGATGGTTTTGTGGTTGCCGTTCCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTGAAAGTGATGGTGGTGGGGGAAGGATTCGAACCTTCGAAGTCGATGACGGCAGATTTACAGTCTGCTCCCTTTGGCCGCTCGGGAACCCCACCAGGGGTAATTCAAATTTTGAGGTAATGCTTGAGATGGTGGTGGGGGAAGGATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTAACTGATTCCCGGTTAGCCTGAAAACAGAAAGTCTCAGGCACCCGCAGGCATCCTATGAGGTTTCCTTAGGGACGAAAATAATCACTTCACGAAATTGCGTGCTGTTTTCCAGAATTTTTCGTCATTCGGGTTAGCCAGTTTAGCCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTCGAACATTTTTCCGCTTCGCTACCTCGCCCCTCACTCTTTCCAATAATGTTGCACAAGATACTGTGACTCTCTTCAAGCCGTCAGCAGGCTGATAATGTTATTTATATTTTATTGTTTATTTCATGCAGCCATTACACGATGAACGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATATCTGGAAATCAAAAGGCTATTTTAGGTAATTAACAGAGTTTTTCAGCTCGTTCTATAAACGGTGCCAGACTCATTTTTTCGCCGGGATTGTTAGGATCATCAATCTGAATCACCGAAATGGGTTGGGCATTGGTCTTCCCACTGGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACCCTACCCTTCTTTACACACTTTTCATTATTCTGTGCTACCACAGAAAAACTATAACGCTTGTTAACTATTTCACAAATAATTAACATCCGCATAATTTCCAGCAATCTTTGTTTATTTGCAATTATTTTTGTTGGGCTTTTTGTAGGTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCACAGATTATCCGATTCTGTTTAAAGTCACGCAAAAAACCACCCCAGCGACGTTCATAGAATGGCGCAATATGTTCGGTAATAAAGTGGCTAATTCCTTTTTCCCCTTTTTTCACCTGACAAATATCGATTGGTTCATCGCCAGGTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATATACTTTTCTGTCAGGCGTGTTTTTCCAGCCACACCGCAAACGGTTCGGTATCAGCGGCTTCCATTTCCTGCTGACGGCGTTCAGACGCCTCGCGCTCGGCTACAAAATCCTCTTCGCGCAGAATTTCCAGCGGCTCTTCACGCAGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGTATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCAAAAAAAACCTGCGCATCTGCGCAGGCTGGTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGGCATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCGCAACAGCGTTTCGCAAAGTGTAACCAAAGGTTTGCAATCTCTTTTTTTGTCTTACTTATTTGCGTTTGGCTCACATTCCCACGATGAAAACACGCCACACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTGACTCTCTCCAGCAACCAATGCCACCAGGGATAAAGCCCCCGCAACATTGCGCCTCACCGGAACCTTTCCGGCTTGCCGCTGATTCTACGATTGCTTTTTACTGTCAGCACCCGGCAATCTTCCTCATTGCGCGATGCCTTCCAGCTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACAAGGCTTTAATTGTATGTCACCGACGTTTCTTCGCCAGTGTAAAAGTATACTTTTTAACCGCAATATTTTTGTCATCTCAGACGATTTTTTATCGCAATCCTGAACGGTATACGGCTCGATAACGCTGCAATCTTGCGCACCGACGATACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACAATATAGTTGAGTATCGATCACAGTTTGCGTTTTGTCCAAATATTACTGTTTATTTATACAGTAAACTTCTATAATATCACTGTACGCAATGTGTTATGCGGGGGCCGCATCGTTACCCGGCGCACTAAGTCCTGGCTGAAACGGGTGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGCGGGTTGACACAGTAGCATCAGTTTTCTCAATGAATGTTAAACGGAGCTTAAACTCGGTTAATCACATTTTGTTCGTCAATAAACATGCAGCGATTTCTTCCGGTTTGCTTACCCTCATACATTGCCCGGTCCGCTCTTCCAATGACCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTAACTGGAACCTCGCGAATGCTTAACGCCAGACAGCCTCAAGCACCCGACGCCATTCTATACCTGATAATTCTTCCCGCGGCGTTCACGTTTAAAATCAGGAATGCTGCTCGCAAAATAAAAACGCCCCCATCATTTCTGACAGAGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGTCGTTGACCTCACCATGTCGATCACTGTGCCTGTATCCCACCTTACTGGCTGACAACCCCACTATGCCGCTGGTCTGTAAATCCCTCATATCTCTCCTCGCGCGCAATTTAAAGAACCGTTATTTCTCAAGAATTTTCAGGGACACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATTCGTGCTAGTGTATCATTTCTTTCGCAGCAATCCGACCCGAATGATTTTTATACACAAAATATACTTTAATCATAAAAATCAAATAGATAAAAAATAGCATTTCGATAATGTCAGTACGGCCTATGTAGATTTGAAAATGGGGCCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATAAGTATTTTTCAACCTGCTGAACGTCAATTCGACGCGCTTCGTCCAGCTGACTGGCTTTCGCACGAATGCGTGCTTCCAGCTGGTCGATCATATCGTTGTTGTCCAGACGGTCTTTGCGCACGCCATCTTCATAGAGGCCGCTTTTCTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATAGCTTATCGCGATGATTTTCGCTGCGCTATCAGGGTAAATTTATAGTCATCGGTATTAAAAGCGTTGCGGCTATATTCAAACACCCGACCATCAACTAAATATCCACGCGATACTTTTTCAAGAATCGGCTTTGTCTGGCTGATATACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGACATGGACATCCCGAATATGCAAAACGCAGGCAGCCTCGTTGTTCTTGGCAGCATTAATGCTGACCACATTCTTAATCTTCAATCTTTTCCTACTCCAGGCGAAACCGTAACCGGTAACCACTATCAGGTTGCATTTGGCGGCAAAGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGTTGACAGCGTGAAAACAGTACGGGTACTGTACTAAAGTCACTTAAGGAAACAAACATGAAACACATACCGTTTTTCTTCGCATTCTTTTTTACCTTCCCCTGAATGGGAGGCGTTTCGTCGTGTGAAACAGAATGCGAAGACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATCCTATGCGTACGTTTAGTGGCAAACGTAGTACGCTGGCGCTGGCTATCGCCGGTGTTACAGCAATGTCGGGCTTTATGGCAATGCCGGAGGCTCGCGCCGAAGGATTCATCGACGATTCAACCTTAACCGGCGGTATCTATTACTGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACCGCTTTGTATAGGCTTCAGTATTCCTGAGTACCGTAAACCCTGTCAGGGAATAAAAAACGCGTGATGTTGTCTGCTACTCAACCACTTAGCGAAAAATTGCCAGCGCATGGCTGCCGTCATGTTGCGATCATTATGGACGGCAATGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGACCTTTCGGCTACGGGCTAATGGTAACACCATTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCCATTGTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGACGCGATTAACCCTGCAGCAGAGACAGAACCTGCTGCGGTACCTGGTTAGCTTTTGCCAACACGGAGTTACCGGCCTGCTGGATGATCTGCGCTTTCGACATATTGGACACTTCGGTCGCATAGTCGGCGTCCTGAATACGGGACTGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACGGGGGGATAATATCGGCAGGATTCTGGGAAAGTTTACGTCTTTTTACTGCCCGGGATGGCGGTTGACATAAGCTGCAGGCAAAGCTGCCAACAGGCTGGTGAGCGTGGGTAATAAAATTGCCGCCGCAGCAGTTGCAGCTGGAAAGTTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCATTTCCATTTAAATTTAACAGACAAGACCGACTCTTTATGGATATCGGAAATGCGCCTTCGTGTTGTGCCCGGTTTTATTTCACCACCTCCGGGCTTCGGTGGTCTCGGCTATACCCCTACAGCGAGAGCTTGTGTTAACATTTCAATACACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGGTCAATTTGGATGGTAGTCCCTTCTTCGCATGGAGGCAATATAAACATGCTGACGAAATATGCCCTTGCGGCAGTCATAGTGCTGTGTTTAACGGTGCTGGGATTTACGCTTCTGGTCGGAGACTCGCTGTGTGAGTTTACGGTGAAGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAACGCTACTCTGTTTACCACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGAACTTCCCAACGAATCCGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGCCAACGAATGAACCTAGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGAGCTAATAGTAGGCATACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCCGTTCTGGTGAAAGAACTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCATTCATTTCTGAATGTCTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGAACATCCTTTCCTAAAGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGCGAGTCTGAGTATATGACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCAGGTTGGTGCAAGAGACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGGGATCACCACTTTAGCACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTGTTGTCAGGTGCATACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGTGGCGCTTTAGTTTTGTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGAGCGAGGTTTCGTCAGTCGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCGGTTTACTGGCGGTTTTTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGGAACCTCGCGAATGCTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTATGTGTATCCACCAGTCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGCTCAACAGCTACCTGAATCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCTTCCCGTGTATGATTGACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCCATTCCTGTAGAGGGCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATCTGATCGGGTAGCTGAGCCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGGCGCGTTTTTTGTTGACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATGCGTACGTTTAGTGGCAACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGCATATCTGACCTTATAACGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAGCGTTAGTAGATACTTACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCCGGTGGCGGGGAAGCACCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCTTTTTTTTGCCCCAATCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTGTAAATAACGACATTGCCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGGGCTGCCACTCCAAACCCGCTTAAGATCTGACTCCATAACA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTTGCGATGAGACAAATGGTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACTTGAAGGGTTGCTTAGGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCCGGTTGCTTACTTGGATCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACTCGATTATCATCCGTATGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGGCAAGACCACTTTCTTGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGTAAGTAAAGACTTACAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCCTTGTAGGAAAGGATTTCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCCGCTCAGACTCATATACTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCGTCCAACCACGTTCTCTGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGACCCTAGTGGTGAAATCGTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACCACAACAGTCCACGTATGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAACACCGCGAAATCAAAACAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCTCGCTCCAAAGCAGTCAGCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGCCAAATGACCGCCAAAAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGACCTTGGAGCGCTTACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACCATACACATAGGTGGTCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCCGAGTTGTCGATGGACTTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCGAAGGGCACATACTAACTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAAGCGGTAAGGACATCTCCCACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTAGACTAGCCCATCGACTCGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGCCCGCGCAAAAAACAACTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTACGCATGCAAATCACCGTTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCCGTATAGACTGGAATATTACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTCGCAATCATCTATGAATGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCGGCCACCGCCCCTTCGTGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGACGAAAAAAAACGGGGTTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCAACATTTATTGCTGTAACGACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACCCCGACGGTGAGGTTTGGACTCTGGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -173,18 +809,6 @@
     <t>GCACAAAGCATCTTCTGTTGAGT</t>
   </si>
   <si>
-    <t>UHA</t>
-  </si>
-  <si>
-    <t>DHA</t>
-  </si>
-  <si>
-    <t>seq_altered</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>SEQUENCING_PRIMER_2</t>
   </si>
   <si>
@@ -203,94 +827,250 @@
     <t>WT_SEQUENCING_TARGET_SIZE</t>
   </si>
   <si>
-    <t>AGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATT</t>
-  </si>
-  <si>
-    <t>AATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCC</t>
-  </si>
-  <si>
-    <t>GTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACC</t>
-  </si>
-  <si>
-    <t>AACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGA</t>
-  </si>
-  <si>
-    <t>TCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGT</t>
-  </si>
-  <si>
-    <t>TTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGAT</t>
-  </si>
-  <si>
-    <t>TCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACT</t>
-  </si>
-  <si>
-    <t>ATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAG</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ATGTTTAAGAATGCATTTGCTAACCTGCAAAAGGTCGGTAAATCGCTGATGCTGCCGGTATCCGTACTGCCTATCGCAGGTATTCTGCTGGGCGTCGGTTCCGCGAATTTCAGCTGGCTGCCCGCCGTTGTATCGCATGTTATGGCAGAAGCAGGCGGTTCCGTCTTTGCAAACATGCCACTGATTTTTGCGATCGGTGTCGCCCTCGGCTTTACCAATAACGATGGCGTATCCGCGCTGGCCGCAGTTGTTGCCTATGGCATCATGGTTAAAACCATGGCCGTGGTTGCGCCACTGGTACTGCATTTACCTGCTGAAGAAATCGCCTCTAAACACCTGGCGGATACTGGCGTACTCGGAGGGATTATCTCCGGTGCGATCGCAGCGTACATGTTTAACCGTTTCTACCGTATTAAGCTGCCTGAGTATCTTGGCTTCTTTGCCGGTAAACGCTTTGTGCCGATCATTTCTGGCCTGGCTGCCATCTTTACTGGCGTTGTGCTGTCCTTCATTTGGCCGCCGATTGGTTCTGCAATCCAGACCTTCTCTCAGTGGGCTGCTTACCAGAACCCGGTAGTTGCGTTTGGCATTTACGGTTTCATCGAACGTTGCCTGGTACCGTTTGGTCTGCACCACATCTGGAACGTACCTTTCCAGATGCAGATTGGTGAATACACCAACGCAGCAGGTCAGGTTTTCCACGGCGACATTCCGCGTTATATGGCGGGTGACCCGACTGCGGGTAAACTGTCTGGTGGCTTCCTGTTCAAAATGTACGGTCTGCCAGCTGCCGCAATTGCTATCTGGCACTCTGCTAAACCAGAAAACCGCGCGAAAGTGGGCGGTATTATGATCTCCGCGGCGCTGACCTCGTTCCTGACCGGTATCACCGAGCCGATCGAGTTCTCCTTCATGTTCGTTGCGCCGATCCTGTACATCATCCACGCGATTCTGGCAGGCCTGGCATTCCCAATCTGTATTCTTCTGGGGATGCGTGACGGTACGTCGTTCTCGCACGGTCTGATCGACTTCATCGTTCTGTCTGGTAACAGCAGCAAACTGTGGCTGTTCCCGATCGTCGGTATCGGTTATGCGATTGTTTACTACACCATCTTCCGCGTGCTGATTAAAGCACTGGATCTGAAAACGCCGGGTCGTGAAGACGCGACTGAAGATGCAAAAGCGACAGGTACCAGCGAAATGGCACCGGCTCTGGTTGCTGCATTTGGTGGTAAAGAAAACATTACTAACCTCGACGCATGTATTACCCGTCTGCGCGTCAGCGTTGCTGATGTGTCTAAAGTGGATCAGGCCGGCCTGAAGAAACTGGGCGCAGCGGGCGTAGTGGTTGCTGGTTCTGGTGTTCAGGCGATTTTCGGTACTAAATCCGATAACCTGAAAACCGAGATGGATGAGTACATCCGTAACCACTAA</t>
-  </si>
-  <si>
-    <t>ATGTCGAGTAAGTTAGTACTGGTTCTGAACTGCGGTAGTTCTTCACTGAAATTTGCCATCATCGATGCAGTAAATGGTGAAGAGTACCTTTCTGGTTTAGCCGAATGTTTCCACCTGCCCGAAGCACGTATCAAATGGAAAATGGACGGCAATAAACAGGAAGCGGCTTTAGGTGCAGGCGCCGCTCACAGCGAAGCGCTCAACTTTATCGTTAATACTATTCTGGCACAAAAACCAGAACTGTCTGCGCAGCTGACTGCTATCGGTCACCGTATCGTACACGGCGGCGAAAAGTATACCAGCTCCGTAGTGATCGATGAGTCTGTTATTCAGGGTATCAAAGATGCAGCTTCTTTTGCACCGCTGCACAACCCGGCTCACCTGATCGGTATCGAAGAAGCTCTGAAATCTTTCCCACAGCTGAAAGACAAAAACGTTGCTGTATTTGACACCGCGTTCCACCAGACTATGCCGGAAGAGTCTTACCTCTACGCCCTGCCTTACAACCTGTACAAAGAGCACGGCATCCGTCGTTACGGCGCGCACGGCACCAGCCACTTCTATGTAACCCAGGAAGCGGCAAAAATGCTGAACAAACCGGTAGAAGAACTGAACATCATCACCTGCCACCTGGGCAACGGTGGTTCCGTTTCTGCTATCCGCAACGGTAAATGCGTTGACACCTCTATGGGCCTGACCCCGCTGGAAGGTCTGGTCATGGGTACCCGTTCTGGTGATATCGATCCGGCGATCATCTTCCACCTGCACGACACCCTGGGCATGAGCGTTGACGCAATCAACAAACTGCTGACCAAAGAGTCTGGCCTGCTGGGTCTGACCGAAGTGACCAGCGACTGCCGCTATGTTGAAGACAACTACGCGACGAAAGAAGACGCGAAGCGCGCAATGGACGTTTACTGCCACCGCCTGGCGAAATACATCGGTGCCTACACTGCGCTGATGGATGGTCGTCTGGACGCTGTTGTATTCACTGGTGGTATCGGTGAAAATGCCGCAATGGTTCGTGAACTGTCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGA</t>
-  </si>
-  <si>
-    <t>GTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCACCACGACGGCCGCTGAACCGCTGAAAATGAGCTACGTTGAAGGTCTGCTTTCCAGCAATCAGAAAGATGTGCTGATGGAAGAGATCGTCGCAAACTACCACGCTAACACCAAAGACGCTGAAGTCGTTCTGGTTGAAGGTCTGGTCCCGACACGTAAGCACCAGTTTGCCCAGTCTCTGAACTACGAAATCGCTAAAACGCTGAATGCGGAAATCGTCTTCGTTATGTCTCAGGGCACTGACACCCCGGAACAGCTGAAAGAGCGTATCGAACTGACCCGCAACAGCTTCGGCGGTGCCAAAAACACCAACATCACCGGCGTTATCGTTAACAAACTGAACGCACCGGTTGATGAACAGGGTCGTACTCGCCCGGATCTGTCCGAGATTTTCGACGACTCTTCCAAAGCTAAAGTAAACAATGTTGATCCGGCGAAGCTGCAAGAATCCAGCCCGCTGCCGGTTCTCGGCGCTGTGCCGTGGAGCTTTGACCTGATCGCGACTCGTGCGATCGATATGGCTCGCCACCTGAATGCGACCATCATCAACGAAGGCGACATCAATACTCGCCGCGTTAAATCCGTCACTTTCTGCGCACGCAGCATTCCGCACATGCTGGAGCACTTCCGTGCCGGTTCTCTGCTGGTGACTTCCGCAGACCGTCCTGACGTGCTGGTGGCCGCTTGCCTGGCAGCCATGAACGGCGTAGAAATCGGTGCCCTGCTGCTGACTGGCGGTTACGAAATGGACGCGCGCATTTCTAAACTGTGCGAACGTGCTTTCGCTACCGGCCTGCCGGTATTTATGGTGAACACCAACACCTGGCAGACCTCTCTGAGCCTGCAGAGCTTCAACCTGGAAGTTCCGGTTGACGATCACGAACGTATCGAGAAAGTTCAGGAATACGTTGCTAACTACATCAACGCTGACTGGATCGAATCTCTGACTGCCACTTCTGAGCGCAGCCGTCGTCTGTCTCCGCCTGCGTTCCGTTATCAGCTGACTGAACTTGCGCGCAAAGCGGGCAAACGTATCGTACTGCCGGAAGGTGACGAACCGCGTACCGTTAAAGCAGCCGCTATCTGTGCTGAACGTGGTATCGCAACTTGCGTACTGCTGGGTAATCCGGCAGAGATCAACCGTGTTGCAGCGTCTCAGGGTGTAGAACTGGGTGCAGGGATTGAAATCGTTGATCCAGAAGTGGTTCGCGAAAGCTATGTTGGTCGTCTGGTCGAACTGCGTAAGAACAAAGGCATGACCGAAACCGTTGCCCGCGAACAGCTGGAAGACAACGTGGTGCTCGGTACGCTGATGCTGGAACAGGATGAAGTTGATGGTCTGGTTTCCGGTGCTGTTCACACTACCGCAAACACCATCCGTCCGCCGCTGCAGCTGATCAAAACTGCACCGGGCAGCTCCCTGGTATCTTCCGTGTTCTTCATGCTGCTGCCGGAACAGGTTTACGTTTACGGTGACTGTGCGATCAACCCGGATCCGACCGCTGAACAGCTGGCAGAAATCGCGATTCAGTCCGCTGATTCCGCTGCGGCCTTCGGTATCGAACCGCGCGTTGCTATGCTCTCCTACTCCACCGGTACTTCTGGTGCAGGTAGCGACGTAGAAAAAGTTCGCGAAGCAACTCGTCTGGCGCAGGAAAAACGTCCTGACCTGATGATCGACGGTCCGCTGCAGTACGACGCTGCGGTAATGGCTGACGTTGCGAAATCCAAAGCGCCGAACTCTCCGGTTGCAGGTCGCGCTACCGTGTTCATCTTCCCGGATCTGAACACCGGTAACACCACCTACAAAGCGGTACAGCGTTCTGCCGACCTGATCTCCATCGGGCCGATGCTGCAGGGTATGCGCAAGCCGGTTAACGACCTGTCCCGTGGCGCACTGGTTGACGATATCGTCTACACCATCGCGCTGACTGCGATTCAGTCTGCACAGCAGCAGTAA</t>
-  </si>
-  <si>
-    <t>TTAGCCGGTATTACGCATACCTGCCGCAATCCCGGCAATAGTGACCATTAACGCTTGTTCGACGCGAGGATCCGGTTCCTGGCCTTCTTTTTCTGCCTGGCGGGAGCGGTGCAGCAACTCGGCCTGCAATACGTTCAGCGGGTCGGTGTAAATATTCCGTAGCTGAATAGACTCTGCAATCCACGGCAGATCGGCCATCAGATGGGAATCGTTGGCAATCGCCAGCACCACTTTGATGTCTTCTTCTTGCAGGTTGCGTAACTCTTTACCTAACGGCCACAGTGCTTTGTCTACCAGGCGTTGGTCATAGTATTCCGCCAGCCACAGGTCTGCTTTGGCGAAGACCATCTCCAGCATGCCGAGACGCGTCGAGAAGAATGGCCAATCGCGGCACATAGCCTCCAGCTCGCTCTGTTTGCCGTCTTCGACCACTTTTTGCAGCGCCGTACCTGCACCCAGCCAGGCGGGGAGCATCAGACGGTTTTGCGTCCAGGCGAAGATCCACGGAATGGCGCGTAGTGACTCGACGCCGCCGGTTGGGCGACGTTTCGCCGGACGTGAACCCAACGGCAGTTTGCCCAGTTCTTGTTCCGGCGTAGCGGAGCGGAAGTAAGGCACAAAATCTTTGTTTTCACGTACGTAGCCGCGGTAGACATCGCAGGAGATGACTGACAGTTCATCCATAATGCGACGCCAGCTCTCTTTCGGCTCCGGCGGTGGCAGCAGGTTGGCTTCCAGAATCGCCCCGGTATAAAGCGACAGGCTGCTGACGGTGATTTCTGGCAGACCATATTTAAAGCGGATCATCTCGCCCTGTTCGGTTACGCGCAGGCCGCCTTTCAGGCTTCCTGGCGGTTGTGACAGCAGCGCCGCATGAGCAGGTGCGCCGCCGCGACCAATGGAACCGCCGCGACCGTGGAACAACGTCAGCTCAATACCCGCTTTTTCGCAGGTTTTGATTAATGCATCCTGTGCCTGATATTGCGCCCAGGAAGCTGCCATCACTCCCGCATCTTTTGCTGAGTCGGAATAGCCAATCATCACCATCTGTTTGCCCTGAATCAGGCCACGATACCAGTCAATATTGAGCAGCTGGGTCATGACATCGTTGGCGTTGTTCAGATCATCGAGGGTTTCAAACAGCGGAGCAACCGGCATCGCAAACCCGATACCCGCTTCTTTCAGCAGCAGGTGGACAGCCAGTACGTCGGACGGCGTTTTCGCCATCGAGATCACGTAGGCGGCAATGGAGCCTTGCGGTGCTTCGGCAATCACCTGGCAGGTATCGAGCACTTCGCGCGTTTCGGCGCTTGGTTGCCAGTTGCGCGGCAGAAGCGGACGTTTGGAGTTCAGTTCGCGGATCAGGAACGCCTGTTTGTCGGCCTCTGACCAGCTTTCGTAGTCGCCGATACCGAGGTAGCGGGTCAGCTCGCCCAGCGCTTCGGTATGACGCGTGCTCTCCTGACGGATATCAATACGGACCAGCGGTACGCCGAAACATTTCACGCGGCGCAGGGTGTCGAGCAGATCGCCGTTGGCGATAATACCCATGCCACACGCCTGAAGTGACTGGTAGCAAGCGTAGAGCGGTTCCCACAGTTCTTCGTTTTGTGTCAGCAGGCCTTCTGGTTTTGGCAGTTCTTCGCCTTTCAGGCGCGCTTCCAGCCATGCCTGTGTCGCCATCAGGCGAGAACGCAGGTTTTTCATCAGATAGCGATACGGTTCTGCGGCACCTTCTTCGCCAACCAGCGCCAGCAGTTCAGGGGTCGCTTCAACCATCGACAGTTCAGAAACCAGCACCTGAATATCTTTCAGGAACAAATCGGTGGCTTTCCAGCGGCTGAGTAGCAGGACGTGGCGGGTGATATCGGCAGTGACGTTCGGGTTGCCGTCGCGGTCGCCGCCCATCCACGAAGTAAAACGGACCGGAACAAATTCGACGGGCAGTTTGTAGCCGAGGTTCTCTTCCAGTTGTTCGTTCAGTTCGCGCAGGTAATTTGGTACGCCTTGCCACAGGCTGTTTTCCACTACGGCAAAGCCCCATTTGGCTTCATCTACCGGGCTTGGACGCAGCTTACGGATTTCATCGGTATGCCATGACTGGGCGATCAACTGGCGCAGGCGACGCATCAGCTGGTTGTGTTCGTAGTCAGCGATATCTTTGTTATCGAGCTGTTTTAAACAGGCGTTCACTTCCACCATTTTGTGGATCAGTGTACGACGGGTAATTTCGGTTGGGTGAGCCGTGAGGACCAGTTCCAGCGACAGCGATTCCACTGCTTTTTTGATGGTGTCTTCGCTCAGTTCCGGCTGGTTTTTCAGTTTACGCAGGGTGCGGGCGATCACTTCCGGGTTGCTGGCAGCTTCGCCTTTCGGCGAAATGCTGTGGTATTGCTCGGCGGTGTTGGCCAGGTTCAGGAACTGACTAAACGCACGCGCAACGGGCAGCAGCTCGTCGTTCGACAAATTTTGTAAGGTGGTGAGCAACTCCTGGCGGTTAGCATCATTGCCAGCGCGTGAAGATTTCGACAACTTACGGATAGTTTCTACGCGTTCAAGAATGTGTTCTCCCAACGCATCCTTGATGGTTTCTCCCAGCACTTTGCCGAGCATACTGACATTACTACGCAATGCGGAATATTGTTCGTTCAT</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTG</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGT</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGT</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGG</t>
-  </si>
-  <si>
-    <t>GGCACCTTCCGCGCCGA</t>
-  </si>
-  <si>
-    <t>TGGAAGAGTTCGCACGCACGA</t>
-  </si>
-  <si>
-    <t>TCACCAACGTATCGGGCATTGC</t>
-  </si>
-  <si>
-    <t>ACCTTTGGTGTTACTTGGGGCGA</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTGAATAACCACGTTTGAAATATTGTGACATATGTTTTGTCAAAATGTGCAACTTCTCCAATGATCTGAAGTTGAAACGTGATAGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTTCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCGAACAGGTTATTGACGTTCCCCTGTAACGAGAAGTTTTTCGTCACCTGGTAGCGGGTGAAGAGATCCACCAGCGCGTAGCTACCTTGCTCGGCGCGGAAGGT</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGTATCCTTTAGCAGCCTGAAGGCCTAAGTAGTACATATTCATTGAGTCGTCAAATTCATATACATTATGCCATTGGCTGAAAATTACGCAAAATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCTTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCA</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCTCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTTTGCATACTTACCACTTTGTTTTGTGCAAGGGAATATTTGCGCTATGTCCGCAATCACTGAATCCAAACCAACAAGAAGATGGGCAATGCCCGATACGTTGGT</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGGGCTTTCCAGCTAAAAAGAGGTTTAGCCTGGACTTCTGTGGAATGCATAGTAAGAACCTGTCTTGAAAAAATATCGCCGAATGTAACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGAATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCAAACGAATAAATAGCAGGAATTTACGTCATTAAATTCACGACGCTTTAAATAAGCGTAACTTATGGAAATGTTAAAAAATCGCCCCAAGTAACACCAAAGGT</t>
-  </si>
-  <si>
-    <t>GCCGAAAATTGGGCGGTGAATAACCACGTTTGAAATATTGTGACATATGTTTTGTCAAAATGTGCAACTTCTCCAATGATCTGAAGTTGAAACGTGATAGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTATGTTTAAGAATGCATTTGCTAACCTGCAAAAGGTCGGTAAATCGCTGATGCTGCCGGTATCCGTACTGCCTATCGCAGGTATTCTGCTGGGCGTCGGTTCCGCGAATTTCAGCTGGCTGCCCGCCGTTGTATCGCATGTTATGGCAGAAGCAGGCGGTTCCGTCTTTGCAAACATGCCACTGATTTTTGCGATCGGTGTCGCCCTCGGCTTTACCAATAACGATGGCGTATCCGCGCTGGCCGCAGTTGTTGCCTATGGCATCATGGTTAAAACCATGGCCGTGGTTGCGCCACTGGTACTGCATTTACCTGCTGAAGAAATCGCCTCTAAACACCTGGCGGATACTGGCGTACTCGGAGGGATTATCTCCGGTGCGATCGCAGCGTACATGTTTAACCGTTTCTACCGTATTAAGCTGCCTGAGTATCTTGGCTTCTTTGCCGGTAAACGCTTTGTGCCGATCATTTCTGGCCTGGCTGCCATCTTTACTGGCGTTGTGCTGTCCTTCATTTGGCCGCCGATTGGTTCTGCAATCCAGACCTTCTCTCAGTGGGCTGCTTACCAGAACCCGGTAGTTGCGTTTGGCATTTACGGTTTCATCGAACGTTGCCTGGTACCGTTTGGTCTGCACCACATCTGGAACGTACCTTTCCAGATGCAGATTGGTGAATACACCAACGCAGCAGGTCAGGTTTTCCACGGCGACATTCCGCGTTATATGGCGGGTGACCCGACTGCGGGTAAACTGTCTGGTGGCTTCCTGTTCAAAATGTACGGTCTGCCAGCTGCCGCAATTGCTATCTGGCACTCTGCTAAACCAGAAAACCGCGCGAAAGTGGGCGGTATTATGATCTCCGCGGCGCTGACCTCGTTCCTGACCGGTATCACCGAGCCGATCGAGTTCTCCTTCATGTTCGTTGCGCCGATCCTGTACATCATCCACGCGATTCTGGCAGGCCTGGCATTCCCAATCTGTATTCTTCTGGGGATGCGTGACGGTACGTCGTTCTCGCACGGTCTGATCGACTTCATCGTTCTGTCTGGTAACAGCAGCAAACTGTGGCTGTTCCCGATCGTCGGTATCGGTTATGCGATTGTTTACTACACCATCTTCCGCGTGCTGATTAAAGCACTGGATCTGAAAACGCCGGGTCGTGAAGACGCGACTGAAGATGCAAAAGCGACAGGTACCAGCGAAATGGCACCGGCTCTGGTTGCTGCATTTGGTGGTAAAGAAAACATTACTAACCTCGACGCATGTATTACCCGTCTGCGCGTCAGCGTTGCTGATGTGTCTAAAGTGGATCAGGCCGGCCTGAAGAAACTGGGCGCAGCGGGCGTAGTGGTTGCTGGTTCTGGTGTTCAGGCGATTTTCGGTACTAAATCCGATAACCTGAAAACCGAGATGGATGAGTACATCCGTAACCACTAATCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCGAACAGGTTATTGACGTTCCCCTGTAACGAGAAGTTTTTCGTCACCTGGTAGCGGGTGAAGAGATCCACCAGCGCGTAGCTACCTTGCTCGGCGCGGAAGGT</t>
-  </si>
-  <si>
-    <t>TGTCTTCCATACCCACTATCAGGTATCCTTTAGCAGCCTGAAGGCCTAAGTAGTACATATTCATTGAGTCGTCAAATTCATATACATTATGCCATTGGCTGAAAATTACGCAAAATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCATGTCGAGTAAGTTAGTACTGGTTCTGAACTGCGGTAGTTCTTCACTGAAATTTGCCATCATCGATGCAGTAAATGGTGAAGAGTACCTTTCTGGTTTAGCCGAATGTTTCCACCTGCCCGAAGCACGTATCAAATGGAAAATGGACGGCAATAAACAGGAAGCGGCTTTAGGTGCAGGCGCCGCTCACAGCGAAGCGCTCAACTTTATCGTTAATACTATTCTGGCACAAAAACCAGAACTGTCTGCGCAGCTGACTGCTATCGGTCACCGTATCGTACACGGCGGCGAAAAGTATACCAGCTCCGTAGTGATCGATGAGTCTGTTATTCAGGGTATCAAAGATGCAGCTTCTTTTGCACCGCTGCACAACCCGGCTCACCTGATCGGTATCGAAGAAGCTCTGAAATCTTTCCCACAGCTGAAAGACAAAAACGTTGCTGTATTTGACACCGCGTTCCACCAGACTATGCCGGAAGAGTCTTACCTCTACGCCCTGCCTTACAACCTGTACAAAGAGCACGGCATCCGTCGTTACGGCGCGCACGGCACCAGCCACTTCTATGTAACCCAGGAAGCGGCAAAAATGCTGAACAAACCGGTAGAAGAACTGAACATCATCACCTGCCACCTGGGCAACGGTGGTTCCGTTTCTGCTATCCGCAACGGTAAATGCGTTGACACCTCTATGGGCCTGACCCCGCTGGAAGGTCTGGTCATGGGTACCCGTTCTGGTGATATCGATCCGGCGATCATCTTCCACCTGCACGACACCCTGGGCATGAGCGTTGACGCAATCAACAAACTGCTGACCAAAGAGTCTGGCCTGCTGGGTCTGACCGAAGTGACCAGCGACTGCCGCTATGTTGAAGACAACTACGCGACGAAAGAAGACGCGAAGCGCGCAATGGACGTTTACTGCCACCGCCTGGCGAAATACATCGGTGCCTACACTGCGCTGATGGATGGTCGTCTGGACGCTGTTGTATTCACTGGTGGTATCGGTGAAAATGCCGCAATGGTTCGTGAACTGTCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCA</t>
-  </si>
-  <si>
-    <t>TCTCTGGGCAAACTGGGCGTGCTGGGCTTTGAAGTTGATCATGAACGCAACCTGGCTGCACGTTTCGGCAAATCTGGTTTCATCAACAAAGAAGGTACCCGTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCCGTGCAATGGAACGCAAAGGCGTTCGTCTGAGCGTTTTCAAACCTATCGCTCAGCCGCGTACCGGTGGCGATGCGCCCGATCAGACTACGACTATCGTGCGTGCGAACTCTTCCACCACGACGGCCGCTGAACCGCTGAAAATGAGCTACGTTGAAGGTCTGCTTTCCAGCAATCAGAAAGATGTGCTGATGGAAGAGATCGTCGCAAACTACCACGCTAACACCAAAGACGCTGAAGTCGTTCTGGTTGAAGGTCTGGTCCCGACACGTAAGCACCAGTTTGCCCAGTCTCTGAACTACGAAATCGCTAAAACGCTGAATGCGGAAATCGTCTTCGTTATGTCTCAGGGCACTGACACCCCGGAACAGCTGAAAGAGCGTATCGAACTGACCCGCAACAGCTTCGGCGGTGCCAAAAACACCAACATCACCGGCGTTATCGTTAACAAACTGAACGCACCGGTTGATGAACAGGGTCGTACTCGCCCGGATCTGTCCGAGATTTTCGACGACTCTTCCAAAGCTAAAGTAAACAATGTTGATCCGGCGAAGCTGCAAGAATCCAGCCCGCTGCCGGTTCTCGGCGCTGTGCCGTGGAGCTTTGACCTGATCGCGACTCGTGCGATCGATATGGCTCGCCACCTGAATGCGACCATCATCAACGAAGGCGACATCAATACTCGCCGCGTTAAATCCGTCACTTTCTGCGCACGCAGCATTCCGCACATGCTGGAGCACTTCCGTGCCGGTTCTCTGCTGGTGACTTCCGCAGACCGTCCTGACGTGCTGGTGGCCGCTTGCCTGGCAGCCATGAACGGCGTAGAAATCGGTGCCCTGCTGCTGACTGGCGGTTACGAAATGGACGCGCGCATTTCTAAACTGTGCGAACGTGCTTTCGCTACCGGCCTGCCGGTATTTATGGTGAACACCAACACCTGGCAGACCTCTCTGAGCCTGCAGAGCTTCAACCTGGAAGTTCCGGTTGACGATCACGAACGTATCGAGAAAGTTCAGGAATACGTTGCTAACTACATCAACGCTGACTGGATCGAATCTCTGACTGCCACTTCTGAGCGCAGCCGTCGTCTGTCTCCGCCTGCGTTCCGTTATCAGCTGACTGAACTTGCGCGCAAAGCGGGCAAACGTATCGTACTGCCGGAAGGTGACGAACCGCGTACCGTTAAAGCAGCCGCTATCTGTGCTGAACGTGGTATCGCAACTTGCGTACTGCTGGGTAATCCGGCAGAGATCAACCGTGTTGCAGCGTCTCAGGGTGTAGAACTGGGTGCAGGGATTGAAATCGTTGATCCAGAAGTGGTTCGCGAAAGCTATGTTGGTCGTCTGGTCGAACTGCGTAAGAACAAAGGCATGACCGAAACCGTTGCCCGCGAACAGCTGGAAGACAACGTGGTGCTCGGTACGCTGATGCTGGAACAGGATGAAGTTGATGGTCTGGTTTCCGGTGCTGTTCACACTACCGCAAACACCATCCGTCCGCCGCTGCAGCTGATCAAAACTGCACCGGGCAGCTCCCTGGTATCTTCCGTGTTCTTCATGCTGCTGCCGGAACAGGTTTACGTTTACGGTGACTGTGCGATCAACCCGGATCCGACCGCTGAACAGCTGGCAGAAATCGCGATTCAGTCCGCTGATTCCGCTGCGGCCTTCGGTATCGAACCGCGCGTTGCTATGCTCTCCTACTCCACCGGTACTTCTGGTGCAGGTAGCGACGTAGAAAAAGTTCGCGAAGCAACTCGTCTGGCGCAGGAAAAACGTCCTGACCTGATGATCGACGGTCCGCTGCAGTACGACGCTGCGGTAATGGCTGACGTTGCGAAATCCAAAGCGCCGAACTCTCCGGTTGCAGGTCGCGCTACCGTGTTCATCTTCCCGGATCTGAACACCGGTAACACCACCTACAAAGCGGTACAGCGTTCTGCCGACCTGATCTCCATCGGGCCGATGCTGCAGGGTATGCGCAAGCCGGTTAACGACCTGTCCCGTGGCGCACTGGTTGACGATATCGTCTACACCATCGCGCTGACTGCGATTCAGTCTGCACAGCAGCAGTAATCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTTTGCATACTTACCACTTTGTTTTGTGCAAGGGAATATTTGCGCTATGTCCGCAATCACTGAATCCAAACCAACAAGAAGATGGGCAATGCCCGATACGTTGGT</t>
-  </si>
-  <si>
-    <t>AGAGCAGTGCCCAACCCAGGGCTTTCCAGCTAAAAAGAGGTTTAGCCTGGACTTCTGTGGAATGCATAGTAAGAACCTGTCTTGAAAAAATATCGCCGAATGTAACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGATTAGCCGGTATTACGCATACCTGCCGCAATCCCGGCAATAGTGACCATTAACGCTTGTTCGACGCGAGGATCCGGTTCCTGGCCTTCTTTTTCTGCCTGGCGGGAGCGGTGCAGCAACTCGGCCTGCAATACGTTCAGCGGGTCGGTGTAAATATTCCGTAGCTGAATAGACTCTGCAATCCACGGCAGATCGGCCATCAGATGGGAATCGTTGGCAATCGCCAGCACCACTTTGATGTCTTCTTCTTGCAGGTTGCGTAACTCTTTACCTAACGGCCACAGTGCTTTGTCTACCAGGCGTTGGTCATAGTATTCCGCCAGCCACAGGTCTGCTTTGGCGAAGACCATCTCCAGCATGCCGAGACGCGTCGAGAAGAATGGCCAATCGCGGCACATAGCCTCCAGCTCGCTCTGTTTGCCGTCTTCGACCACTTTTTGCAGCGCCGTACCTGCACCCAGCCAGGCGGGGAGCATCAGACGGTTTTGCGTCCAGGCGAAGATCCACGGAATGGCGCGTAGTGACTCGACGCCGCCGGTTGGGCGACGTTTCGCCGGACGTGAACCCAACGGCAGTTTGCCCAGTTCTTGTTCCGGCGTAGCGGAGCGGAAGTAAGGCACAAAATCTTTGTTTTCACGTACGTAGCCGCGGTAGACATCGCAGGAGATGACTGACAGTTCATCCATAATGCGACGCCAGCTCTCTTTCGGCTCCGGCGGTGGCAGCAGGTTGGCTTCCAGAATCGCCCCGGTATAAAGCGACAGGCTGCTGACGGTGATTTCTGGCAGACCATATTTAAAGCGGATCATCTCGCCCTGTTCGGTTACGCGCAGGCCGCCTTTCAGGCTTCCTGGCGGTTGTGACAGCAGCGCCGCATGAGCAGGTGCGCCGCCGCGACCAATGGAACCGCCGCGACCGTGGAACAACGTCAGCTCAATACCCGCTTTTTCGCAGGTTTTGATTAATGCATCCTGTGCCTGATATTGCGCCCAGGAAGCTGCCATCACTCCCGCATCTTTTGCTGAGTCGGAATAGCCAATCATCACCATCTGTTTGCCCTGAATCAGGCCACGATACCAGTCAATATTGAGCAGCTGGGTCATGACATCGTTGGCGTTGTTCAGATCATCGAGGGTTTCAAACAGCGGAGCAACCGGCATCGCAAACCCGATACCCGCTTCTTTCAGCAGCAGGTGGACAGCCAGTACGTCGGACGGCGTTTTCGCCATCGAGATCACGTAGGCGGCAATGGAGCCTTGCGGTGCTTCGGCAATCACCTGGCAGGTATCGAGCACTTCGCGCGTTTCGGCGCTTGGTTGCCAGTTGCGCGGCAGAAGCGGACGTTTGGAGTTCAGTTCGCGGATCAGGAACGCCTGTTTGTCGGCCTCTGACCAGCTTTCGTAGTCGCCGATACCGAGGTAGCGGGTCAGCTCGCCCAGCGCTTCGGTATGACGCGTGCTCTCCTGACGGATATCAATACGGACCAGCGGTACGCCGAAACATTTCACGCGGCGCAGGGTGTCGAGCAGATCGCCGTTGGCGATAATACCCATGCCACACGCCTGAAGTGACTGGTAGCAAGCGTAGAGCGGTTCCCACAGTTCTTCGTTTTGTGTCAGCAGGCCTTCTGGTTTTGGCAGTTCTTCGCCTTTCAGGCGCGCTTCCAGCCATGCCTGTGTCGCCATCAGGCGAGAACGCAGGTTTTTCATCAGATAGCGATACGGTTCTGCGGCACCTTCTTCGCCAACCAGCGCCAGCAGTTCAGGGGTCGCTTCAACCATCGACAGTTCAGAAACCAGCACCTGAATATCTTTCAGGAACAAATCGGTGGCTTTCCAGCGGCTGAGTAGCAGGACGTGGCGGGTGATATCGGCAGTGACGTTCGGGTTGCCGTCGCGGTCGCCGCCCATCCACGAAGTAAAACGGACCGGAACAAATTCGACGGGCAGTTTGTAGCCGAGGTTCTCTTCCAGTTGTTCGTTCAGTTCGCGCAGGTAATTTGGTACGCCTTGCCACAGGCTGTTTTCCACTACGGCAAAGCCCCATTTGGCTTCATCTACCGGGCTTGGACGCAGCTTACGGATTTCATCGGTATGCCATGACTGGGCGATCAACTGGCGCAGGCGACGCATCAGCTGGTTGTGTTCGTAGTCAGCGATATCTTTGTTATCGAGCTGTTTTAAACAGGCGTTCACTTCCACCATTTTGTGGATCAGTGTACGACGGGTAATTTCGGTTGGGTGAGCCGTGAGGACCAGTTCCAGCGACAGCGATTCCACTGCTTTTTTGATGGTGTCTTCGCTCAGTTCCGGCTGGTTTTTCAGTTTACGCAGGGTGCGGGCGATCACTTCCGGGTTGCTGGCAGCTTCGCCTTTCGGCGAAATGCTGTGGTATTGCTCGGCGGTGTTGGCCAGGTTCAGGAACTGACTAAACGCACGCGCAACGGGCAGCAGCTCGTCGTTCGACAAATTTTGTAAGGTGGTGAGCAACTCCTGGCGGTTAGCATCATTGCCAGCGCGTGAAGATTTCGACAACTTACGGATAGTTTCTACGCGTTCAAGAATGTGTTCTCCCAACGCATCCTTGATGGTTTCTCCCAGCACTTTGCCGAGCATACTGACATTACTACGCAATGCGGAATATTGTTCGTTCATATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCAAACGAATAAATAGCAGGAATTTACGTCATTAAATTCACGACGCTTTAAATAAGCGTAACTTATGGAAATGTTAAAAAATCGCCCCAAGTAACACCAAAGGT</t>
-  </si>
-  <si>
-    <t>NAME</t>
+    <t>TTCGCCACATCACCGTAAGT</t>
+  </si>
+  <si>
+    <t>TTCTCATCCTTCCCCGCTTG</t>
+  </si>
+  <si>
+    <t>AGGGGTGCCATGAGAAAATGA</t>
+  </si>
+  <si>
+    <t>AAGAAGTCCCGCCGCC</t>
+  </si>
+  <si>
+    <t>TCGATAACGTCTCCCACTGAG</t>
+  </si>
+  <si>
+    <t>GGCAAGTCCATTCTCCCCAA</t>
+  </si>
+  <si>
+    <t>CAAACAGGTGCTCCAGGGTA</t>
+  </si>
+  <si>
+    <t>ACACTGGACGCACAGGTAAA</t>
+  </si>
+  <si>
+    <t>AGCGAATGGAGGGAGATTACAC</t>
+  </si>
+  <si>
+    <t>GTAAGAACGAAAAAGGCCGCA</t>
+  </si>
+  <si>
+    <t>CGACCATTGGTGAAGCGTTT</t>
+  </si>
+  <si>
+    <t>CGTGTGTTGTTCCAGTCCCT</t>
+  </si>
+  <si>
+    <t>CCTTCGTTTAGGTTACCTCTGCT</t>
+  </si>
+  <si>
+    <t>TGATCCCACCAGCAATCTGC</t>
+  </si>
+  <si>
+    <t>TATCGAAAGTTCCCGCACCT</t>
+  </si>
+  <si>
+    <t>CGCAGAGTCAGGCTGTCG</t>
+  </si>
+  <si>
+    <t>GATCGGTGAGATCGGCGGTA</t>
+  </si>
+  <si>
+    <t>CCGTTGCTGCTCACAAGTTT</t>
+  </si>
+  <si>
+    <t>CACCAAGACGGGAAGACAAGA</t>
+  </si>
+  <si>
+    <t>TCTTCGCGAATTAATTCCGCT</t>
+  </si>
+  <si>
+    <t>AACGAAATCACCGTTGCTGC</t>
+  </si>
+  <si>
+    <t>GAAGTGCTGGCGATGGCTAA</t>
+  </si>
+  <si>
+    <t>CGCCTGTAGCAGATCGTCAA</t>
+  </si>
+  <si>
+    <t>GCCTTCAGCGTGCCTTTAAT</t>
+  </si>
+  <si>
+    <t>TCCGGCCTTCATGAAGAACA</t>
+  </si>
+  <si>
+    <t>GGTGAACTGATGGTGCCTGA</t>
+  </si>
+  <si>
+    <t>TCACTTTGCCATCCGGTACA</t>
+  </si>
+  <si>
+    <t>CATCGGGGAAGGGTGAGAAC</t>
+  </si>
+  <si>
+    <t>AGAAAGTCATCGGCACTTGAC</t>
+  </si>
+  <si>
+    <t>GCACACTTGCCATTTTCCCA</t>
+  </si>
+  <si>
+    <t>GCGAAGAGGTGATGCTGACT</t>
+  </si>
+  <si>
+    <t>AGGGTACAGTGTGAAATTCCAGA</t>
+  </si>
+  <si>
+    <t>AGAGAACGAAGAGGCACAGC</t>
+  </si>
+  <si>
+    <t>GCCTGCTTCGATAATCCCGA</t>
+  </si>
+  <si>
+    <t>CGATTGACCGCTGGTGGC</t>
+  </si>
+  <si>
+    <t>GACTGAAACGCCTGCCAGTC</t>
+  </si>
+  <si>
+    <t>CAGATTCACTGGGGAGGTCG</t>
+  </si>
+  <si>
+    <t>TTATCCGGCGATCATAGCGG</t>
+  </si>
+  <si>
+    <t>TACCTTTCCGCTGCCTGTTG</t>
+  </si>
+  <si>
+    <t>TGCAGGTGTCAGAATTTGCC</t>
+  </si>
+  <si>
+    <t>GCGATACCCATACAACCCGT</t>
+  </si>
+  <si>
+    <t>CCGACCTCAGGCGTCATG</t>
+  </si>
+  <si>
+    <t>TGGCTTTACCATTACTTTTCCCG</t>
+  </si>
+  <si>
+    <t>GGAGCAACGCCTGGAAGATA</t>
+  </si>
+  <si>
+    <t>GGCAGGTCATGGAAAATTCGA</t>
+  </si>
+  <si>
+    <t>TTATCAGTGGCGAGCTGCTG</t>
+  </si>
+  <si>
+    <t>GCGCTGATTTTCTCTCGCAG</t>
+  </si>
+  <si>
+    <t>TCAGCAGCATAACCGGACTG</t>
+  </si>
+  <si>
+    <t>GCCTCAATACCGTTGTTGGC</t>
+  </si>
+  <si>
+    <t>GCGGTACCGGTTTTAATGGC</t>
+  </si>
+  <si>
+    <t>CGCATCTGTAGACAAATTCCGT</t>
+  </si>
+  <si>
+    <t>CGGTGATCAAAGCCTACCGT</t>
+  </si>
+  <si>
+    <t>GCCAGAGAGTGAGACCAAAA</t>
+  </si>
+  <si>
+    <t>CAGGCGTAATACCACAACCCT</t>
+  </si>
+  <si>
+    <t>TTCGCCACATCACCGTAAGTGGTGACATAGCCTTCGGGAATAGCGGCGACGATTTGCCAGACGCGTTGGGGAAATGAATCTTCTTTTTCCATCTTTTCTTCCTGAGGTAATTTTTCAGCATAATCTGGAAAAACGCCCGAGTGAAGTCGCATTGCGCAAGAAACCAGCATCTGGCACGCGATGGGTTGCAATTAGCCGGGGCAGCAGTGATAATGCGCCTGCGCGTTGGTTCTCAACGCTCTCAATATTTCTGCCTCCCACCGTTTCGTCAAAAAATCCCAACATGGCTAAACTTTAACCACAACTGACGTCGCAAGAATTGTCTGGCTGCGCAGTACGCTTCGGAGGTATGTCTGATGAAGTATGTTGATGGTTTTGTGGTTGCCGTTCCTGCCGATAAAAAGGATGCCTATCGGGAAATGGCCGCTAAGGCTGCGCCATTGTTTAAAGAGTTTGGCGCGCTTCGTATTGTCGAATGCTGGGCCAGCGATGTACCGGATGGCAAAGTGA</t>
+  </si>
+  <si>
+    <t>TTCTCATCCTTCCCCGCTTGGGCAGAATATTTGATTGCGGATTCGTTTGAGAATTCCGGGGCTTTTGAAAGTGATGGTGGTGGGGGAAGGATTACTCAGCGCTGCGCGCTTCGCCCTTCGGGTCGTTGCCTGCGGCAACGCTCTCTCGCTGACGCTCGAGCCGAACCTTAGTCGAAGCTTCTCATCCTTCCCCGCATGGGCAGAATATTTGATTGCGGATTCGCTTGAGAGTTCAGGGACTTTTGAAAGTGAAAAGTGATGGTGGTGGGGGAAGGATTCGAACCTTCGAAGTCGATGACGGCAGATTTACAGTCTGCTCCCTTTGGCCGCTCGGGAACCCCACCAGGGGTAATTCAAATTTTGAGGTAATGCTTGAGATGGTGGTGGGGGAAGGATTATTCGTCGCTTCGCTCCTCACCCTTCGGGCCGTTGCCTGTGGCAACGTTCTCTCGCTTTCGCTCGAATCGAACCTTAGTCGAAGGTTCTCACCCTTCCCCGATG</t>
+  </si>
+  <si>
+    <t>AGGGGTGCCATGAGAAAATGAATCTGCTAGTCAAATGCGCGGGGAAAATCCCCGCGCTTGCCCTTACCTGGACGTGCAGGCCATGAGCGCAGCAACCTCCTTATCACCGTCCCGGAACCGCAGTTCGTAGAGCGTTTGTCGGGTCAGGAGTGTGAATGTCAGAATCGTAATGCAGATAATGAGCAGACACACCACCAGAGGGTTGTGCTTCATAGCCTTTCTCCTTGCCGGATGGCGGGTAAGAGGCTAAGATCTGAATTCTGATTCCCGGTTAGCCTGAAAACAGAAAGTCTCAGGCACCCGCAGGCATCCTATGAGGTTTCCTTAGGGACGAAAATAATCACTTCACGAAATTGCGTGCTGTTTTCCAGAATTTTTCGTCATTCGGGTTAGCCAGTTTAGCCATTCGTTACTCTCTTCATTCCAATAGCATTAATTTTCTATGCAATAATTGTTGTAAAAATGTGACGCAAAGAGGTTTTTGGTCATAAGTAATTACCGTCAAGTGCCGATGAC</t>
+  </si>
+  <si>
+    <t>AAGAAGTCCCGCCGCCGACGGACCAACCGGAAGAAATTCTCGAAGAACTTGGCGAAATCGAGAAACCGAATAAGTAATTTCTCATCAGGCGGCTCTGCCGCCTGATTGTTAACCACCGCTAATTGATATTTGCTTGCTCTTCCCCATATTTTCCTGCTTACCGCCATTCAGCTGGTAGTACCTGTCGCAAATTCTTTACAGTTTTTAAACTAATGAGACGAATCTGATCGACGCAAAAAGTCCGTATGCCTACTATTAGCTCAACATTTTTCCGCTTCGCTACCTCGCCCCTCACTCTTTCCAATAATGTTGCACAAGATACTGTGACTCTCTTCAAGCCGTCAGCAGGCTGATAATGTTATTTATATTTTATTGTTTATTTCATGCAGCCATTACACGATGAACGCTTATGAACTCCAGGCACTCCGCCATATTTTTGCCATGACTATTGATGAATGCGCGACCTGGATTGCCCAGACCGGTGACAGTGAAAGCTGGCGTCAGTGGGAAAATG</t>
+  </si>
+  <si>
+    <t>TCGATAACGTCTCCCACTGAGATAAGTAAATCTCGCCACGGATCAAAACGACAATGCCATAATTTGCGGCGCAACTGCTCAAGACAACCGTGTATATCGCCAGAAAGCCAGATATGTCGCCATTGATGACCCGCAATTCTCTGATAAACGGGCGCAGGCTGTTTCATCAATATTTTCCTCCCGCGCTAAAGATCACATAATCTTAACAAGAATGTTAAAAAACGCTGGACTCAGACAGTAGAGTGTGTGTTATGGTTGACTATTGGAAATCAAAAGGCTATTTTAGGTAATTAACAGAGTTTTTCAGCTCGTTCTATAAACGGTGCCAGACTCATTTTTTCGCCGGGATTGTTAGGATCATCAATCTGAATCACCGAAATGGGTTGGGCATTGGTCTTCCCACTGGCAACTTCCTTTTGTGCGATATCGTTTAAAGGATACTGCACGAGGGTACTCGGATTAATAACATACAAAGCATTACCCGGTCGGCAAGTCAGCATCACCTCTTCGC</t>
+  </si>
+  <si>
+    <t>GGCAAGTCCATTCTCCCCAAAAATGCAGAATAATCCAACACGAATATGATACTAAAACTTTTAAGATGTTTCATTTATCGCTATAGATGTTTCAAAATGTAAATGCAAGGGAACTTTTTAAGATTATTGCGGAATGGCGAAATAAGCACCTAACATCAAGCAATAATAATTCAAGGTTAAAATCAATAACTTATTCTTAAGTATTTGACAGCACTGAATGTCAAAACAAAACCTTCACTCGCAACTAGAATAACTCCCACCCTTCTTTACACACTTTTCATTATTCTGTGCTACCACAGAAAAACTATAACGCTTGTTAACTATTTCACAAATAATTAACATCCGCATAATTTCCAGCAATCTTTGTTTATTTGCAATTATTTTTGTTGGGCTTTTTGTAGGTTATTTGTACAGCAAAATGGCGCTTGTACATCTATTTCCCCCAATGCAGGATGATAAATATCACGGGAGAATAGAGAATCATCAATCAGGTAAGAGTCTGGAATTTCACACTGTACCCT</t>
+  </si>
+  <si>
+    <t>CAAACAGGTGCTCCAGGGTATGGATCCCTCTTTCTGGCATCACTTCTTTGTTCGGCACGCAGAAGCGCAGATCGAACACGGTGATTGCGTCGCCATGCGGGGTGTTCATTGTTTTCGCCACCCGAACTGCAGGCGCTTCCATCCGGGTATGATCGACTGTGAAGCTATCTAACAACGGCATTTAGCCACCTCCGGTAATTTTTTTAAAAATTTTCTGAACTCTTTCTTCCCAGGCGAGTCTGAGTATATCTTTTCTGTCAGGCGTGTTTTTCCAGCCACACCGCAAACGGTTCGGTATCAGCGGCTTCCATTTCCTGCTGACGGCGTTCAGACGCCTCGCGCTCGGCTACAAAATCCTCTTCGCGCAGAATTTCCAGCGGCTCTTCACGCAGCAGATTACGGTAGGCTTCTGCAAATGCTTTGCCTGTTCCGCCAATACCAGTATCAATCATAGACCTTAAGATACGGGCAGAGAAAGTCAGATCGGGATTATCGAAGCAGGC</t>
+  </si>
+  <si>
+    <t>ACACTGGACGCACAGGTAAAAACAGTCCAAGCAAAATGCCATCAATAAAAGAGACGTGATTAGGCGTAATTAGAACGCGCTCGCCCTTCAGTGCCTGGGTGTCACCCGTAACGCGAACGCGATACAAAACACGGCACAAATTTCGAAAAAAGCTAAAAAGCATTCCAACTCCCTTTGCTCTGATTCAGTAAAAGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCAAAAAAAACCTGCGCATCTGCGCAGGCTGGTGTAATTCATGTGCTCAACCCGAAGTTGACTTCACCTATCAATACCTCTGGGATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCG</t>
+  </si>
+  <si>
+    <t>AGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCGAAAAAAAACCTGCGCATCCGCGCAGGTTGGTGCAAGAGACAGGGTACGAAGAGCGTACCGAATAATCTCACCAATCAATACCTCTGGGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCGCAACAGCGTTTCGCAAAGTGTAACCAAAGGTTTGCAATCTCTTTTTTTGTCTTACTTATTTGCGTTTGGCTCACATTCCCACGATGAAAACACGCCACCCCTTGAACCAACGGGCGTTTTCCGTAACACTGAAAGAATGTAAGCGTTTACCCACTAAGGTATTTTCATGGCGACCATAAAGGATGTAGCCCGACTGGCAGGCGTTTCAGTC</t>
+  </si>
+  <si>
+    <t>GTAAGAACGAAAAAGGCCGCAGAGTTTCCCCCCTGCGGCCTGGTCCGGGCGCAAATTGCCATTACGGCAGCCTGACGCCCGCATGACACGTTACTTCCGCTTGTTCAGCCAGTTCACGATCATACTGGCAAGAATGCCAGCAATGACCGGAGCCGCTAAATCATGCCAGAAGGCCATGCCCAGCTCTGCGAACGTCATATAGCCGCCTGTGTTGTAATGACAACGTTTCGCGGCTATTCTTGAGTGCTCTCTCCAGCAACCAATGCCACCAGGGATAAAGCCCCCGCAACATTGCGCCTCACCGGAACCTTTCCGGCTTGCCGCTGATTCTACGATTGCTTTTTACTGTCAGCACCCGGCAATCTTCCTCATTGCGCGATGCCTTCCAGCTTAATTTCTTTATTTGCAATAGTTGCAGTTCATATCCGGGCTGACTCCAGACTGGTAGTGAAATGCGCAATTTTGTAGAATTGCGCCTCCTCGCGACCTCCCCAGTGAATCTGTTGCC</t>
+  </si>
+  <si>
+    <t>CGACCATTGGTGAAGCGTTTGGCGTGTTGCCCGAAGGGCATACGTTAAGTGCGAAAGAGTGGAAACAGCTTTCGTCCCAATGGCGAGAAGAGTTGGATCGGCGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAACGCTTTAATTGTATGTCACCGACGTTTCTTCGCCAGTGTAAAAGTATACTTTTTAACCGCAATATTTTTGTCATCTCAGACGATTTTTTATCGCAATCCTGAACGGTATACGGCTCGATAACGCTGCAATCTTGCGCACCGACGATAACGTTTGCGCATCAATTGCCTGGTTTTTCATCGTCAAGACAATAAAAGAGAAAAAAGCAGCAAACTTCGGTTGAAAAAGCCGCTATGATCGCCGGATAA</t>
+  </si>
+  <si>
+    <t>CGTGTGTTGTTCCAGTCCCTACGGCGCATTGCCGACGACCACCACCACACGCACGACGACCACTGCGGCGGATGGCGCAGTTGGTAGTAGTTTTGCGTTGAGCATGGAAGTAGTCATTGGGGACCTTGTTGGTTTTGTGTTTAACAATATTTATACAAGCACAGCTTTACAGGGGAGACAATGGAAAATTTTTCAGCAAGGGAAAATTGAGGGGTTGATCACGTTTTGTACTGAATTGCAGATAACATAGTTGAGTATCGATCACAGTTTGCGTTTTGTCCAAATATTACTGTTTATTTATACAGTAAACTTCTATAATATCACTGTACGCAATGTGTTATGCGGGGGCCGCATCGTTACCCGGCGCACTAAGTCCTGGCTGAAACGGGTGGTGCCGTCAGCGCCTTAACCCCGCGTGAGCACACTGTGTTATGTCAACAAGCACAACGTTTCTCCTTGAGATACCGCGTGCACAACAGCTGGCAACAGGCAGCGGAAAGGTA</t>
+  </si>
+  <si>
+    <t>CCTTCGTTTAGGTTACCTCTGCTAATATCTTTCTCATTGAGATGAAAATTAAGGTAAGCGAGGAAACACACCACACCATAAACGGAGGCAAATAATGCTGGGTAATATGAATGTTTTTATGGCCGTACTGGGAATAATTTTATTTTCTGGTTTTCTGGCCGCGTATTTCAGCCACAAATGGGATGACTAATGAACGGAGATAATCCCTCACCTAACCGGCCCCTTGTTACAGTTGTGTACAAGGGGCCTGATTTTTATGACGGCGGTTGACACAGTAGCATCAGTTTTCTCAATGAATGTTAAACGGAGCTTAAACTCGGTTAATCACATTTTGTTCGTCAATAAACATGCAGCGATTTCTTCCGGTTTGCTTACCCTCATACATTGCCCGGTCCGCTCTTCCAATGACCACATCCAGAGGCTCTTCAGGAAATGCGCGACTCACACCTGCTGTCACGGTAATGTTGATATGCCCTTCAGAATGTGTGATGGCATGGTTATCGACTAACTGGCAAATTCTGACACCTGCA</t>
+  </si>
+  <si>
+    <t>TGATCCCACCAGCAATCTGCAACAGCAGCAACATCAAGGCAATGATAAATTAACAGATGAATATCATTTCCTTTCGTCAAGCTTTTTGAGGATTTTCCCCAGTAATGGCATATATATTTAAAAGGTTCCATTAATAGCCTCCCTGTTTTTTTAGTATTATCGATGATATCAGCGGGCTATTTTTCGATGCTGCTCATAAATATCGAATTACAGTGATATACACATGTCTTGCCTCCCTGCAAAGAAGAGACTAACATTCGAATTCTGGAACCTCGCGAATGCTTAACGCCAGACAGCCTCAAGCACCCGACGCCATTCTATACCTGATAATTCTTCCCGCGGCGTTCACGTTTAAAATCAGGAATGCTGCTCGCAAAATAAAAACGCCCCCATCATTTCTGACAGAGGCGTTTAATTTGTCCGGCAATATTTACCCTTCGTGTAACCCACATTCCCTTTTTAAGCCAAAGAAACGCGTTTCTTCTTCCGCCATGCCGGGTTCCCATTTACGGGTTGTATGGGTATCGC</t>
+  </si>
+  <si>
+    <t>TATCGAAAGTTCCCGCACCTTTATTGCTTATCCCATAGAGCGCATTAATTTCCGGGTTTTCAGACAAAATAGGGATGGTGTCCTGATAAAGCAGCATATCGATTTTTGCATCAGGATAATTCTGCTTGAGCGTACTGATGACAGGAGTAGTTAATAACATATCCCCATGATATCGCATCTTTATGACCAGGATTTTTCGAAATGGCTTTTCCACTAGCGACTCTTTTGTGTGATTGTCTGGTTAACGTGCTAGTGTATCATTTCTTTCGCAGCAATCCGACCCGAATGATTTTTATACACAAAATATACTTTAATCATAAAAATCAAATAGATAAAAAATAGCATTTCGATAATGTCAGTACGGCCTATGTAGATTTGAAAATGGGGCCGAGTTTCAATGAATCGCATAAAAATACAAAAAAAATGAAGATGTAGCGGCAGATCAGACCAAACTGAAGCTATTTAAGTCAAAAACGGGAAAAGTAATGGTAAAGCC</t>
+  </si>
+  <si>
+    <t>CGCAGAGTCAGGCTGTCGCCATTGCGATCCTCAAAGGTGTACATCTCTTTTTCAACCACGTCGGTGACTTCACCAATCGCACGTTTGAATAGCGGGGTCTGCTCTACAATCGGCAAGCGGATTTCACTGTAACCGTAGCTGCCGAGCACGTTTTTCAGTGTGCCTTCAATGCGCTGCCAGATGGCCGTTTCGCCAGGCAGGTAATCGTTCATGCCGCGAATGGCTTGAATGTTTTTTGCCACGTTTATTCTCTTTCTGAATTATTTTTCAACCTGCTGAACGTCAATTCGACGCGCTTCGTCCAGCTGACTGGCTTTCGCACGAATGCGTGCTTCCAGCTGGTCGATCATATCGTTGTTGTCCAGACGGTCTTTGCGCACGCCATCTTCATAGAGGCCGCTTTTCTTGTTGCCGCCGGTGACGCCGAGTGTAGAAACCAGCGCCTCACCTGGGCCATTCACCACGCAGCCGATAATCGAAACGTCCATCGGAGTGATGATATCTTCCAGGCGTTGCTCC</t>
+  </si>
+  <si>
+    <t>GATCGGTGAGATCGGCGGTAGCGCTGAAGAAGAAGCAGCTGCGTACATCAAAGAGCACGTTACCAAGCCAGTTGTGGGTTACATCGCTGGTGTGACTGCGCCGAAAGGCAAACGTATGGGCCACGCGGGTGCCATCATTGCCGGTGGGAAAGGGACTGCGGATGAGAAATTCGCTGCTCTGGAAGCCGCAGGCGTGAAAACCGTTCGCAGCCTGGCGGATATCGGTGAAGCACTGAAAACTGTTCTGAAATAAGCTTATCGCGATGATTTTCGCTGCGCTATCAGGGTAAATTTATAGTCATCGGTATTAAAAGCGTTGCGGCTATATTCAAACACCCGACCATCAACTAAATATCCACGCGATACTTTTTCAAGAATCGGCTTTGTCTGGCTGATATTAAGCAGACGGCTCATCTCTTCGGTTGGCATCAGAGGAATGATTTCCTGTTCGCTACGATCGATAACCATTTTCTTCACTTCTTCGATAAAGTGATATTTCGAATTTTCCATGACCTGCC</t>
+  </si>
+  <si>
+    <t>CCGTTGCTGCTCACAAGTTTAATGTTCTTGCCAGCCAGCCAGCAGATTTTGATCGCATTAAAGGTTTGAACGTAATGCAGAACCTGTTGACCGCTCATCCGGATGTTCAGGCTGTATTCGCGCAGAATGATGAAATGGCGCTGGGCGCGCTGCGCGCACTGCAAACTGCCGGTAAATCGGATGTGATGGTCGTCGGATTTGACGGTACACCGGATGGCGAAAAAGCGGTGAATGATGGCAAACTAGCAGCATGGACATCCCGAATATGCAAAACGCAGGCAGCCTCGTTGTTCTTGGCAGCATTAATGCTGACCACATTCTTAATCTTCAATCTTTTCCTACTCCAGGCGAAACCGTAACCGGTAACCACTATCAGGTTGCATTTGGCGGCAAAGGCGCGAATCAGGCTGTGGCTGCTGGGCGTAGCGGTGCGAATATCGCGTTTATTGCCTGTACGGGTGATGACAGCATTGGTGAGAGCGTTCGCCAGCAGCTCGCCACTGATAA</t>
+  </si>
+  <si>
+    <t>CACCAAGACGGGAAGACAAGAGGTAAAATTTATGACAATGAACATTACCAGCAAACAAATGGAAATTACTCCGGCCATCCGCCAACATGTCGCAGACCGTCTCGCCAAACTGGAAAAATGGCAAACACATCTGATTAATCCACATATCATTCTGTCCAAAGAGCCACAAGGGTTTGTTGCTGACGCCACAATCAATACACCTAACGGCGTTCTGGTTGCCAGTGGTAAACATGAAGATATGTACACCGCAATTAACGAGTTGACAGCGTGAAAACAGTACGGGTACTGTACTAAAGTCACTTAAGGAAACAAACATGAAACACATACCGTTTTTCTTCGCATTCTTTTTTACCTTCCCCTGAATGGGAGGCGTTTCGTCGTGTGAAACAGAATGCGAAGACGAACAATAAGGCCTCCCAAATCGGGGGGCCTTTTTTATTGATAACAAAAAGGCAACACTATGACATCGGAAAACCCGTTACTGGCGCTGCGAGAGAAAATCAGCGCGCTG</t>
+  </si>
+  <si>
+    <t>TCTTCGCGAATTAATTCCGCTTCGCAATTTATCCATAAAATAAATTTAAAATAACAAAACATAATTAAATAAAATGTAACCGCTTTCATCTTGCTGGAATTTCACGCTTTTATTCTTCTGCAAGCCTTTCAACCGCAAACTTAAGCCTTGTAACAAAAATCATCAAAATATGTGCGGTTGCTCATGTTCTTACATTCTGGTTACAGAAAGAGATTGATAATTCGCGTCGCGAAAAATAGTCTGTTCCTATGCGTACGTTTAGTGGCAAACGTAGTACGCTGGCGCTGGCTATCGCCGGTGTTACAGCAATGTCGGGCTTTATGGCAATGCCGGAGGCTCGCGCCGAAGGATTCATCGACGATTCAACCTTAACCGGCGGTATCTATTACTGGCAGCGTGAACGCGACCGTAAAGATGTTACCGACGGCGACAAATACAAAACCAACCTTTCTCACTCCACCTGGAATGCCAACCTCGATTTTCAGTCCGGTTATGCTGCTGA</t>
+  </si>
+  <si>
+    <t>AACGAAATCACCGTTGCTGCTTTTCTTGCGCAACAAATCCGCTTTACGGATATCGCTGCGTTGAATTTATCCGTACTGGAAAAAATGGATATGCGCGAACCACAATGTGTGGACGATGTGTTATCTGTTGATGCGAACGCGCGTGAAGTCGCCAGAAAAGAGGTGATGCGTCTCGCAAGCTGAGGATAATCCGGCTACAGAGAGTCGCGCTATTTGTTAGCGTAGGGCTTCAGTGATATAGTCTGCGCCTTTGTATAGGCTTCAGTATTCCTGAGTACCGTAAACCCTGTCAGGGAATAAAAAACGCGTGATGTTGTCTGCTACTCAACCACTTAGCGAAAAATTGCCAGCGCATGGCTGCCGTCATGTTGCGATCATTATGGACGGCAATGGCCGCTGGGCAAAAAAGCAAGGGAAGATTCGTGCCTTTGGGCATAAAGCCGGGGCAAAATCCGTCCGCCGGGCTGTCTCTTTTGCGGCCAACAACGGTATTGAGGC</t>
+  </si>
+  <si>
+    <t>GAAGTGCTGGCGATGGCTAACAGCCCGTCATACAACCCTAACAATCTGAGCGGCACGCCGAAAGAGGCGATGCGTAACCGTACCATCACCGACGTGTTTGAACCGGGCTCAACGGTTAAACCGATGGTGGTAATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGGGTATTACAGACTTTCGGCTACGGGCTAATGGTAACACCATTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCCATTGTCCGCACTGTGGTGCATATGATGGAAAGCGTGGCGCTACCAGGCGGCGGCGGCGTGAAGGCGGCGATTAAAGGCTATCGTATCGCCATTAAAACCGGTACCGC</t>
+  </si>
+  <si>
+    <t>CGCCTGTAGCAGATCGTCAAGTTCCACGCTCGCGGGCAGTCGAACCTGCAGGCGCAATGCTTCGTGACGCACCAGCGGGACATAACGCTGCCACAGCGAGTGTTTATCCATTACACCTTCAGCGGTATAGAGTGAATTCACGATAAACAGCCCTGCGTTATATGAGTTATCGGCATGATTATCCGTTTCTGCAGGGTTTTTAATCGGACGATTAGTGGGTGAAATGAGGGGTTATTTGGGGGTTACAGGTAAATTCCAGGCAGCGATTAACCCTGCAGCAGAGACAGAACCTGCTGCGGTACCTGGTTAGCTTTTGCCAACACGGAGTTACCGGCCTGCTGGATGATCTGCGCTTTCGACATATTGGACACTTCGGTCGCATAGTCGGCGTCCTGAATACGGGACTGCGCTTCAGACAGGTTGGTAGTGGTGTTGTTCAGGTTGGTAACCGCGGAATCCAGACGGTTTTGCACCGCACCGAGGGAAGAACGGAATTTGTCTACAGATGCGATAGCATCGTCCAGCGCT</t>
+  </si>
+  <si>
+    <t>GCCTTCAGCGTGCCTTTAATCGCTTTGCCATTATTGCCGACGATAAACGACCCAATCCCTGCACCGGCAATAATCACCAGTTCAGCGGGTTGATAGAGTGCTCCAAGGCTTCCACCGGTCATCAAATAACCGCCGAAAACTGTACCGAGAACAACCAGGTAACCTAATAAGATAAGCACGACATCATCCTTCCACTGTTGACCATGACAGGATGTTCAGTCGTCAGGCGTTAACGCGCGATTGGGGCGGGATAATATCGGCAGGATTCTGGGAAAGTTTACGTCTTTTTACTGCCCGGGATGGCGGTTGACATAAGCTGCAGGCAAAGCTGCCAACAGGCTGGTGAGCGTGGGTAATAAAATTGCCGCCGCAGCAGTTGCAGCTGGAAAGTTGCAGTAATCCACTTTCAACAAACCGCACCAATGTCCAGGCACGGGTTAATGCCAGCAGTGGTCCTTCTTCTGCTTGTGGGCACTGTTCAAGGTATAAACGGTAGGCTTTGATCACCGCA</t>
+  </si>
+  <si>
+    <t>TCCGGCCTTCATGAAGAACATAATCGCCAGGAGTCACACACTGACGTGGTATTTCATCAGTTCCGAAGTGATGTGCAATCATAATTATCTCCATTTTTACAAATGAACTTTGTTGATGCGGTGTCTGGTGCCTCCAGGTGACTGCAACCAGTTAACAATTACAGTCGGCTTTCCCACCCAAACCAATAAGGACTAACATGACTTTTAACTGTGCCACGTGCGCTTAGCCGCATTCACCGCATCACAAAATTCACTTTCATTTAAATTTAACAGACAAGACCGACTCTTTATGGATATCGGAAATGCGCCTTCGTGTTGTGCCCGGTTTTATTTCACCACCTCCGGGCTTCGGTGGTCTCGGCTATACCCCTACAGCGAGAGCTTGTGTTAACATTTCAATACCCTTACAGTTGAGAGTTATTGATATGTTGGATGTATTTACTCCATTGTTGAAACTTTTTGCTAACGAGCCACTCGAAAGACTTATGTATACGATTATCATTTTTGGTCTCACTCTCTGGC</t>
+  </si>
+  <si>
+    <t>GGTGAACTGATGGTGCCTGAAGCAATTTGGCTACTTTTGCAATGTGACAAGTTATGGCAGTGCTGACTGGTGGCGAAGAATTTTGACGATTGAGTCATGCAGAAAAAAACGGGTTCAGCTTCAGTTGATTAAATGAGGAGTGAGAAGTCCGAAACAGGACTCACTGTATAAATAAACAGCTATTTTGTTGAGGAAGGGTAAGATAACGGCGGGTGCCTGAAGCTTTCCGGTTTCAGGTTTACTCTGAGGTCTGGAATTTGGATGGTAGTCCCTTCTTCGCATGGAGGCAATATAAACATGCTGACGAAATATGCCCTTGCGGCAGTCATAGTGCTGTGTTTAACGGTGCTGGGATTTACGCTTCTGGTCGGAGACTCGCTGTGTGAGTTTACGGTGAAGGAACGTAATATTGAGTTTAAGGCTGTTCTCGCTTACGAACCGAAGAAGTAGCCGTTGTGCGGGGAGTAATCCCATAAGCGCTAACTTAAGGGTTGTGGTATTACGCCTG</t>
+  </si>
+  <si>
+    <t>GCGGCCCTTTCCGCCGTCTCGCAAACGGGCGCTGGCTTTAGGAAAGGATGTTCCGTGGCCGTAAATGCAGGTGTTTCACAGCGCTTGCTATCGCGGCAATATCGCCAGTGGTGCTGTCGTGATGCGGTCTTCGCATGGACCGCACAATGAAGATACGGTGCTTTTGTATCGTACTTATTGTTTCTGGTGCGCTGTTAACCGAGGTAAATAATAACCGGAGTCTCTCCGGCGACAATTTACTGGTGGTTAACAACCTTCAGAGCAGCAAGTAAGCCCGAATGCCGCCCTTTGGGCGGCATATTTT</t>
+  </si>
+  <si>
+    <t>CTTTATTCCCCTGGTATGTGTATCCACCAGTAGAACCCTTCGTTGCCCGAATGCTGGCAGGAACTGTTGGCAGAACGGCAACATTTTTTTT</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -311,16 +1091,88 @@
     <t>PLASMID SEQUENCE SIZE(bp)</t>
   </si>
   <si>
-    <t>AGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATTTCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAATCGCCTCTAAACACCTGG</t>
-  </si>
-  <si>
-    <t>AATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCCTTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGTGAAATCAGGCAGTCAGG</t>
-  </si>
-  <si>
-    <t>GTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCTCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGATTTCTGCCAGCTGTTCAG</t>
-  </si>
-  <si>
-    <t>AACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGAATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTACGCCGAAACATTTCACG</t>
+    <t>CTGAGGTAATTTTTCAGCATAATCTGGAAAAACGCCCGAGTGAAGTCGCATTGCGCAAGAAACCAGCATCTGGCACGCGATGGGTTGCAATTAGCCGGGGCAGCAGTGATAATGCGCCTGCGCGTTGGTTCTCAACGCTCTCAATATTTCTGCCTCCCACCGTTTCGTCAAAAAATCCCAACATGGCTAAACTTTAACCACAACTGACGTCGCAAGAATTGTCTGGCTGCGCAGTACGCTTCGGAGGTATGTCTGATGAAGTATGTTGATGGTTTTGTGGTTGCCGTTCCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGGTAAACAGAGTAGCGTTG</t>
+  </si>
+  <si>
+    <t>GCTTCGCCCTTCGGGTCGTTGCCTGCGGCAACGCTCTCTCGCTGACGCTCGAGCCGAACCTTAGTCGAAGCTTCTCATCCTTCCCCGCATGGGCAGAATATTTGATTGCGGATTCGCTTGAGAGTTCAGGGACTTTTGAAAGTGAAAAGTGATGGTGGTGGGGGAAGGATTCGAACCTTCGAAGTCGATGACGGCAGATTTACAGTCTGCTCCCTTTGGCCGCTCGGGAACCCCACCAGGGGTAATTCAAATTTTGAGGTAATGCTTGAGATGGTGGTGGGGGAAGGATTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCGGATTCGTTGGGAAGTTCA</t>
+  </si>
+  <si>
+    <t>AACCGCAGTTCGTAGAGCGTTTGTCGGGTCAGGAGTGTGAATGTCAGAATCGTAATGCAGATAATGAGCAGACACACCACCAGAGGGTTGTGCTTCATAGCCTTTCTCCTTGCCGGATGGCGGGTAAGAGGCTAAGATCTGAATTCTGATTCCCGGTTAGCCTGAAAACAGAAAGTCTCAGGCACCCGCAGGCATCCTATGAGGTTTCCTTAGGGACGAAAATAATCACTTCACGAAATTGCGTGCTGTTTTCCAGAATTTTTCGTCATTCGGGTTAGCCAGTTTAGCCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCTAGGTTCATTCGTTGGCCT</t>
+  </si>
+  <si>
+    <t>GCTAATTGATATTTGCTTGCTCTTCCCCATATTTTCCTGCTTACCGCCATTCAGCTGGTAGTACCTGTCGCAAATTCTTTACAGTTTTTAAACTAATGAGACGAATCTGATCGACGCAAAAAGTCCGTATGCCTACTATTAGCTCAACATTTTTCCGCTTCGCTACCTCGCCCCTCACTCTTTCCAATAATGTTGCACAAGATACTGTGACTCTCTTCAAGCCGTCAGCAGGCTGATAATGTTATTTATATTTTATTGTTTATTTCATGCAGCCATTACACGATGAACGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTATGCCTACTATTAGCTCA</t>
+  </si>
+  <si>
+    <t>GCCATTGATGACCCGCAATTCTCTGATAAACGGGCGCAGGCTGTTTCATCAATATTTTCCTCCCGCGCTAAAGATCACATAATCTTAACAAGAATGTTAAAAAACGCTGGACTCAGACAGTAGAGTGTGTGTTATGGTTGACTATTGGAAATCAAAAGGCTATTTTAGGTAATTAACAGAGTTTTTCAGCTCGTTCTATAAACGGTGCCAGACTCATTTTTTCGCCGGGATTGTTAGGATCATCAATCTGAATCACCGAAATGGGTTGGGCATTGGTCTTCCCACTGGCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGTTCTTTCACCAGAACGGG</t>
+  </si>
+  <si>
+    <t>CTTTTTAAGATTATTGCGGAATGGCGAAATAAGCACCTAACATCAAGCAATAATAATTCAAGGTTAAAATCAATAACTTATTCTTAAGTATTTGACAGCACTGAATGTCAAAACAAAACCTTCACTCGCAACTAGAATAACTCCCACCCTTCTTTACACACTTTTCATTATTCTGTGCTACCACAGAAAAACTATAACGCTTGTTAACTATTTCACAAATAATTAACATCCGCATAATTTCCAGCAATCTTTGTTTATTTGCAATTATTTTTGTTGGGCTTTTTGTAGGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGACATTCAGAAATGAATGA</t>
+  </si>
+  <si>
+    <t>GTTGCTGGTCCGGTTCGCGGCCTTTCCAGCAGGTTGTATTACCGTAGTAATGCAAGCGCGTCTCAGCGGAGACAATACTCGCCAGTAACTCTCTTTTTGTCAAGCAAAAGAGAGTTATTATTGTTCTGTTAGTGTATTATCCACTAGATTATCCGATTCTGTTTAAAGTCACGCAAAAAACCACCCCAGCGACGTTCATAGAATGGCGCAATATGTTCGGTAATAAAGTGGCTAATTCCTTTTTCCCCTTTTTTCACCTGACAAATATCGATTGGTTCATCGCCAGGTAACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCTTTAGGAAAGGATGTTCCG</t>
+  </si>
+  <si>
+    <t>TTCATTGTTTTCGCCACCCGAACTGCAGGCGCTTCCATCCGGGTATGATCGACTGTGAAGCTATCTAACAACGGCATTTAGCCACCTCCGGTAATTTTTTTAAAAATTTTCTGAACTCTTTCTTCCCAGGCGAGTCTGAGTATATCTTTTCTGTCAGGCGTGTTTTTCCAGCCACACCGCAAACGGTTCGGTATCAGCGGCTTCCATTTCCTGCTGACGGCGTTCAGACGCCTCGCGCTCGGCTACAAAATCCTCTTCGCGCAGAATTTCCAGCGGCTCTTCACGCAGCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCATATACTCAGACTCGCCT</t>
+  </si>
+  <si>
+    <t>CCGTAACGCGAACGCGATACAAAACACGGCACAAATTTCGAAAAAAGCTAAAAAGCATTCCAACTCCCTTTGCTCTGATTCAGTAAAAGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCAAAAAAAACCTGCGCATCTGCGCAGGCTGGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTCTCTTGCACCAACCTGCG</t>
+  </si>
+  <si>
+    <t>CCGAATAATCTCACCAATCAATACCTCTGGGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCGCAACAGCGTTTCGCAAAGTGTAACCAAAGGTTTGCAATCTCTTTTTTTGTCTTACTTATTTGCGTTTGGCTCACATTCCCACGATGAAAACACGCCACCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGCTAAAGTGGTGATCCCAG</t>
+  </si>
+  <si>
+    <t>TGTTCAGCCAGTTCACGATCATACTGGCAAGAATGCCAGCAATGACCGGAGCCGCTAAATCATGCCAGAAGGCCATGCCCAGCTCTGCGAACGTCATATAGCCGCCTGTGTTGTAATGACAACGTTTCGCGGCTATTCTTGAGTGCTCTCTCCAGCAACCAATGCCACCAGGGATAAAGCCCCCGCAACATTGCGCCTCACCGGAACCTTTCCGGCTTGCCGCTGATTCTACGATTGCTTTTTACTGTCAGCACCCGGCAATCTTCCTCATTGCGCGATGCCTTCCAGCTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTATGCACCTGACAACACCA</t>
+  </si>
+  <si>
+    <t>CGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAACGCTTTAATTGTATGTCACCGACGTTTCTTCGCCAGTGTAAAAGTATACTTTTTAACCGCAATATTTTTGTCATCTCAGACGATTTTTTATCGCAATCCTGAACGGTATACGGCTCGATAACGCTGCAATCTTGCGCACCGACGATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACAAAACTAAAGCGCCACAA</t>
+  </si>
+  <si>
+    <t>GCATGGAAGTAGTCATTGGGGACCTTGTTGGTTTTGTGTTTAACAATATTTATACAAGCACAGCTTTACAGGGGAGACAATGGAAAATTTTTCAGCAAGGGAAAATTGAGGGGTTGATCACGTTTTGTACTGAATTGCAGATAACATAGTTGAGTATCGATCACAGTTTGCGTTTTGTCCAAATATTACTGTTTATTTATACAGTAAACTTCTATAATATCACTGTACGCAATGTGTTATGCGGGGGCCGCATCGTTACCCGGCGCACTAAGTCCTGGCTGAAACGGGTGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCGACTGACGAAACCTCGCTC</t>
+  </si>
+  <si>
+    <t>GGCCGTACTGGGAATAATTTTATTTTCTGGTTTTCTGGCCGCGTATTTCAGCCACAAATGGGATGACTAATGAACGGAGATAATCCCTCACCTAACCGGCCCCTTGTTACAGTTGTGTACAAGGGGCCTGATTTTTATGACGGCGGTTGACACAGTAGCATCAGTTTTCTCAATGAATGTTAAACGGAGCTTAAACTCGGTTAATCACATTTTGTTCGTCAATAAACATGCAGCGATTTCTTCCGGTTTGCTTACCCTCATACATTGCCCGGTCCGCTCTTCCAATGACCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAAAAACCGCCAGTAAACCGG</t>
+  </si>
+  <si>
+    <t>AAAAGGTTCCATTAATAGCCTCCCTGTTTTTTTAGTATTATCGATGATATCAGCGGGCTATTTTTCGATGCTGCTCATAAATATCGAATTACAGTGATATACACATGTCTTGCCTCCCTGCAAAGAAGAGACTAACATTCGAATTCTGGAACCTCGCGAATGCTTAACGCCAGACAGCCTCAAGCACCCGACGCCATTCTATACCTGATAATTCTTCCCGCGGCGTTCACGTTTAAAATCAGGAATGCTGCTCGCAAAATAAAAACGCCCCCATCATTTCTGACAGAGGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGCATTCGCGAGGTTCCAGA</t>
+  </si>
+  <si>
+    <t>GACGTATGAGCGACATCGTCACCCTGGGTATCACATCTTATTTTTAGTCAGGACATAAGCAACTGAAATTGATGGCTGGCATGACGAGGGATGCAGATGCTGATTTCATTACCCCCGGTGATTACTAAAGGAGAGGCTAAAACGAGTCGTTGACCTCACCATGTCGATCACTGTGCCTGTATCCCACCTTACTGGCTGACAACCCCACTATGCCGCTGGTCTGTAAATCCCTCATATCTCTCCTCGCGCGCAATTTAAAGAACCGTTATTTCTCAAGAATTTTCAGGGACCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACTGGTGGATACACATACCA</t>
+  </si>
+  <si>
+    <t>GATTTTTGCATCAGGATAATTCTGCTTGAGCGTACTGATGACAGGAGTAGTTAATAACATATCCCCATGATATCGCATCTTTATGACCAGGATTTTTCGAAATGGCTTTTCCACTAGCGACTCTTTTGTGTGATTGTCTGGTTAACGTGCTAGTGTATCATTTCTTTCGCAGCAATCCGACCCGAATGATTTTTATACACAAAATATACTTTAATCATAAAAATCAAATAGATAAAAAATAGCATTTCGATAATGTCAGTACGGCCTATGTAGATTTGAAAATGGGGCCGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGATTCAGGTAGCTGTTGAGCC</t>
+  </si>
+  <si>
+    <t>GCGGATTTCACTGTAACCGTAGCTGCCGAGCACGTTTTTCAGTGTGCCTTCAATGCGCTGCCAGATGGCCGTTTCGCCAGGCAGGTAATCGTTCATGCCGCGAATGGCTTGAATGTTTTTTGCCACGTTTATTCTCTTTCTGAATTATTTTTCAACCTGCTGAACGTCAATTCGACGCGCTTCGTCCAGCTGACTGGCTTTCGCACGAATGCGTGCTTCCAGCTGGTCGATCATATCGTTGTTGTCCAGACGGTCTTTGCGCACGCCATCTTCATAGAGGCCGCTTTTCTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCAATCATACACGGGAAGCG</t>
+  </si>
+  <si>
+    <t>CAAACGTATGGGCCACGCGGGTGCCATCATTGCCGGTGGGAAAGGGACTGCGGATGAGAAATTCGCTGCTCTGGAAGCCGCAGGCGTGAAAACCGTTCGCAGCCTGGCGGATATCGGTGAAGCACTGAAAACTGTTCTGAAATAAGCTTATCGCGATGATTTTCGCTGCGCTATCAGGGTAAATTTATAGTCATCGGTATTAAAAGCGTTGCGGCTATATTCAAACACCCGACCATCAACTAAATATCCACGCGATACTTTTTCAAGAATCGGCTTTGTCTGGCTGATATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCCCTCTACAGGAATGGCGAA</t>
+  </si>
+  <si>
+    <t>TTCAGGCTGTATTCGCGCAGAATGATGAAATGGCGCTGGGCGCGCTGCGCGCACTGCAAACTGCCGGTAAATCGGATGTGATGGTCGTCGGATTTGACGGTACACCGGATGGCGAAAAAGCGGTGAATGATGGCAAACTAGCAGCATGGACATCCCGAATATGCAAAACGCAGGCAGCCTCGTTGTTCTTGGCAGCATTAATGCTGACCACATTCTTAATCTTCAATCTTTTCCTACTCCAGGCGAAACCGTAACCGGTAACCACTATCAGGTTGCATTTGGCGGCAAAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCTCAGCTACCCGATCAGAT</t>
+  </si>
+  <si>
+    <t>AAAAATGGCAAACACATCTGATTAATCCACATATCATTCTGTCCAAAGAGCCACAAGGGTTTGTTGCTGACGCCACAATCAATACACCTAACGGCGTTCTGGTTGCCAGTGGTAAACATGAAGATATGTACACCGCAATTAACGAGTTGACAGCGTGAAAACAGTACGGGTACTGTACTAAAGTCACTTAAGGAAACAAACATGAAACACATACCGTTTTTCTTCGCATTCTTTTTTACCTTCCCCTGAATGGGAGGCGTTTCGTCGTGTGAAACAGAATGCGAAGACGACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCAACAAAAAACGCGCCCGA</t>
+  </si>
+  <si>
+    <t>ACGCTTTTATTCTTCTGCAAGCCTTTCAACCGCAAACTTAAGCCTTGTAACAAAAATCATCAAAATATGTGCGGTTGCTCATGTTCTTACATTCTGGTTACAGAAAGAGATTGATAATTCGCGTCGCGAAAAATAGTCTGTTCCTATGCGTACGTTTAGTGGCAAACGTAGTACGCTGGCGCTGGCTATCGCCGGTGTTACAGCAATGTCGGGCTTTATGGCAATGCCGGAGGCTCGCGCCGAAGGATTCATCGACGATTCAACCTTAACCGGCGGTATCTATTACTGGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTTGCCACTAAACGTACGCAT</t>
+  </si>
+  <si>
+    <t>ATGTGTGGACGATGTGTTATCTGTTGATGCGAACGCGCGTGAAGTCGCCAGAAAAGAGGTGATGCGTCTCGCAAGCTGAGGATAATCCGGCTACAGAGAGTCGCGCTATTTGTTAGCGTAGGGCTTCAGTGATATAGTCTGCGCCTTTGTATAGGCTTCAGTATTCCTGAGTACCGTAAACCCTGTCAGGGAATAAAAAACGCGTGATGTTGTCTGCTACTCAACCACTTAGCGAAAAATTGCCAGCGCATGGCTGCCGTCATGTTGCGATCATTATGGACGGCAATGGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTTATAAGGTCAGATATGCCG</t>
+  </si>
+  <si>
+    <t>AAACCGATGGTGGTAATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGGGTATTACAGACTTTCGGCTACGGGCTAATGGTAACACCATTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCCATTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTAAGTATCTACTAACGCTG</t>
+  </si>
+  <si>
+    <t>TCAGCGGTATAGAGTGAATTCACGATAAACAGCCCTGCGTTATATGAGTTATCGGCATGATTATCCGTTTCTGCAGGGTTTTTAATCGGACGATTAGTGGGTGAAATGAGGGGTTATTTGGGGGTTACAGGTAAATTCCAGGCAGCGATTAACCCTGCAGCAGAGACAGAACCTGCTGCGGTACCTGGTTAGCTTTTGCCAACACGGAGTTACCGGCCTGCTGGATGATCTGCGCTTTCGACATATTGGACACTTCGGTCGCATAGTCGGCGTCCTGAATACGGGACTGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTGCTTCCCCGCCACCGGCG</t>
+  </si>
+  <si>
+    <t>CCAAGGCTTCCACCGGTCATCAAATAACCGCCGAAAACTGTACCGAGAACAACCAGGTAACCTAATAAGATAAGCACGACATCATCCTTCCACTGTTGACCATGACAGGATGTTCAGTCGTCAGGCGTTAACGCGCGATTGGGGCGGGATAATATCGGCAGGATTCTGGGAAAGTTTACGTCTTTTTACTGCCCGGGATGGCGGTTGACATAAGCTGCAGGCAAAGCTGCCAACAGGCTGGTGAGCGTGGGTAATAAAATTGCCGCCGCAGCAGTTGCAGCTGGAAAGTTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGATTGGGGCAAAAAAAAGCAG</t>
+  </si>
+  <si>
+    <t>TTGATGCGGTGTCTGGTGCCTCCAGGTGACTGCAACCAGTTAACAATTACAGTCGGCTTTCCCACCCAAACCAATAAGGACTAACATGACTTTTAACTGTGCCACGTGCGCTTAGCCGCATTCACCGCATCACAAAATTCACTTTCATTTAAATTTAACAGACAAGACCGACTCTTTATGGATATCGGAAATGCGCCTTCGTGTTGTGCCCGGTTTTATTTCACCACCTCCGGGCTTCGGTGGTCTCGGCTATACCCCTACAGCGAGAGCTTGTGTTAACATTTCAATACCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCAATGTCGTTATTTACAAC</t>
+  </si>
+  <si>
+    <t>CGGGTTCAGCTTCAGTTGATTAAATGAGGAGTGAGAAGTCCGAAACAGGACTCACTGTATAAATAAACAGCTATTTTGTTGAGGAAGGGTAAGATAACGGCGGGTGCCTGAAGCTTTCCGGTTTCAGGTTTACTCTGAGGTCTGGAATTTGGATGGTAGTCCCTTCTTCGCATGGAGGCAATATAAACATGCTGACGAAATATGCCCTTGCGGCAGTCATAGTGCTGTGTTTAACGGTGCTGGGATTTACGCTTCTGGTCGGAGACTCGCTGTGTGAGTTTACGGTGAAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGTTTGGAGTGGCAGCCCCA</t>
   </si>
   <si>
     <t>NOT</t>
@@ -329,16 +1181,88 @@
     <t>pMB1-sgRNA</t>
   </si>
   <si>
-    <t>AGCCGTCAAACAAATTGGCACTGAATTATTTTACTCTGTGTAATAAATAAAGGGCGCTTAGATGCCCTGTACACGGCGAGGCTCTCCCCCCTTGCCACGCGTGAGAACGTAAAAAAAGCACCCATACTCAGGAGCACTCTCAATT-TCCGTAAGACGTTGGGGAGACTAAGGCAGCCAGATGGCTGCCTTTTTTACAGGTGTTATTCAGAATTGATACGTGCCGGTAATGCTGAAATTACGCGGTGTGCCGTAGACGATAGAACCTTCCACGTTGGTATCGTAGGTTTTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAATCGCCTCTAAACACCTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
-  </si>
-  <si>
-    <t>AATGGCATAGACTCAAGATATTTCTTCCATCATGCAAAAAAAATTTGCAGTGCATGATGTTAATCATAAATGTCGGTGTCATCATGCGCTACGCTCTATGGCTCCCTGACGTTTTTTTAGCCACGTATCAATTATAGGTACTTCC-TTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACCGTGTCCCGTATTATTATGCTGATCCCTACCGGAACCAGCGTCGGTCTGACCAGCGTCAGCCTTGGCGTGATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGTGAAATCAGGCAGTCAGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
-  </si>
-  <si>
-    <t>GTCCTGCGGTGGTTATCCCAACCAACGAAGAACTGGTTATCGCGCAAGACGCGAGCCGCCTGACTGCCTGATTTCACACCGCCAGCTCAGCTGGCGGTGCTGTTTTGTAACCCGCCAAATCGGCGGTAACGAAAGAGGATAAACC-TCTCGTCATCATCCGCAGCTTTGCGCTGCGGATATCTGAACCGGAAATAATCACTATTTCCGGTTTTTTATTCTCTTAATTTGCATTAATCCTTTCTGATTATCTTGCTTAACTGCGCTGCATCAATGAATTGCGCCATCCCACTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGATTTCTGCCAGCTGTTCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
-  </si>
-  <si>
-    <t>AACGACAATTCCTTAAGGATATCTGAAGGTATATTCAGAATTTGAATAAAATGCAGACAGAAATATATTGAAAACGAGGGTGTTAGAACAGAAGTATTTCAGAAAACCCTCGCGCAAAAGCACGAGGGTTTGCAGAAGAGGAAGA-ATTACCCCAGACACCCCATCTTATCGTTTGATAGCCCTGTATCCTTCACGTCGCATTGGCGCGAATATGCTCGGGCTTTGCTTTTCGTCGTCTTTTATAAAGCCACGTAAAAGCGGTGACGTCAAATGCTGCGAAATCGCTTCAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTACGCCGAAACATTTCACGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+    <t>CTGAGGTAATTTTTCAGCATAATCTGGAAAAACGCCCGAGTGAAGTCGCATTGCGCAAGAAACCAGCATCTGGCACGCGATGGGTTGCAATTAGCCGGGGCAGCAGTGATAATGCGCCTGCGCGTTGGTTCTCAACGCTCTCAAT-ATTTCTGCCTCCCACCGTTTCGTCAAAAAATCCCAACATGGCTAAACTTTAACCACAACTGACGTCGCAAGAATTGTCTGGCTGCGCAGTACGCTTCGGAGGTATGTCTGATGAAGTATGTTGATGGTTTTGTGGTTGCCGTTCCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGGTAAACAGAGTAGCGTTGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GCTTCGCCCTTCGGGTCGTTGCCTGCGGCAACGCTCTCTCGCTGACGCTCGAGCCGAACCTTAGTCGAAGCTTCTCATCCTTCCCCGCATGGGCAGAATATTTGATTGCGGATTCGCTTGAGAGTTCAGGGACTTTTGAAAGTGA-AAAGTGATGGTGGTGGGGGAAGGATTCGAACCTTCGAAGTCGATGACGGCAGATTTACAGTCTGCTCCCTTTGGCCGCTCGGGAACCCCACCAGGGGTAATTCAAATTTTGAGGTAATGCTTGAGATGGTGGTGGGGGAAGGATTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCGGATTCGTTGGGAAGTTCAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>AACCGCAGTTCGTAGAGCGTTTGTCGGGTCAGGAGTGTGAATGTCAGAATCGTAATGCAGATAATGAGCAGACACACCACCAGAGGGTTGTGCTTCATAGCCTTTCTCCTTGCCGGATGGCGGGTAAGAGGCTAAGATCTGAATT-CTGATTCCCGGTTAGCCTGAAAACAGAAAGTCTCAGGCACCCGCAGGCATCCTATGAGGTTTCCTTAGGGACGAAAATAATCACTTCACGAAATTGCGTGCTGTTTTCCAGAATTTTTCGTCATTCGGGTTAGCCAGTTTAGCCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCTAGGTTCATTCGTTGGCCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GCTAATTGATATTTGCTTGCTCTTCCCCATATTTTCCTGCTTACCGCCATTCAGCTGGTAGTACCTGTCGCAAATTCTTTACAGTTTTTAAACTAATGAGACGAATCTGATCGACGCAAAAAGTCCGTATGCCTACTATTAGCTC-AACATTTTTCCGCTTCGCTACCTCGCCCCTCACTCTTTCCAATAATGTTGCACAAGATACTGTGACTCTCTTCAAGCCGTCAGCAGGCTGATAATGTTATTTATATTTTATTGTTTATTTCATGCAGCCATTACACGATGAACGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTATGCCTACTATTAGCTCAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GCCATTGATGACCCGCAATTCTCTGATAAACGGGCGCAGGCTGTTTCATCAATATTTTCCTCCCGCGCTAAAGATCACATAATCTTAACAAGAATGTTAAAAAACGCTGGACTCAGACAGTAGAGTGTGTGTTATGGTTGACTAT-TGGAAATCAAAAGGCTATTTTAGGTAATTAACAGAGTTTTTCAGCTCGTTCTATAAACGGTGCCAGACTCATTTTTTCGCCGGGATTGTTAGGATCATCAATCTGAATCACCGAAATGGGTTGGGCATTGGTCTTCCCACTGGCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGTTCTTTCACCAGAACGGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CTTTTTAAGATTATTGCGGAATGGCGAAATAAGCACCTAACATCAAGCAATAATAATTCAAGGTTAAAATCAATAACTTATTCTTAAGTATTTGACAGCACTGAATGTCAAAACAAAACCTTCACTCGCAACTAGAATAACTCCC-ACCCTTCTTTACACACTTTTCATTATTCTGTGCTACCACAGAAAAACTATAACGCTTGTTAACTATTTCACAAATAATTAACATCCGCATAATTTCCAGCAATCTTTGTTTATTTGCAATTATTTTTGTTGGGCTTTTTGTAGGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGACATTCAGAAATGAATGAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GTTGCTGGTCCGGTTCGCGGCCTTTCCAGCAGGTTGTATTACCGTAGTAATGCAAGCGCGTCTCAGCGGAGACAATACTCGCCAGTAACTCTCTTTTTGTCAAGCAAAAGAGAGTTATTATTGTTCTGTTAGTGTATTATCCACT-AGATTATCCGATTCTGTTTAAAGTCACGCAAAAAACCACCCCAGCGACGTTCATAGAATGGCGCAATATGTTCGGTAATAAAGTGGCTAATTCCTTTTTCCCCTTTTTTCACCTGACAAATATCGATTGGTTCATCGCCAGGTAACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCTTTAGGAAAGGATGTTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>TTCATTGTTTTCGCCACCCGAACTGCAGGCGCTTCCATCCGGGTATGATCGACTGTGAAGCTATCTAACAACGGCATTTAGCCACCTCCGGTAATTTTTTTAAAAATTTTCTGAACTCTTTCTTCCCAGGCGAGTCTGAGTATAT-CTTTTCTGTCAGGCGTGTTTTTCCAGCCACACCGCAAACGGTTCGGTATCAGCGGCTTCCATTTCCTGCTGACGGCGTTCAGACGCCTCGCGCTCGGCTACAAAATCCTCTTCGCGCAGAATTTCCAGCGGCTCTTCACGCAGCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCATATACTCAGACTCGCCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CCGTAACGCGAACGCGATACAAAACACGGCACAAATTTCGAAAAAAGCTAAAAAGCATTCCAACTCCCTTTGCTCTGATTCAGTAAAAGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCG-ATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCAAAAAAAACCTGCGCATCTGCGCAGGCTGGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTCTCTTGCACCAACCTGCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CCGAATAATCTCACCAATCAATACCTCTGGGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGC-ATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCGCAACAGCGTTTCGCAAAGTGTAACCAAAGGTTTGCAATCTCTTTTTTTGTCTTACTTATTTGCGTTTGGCTCACATTCCCACGATGAAAACACGCCACCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGCTAAAGTGGTGATCCCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>TGTTCAGCCAGTTCACGATCATACTGGCAAGAATGCCAGCAATGACCGGAGCCGCTAAATCATGCCAGAAGGCCATGCCCAGCTCTGCGAACGTCATATAGCCGCCTGTGTTGTAATGACAACGTTTCGCGGCTATTCTTGAGTG-CTCTCTCCAGCAACCAATGCCACCAGGGATAAAGCCCCCGCAACATTGCGCCTCACCGGAACCTTTCCGGCTTGCCGCTGATTCTACGATTGCTTTTTACTGTCAGCACCCGGCAATCTTCCTCATTGCGCGATGCCTTCCAGCTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTATGCACCTGACAACACCAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAAC-GCTTTAATTGTATGTCACCGACGTTTCTTCGCCAGTGTAAAAGTATACTTTTTAACCGCAATATTTTTGTCATCTCAGACGATTTTTTATCGCAATCCTGAACGGTATACGGCTCGATAACGCTGCAATCTTGCGCACCGACGATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACAAAACTAAAGCGCCACAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GCATGGAAGTAGTCATTGGGGACCTTGTTGGTTTTGTGTTTAACAATATTTATACAAGCACAGCTTTACAGGGGAGACAATGGAAAATTTTTCAGCAAGGGAAAATTGAGGGGTTGATCACGTTTTGTACTGAATTGCAGATAAC-ATAGTTGAGTATCGATCACAGTTTGCGTTTTGTCCAAATATTACTGTTTATTTATACAGTAAACTTCTATAATATCACTGTACGCAATGTGTTATGCGGGGGCCGCATCGTTACCCGGCGCACTAAGTCCTGGCTGAAACGGGTGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCGACTGACGAAACCTCGCTCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GGCCGTACTGGGAATAATTTTATTTTCTGGTTTTCTGGCCGCGTATTTCAGCCACAAATGGGATGACTAATGAACGGAGATAATCCCTCACCTAACCGGCCCCTTGTTACAGTTGTGTACAAGGGGCCTGATTTTTATGACGGCG-GTTGACACAGTAGCATCAGTTTTCTCAATGAATGTTAAACGGAGCTTAAACTCGGTTAATCACATTTTGTTCGTCAATAAACATGCAGCGATTTCTTCCGGTTTGCTTACCCTCATACATTGCCCGGTCCGCTCTTCCAATGACCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAAAAACCGCCAGTAAACCGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>AAAAGGTTCCATTAATAGCCTCCCTGTTTTTTTAGTATTATCGATGATATCAGCGGGCTATTTTTCGATGCTGCTCATAAATATCGAATTACAGTGATATACACATGTCTTGCCTCCCTGCAAAGAAGAGACTAACATTCGAATT-CTGGAACCTCGCGAATGCTTAACGCCAGACAGCCTCAAGCACCCGACGCCATTCTATACCTGATAATTCTTCCCGCGGCGTTCACGTTTAAAATCAGGAATGCTGCTCGCAAAATAAAAACGCCCCCATCATTTCTGACAGAGGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGAGCATTCGCGAGGTTCCAGAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GACGTATGAGCGACATCGTCACCCTGGGTATCACATCTTATTTTTAGTCAGGACATAAGCAACTGAAATTGATGGCTGGCATGACGAGGGATGCAGATGCTGATTTCATTACCCCCGGTGATTACTAAAGGAGAGGCTAAAACGA-GTCGTTGACCTCACCATGTCGATCACTGTGCCTGTATCCCACCTTACTGGCTGACAACCCCACTATGCCGCTGGTCTGTAAATCCCTCATATCTCTCCTCGCGCGCAATTTAAAGAACCGTTATTTCTCAAGAATTTTCAGGGACCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACTGGTGGATACACATACCAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GATTTTTGCATCAGGATAATTCTGCTTGAGCGTACTGATGACAGGAGTAGTTAATAACATATCCCCATGATATCGCATCTTTATGACCAGGATTTTTCGAAATGGCTTTTCCACTAGCGACTCTTTTGTGTGATTGTCTGGTTAA-CGTGCTAGTGTATCATTTCTTTCGCAGCAATCCGACCCGAATGATTTTTATACACAAAATATACTTTAATCATAAAAATCAAATAGATAAAAAATAGCATTTCGATAATGTCAGTACGGCCTATGTAGATTTGAAAATGGGGCCGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGATTCAGGTAGCTGTTGAGCCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>GCGGATTTCACTGTAACCGTAGCTGCCGAGCACGTTTTTCAGTGTGCCTTCAATGCGCTGCCAGATGGCCGTTTCGCCAGGCAGGTAATCGTTCATGCCGCGAATGGCTTGAATGTTTTTTGCCACGTTTATTCTCTTTCTGAAT-TATTTTTCAACCTGCTGAACGTCAATTCGACGCGCTTCGTCCAGCTGACTGGCTTTCGCACGAATGCGTGCTTCCAGCTGGTCGATCATATCGTTGTTGTCCAGACGGTCTTTGCGCACGCCATCTTCATAGAGGCCGCTTTTCTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCAATCATACACGGGAAGCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CAAACGTATGGGCCACGCGGGTGCCATCATTGCCGGTGGGAAAGGGACTGCGGATGAGAAATTCGCTGCTCTGGAAGCCGCAGGCGTGAAAACCGTTCGCAGCCTGGCGGATATCGGTGAAGCACTGAAAACTGTTCTGAAATAA-GCTTATCGCGATGATTTTCGCTGCGCTATCAGGGTAAATTTATAGTCATCGGTATTAAAAGCGTTGCGGCTATATTCAAACACCCGACCATCAACTAAATATCCACGCGATACTTTTTCAAGAATCGGCTTTGTCTGGCTGATATCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGCCCTCTACAGGAATGGCGAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>TTCAGGCTGTATTCGCGCAGAATGATGAAATGGCGCTGGGCGCGCTGCGCGCACTGCAAACTGCCGGTAAATCGGATGTGATGGTCGTCGGATTTGACGGTACACCGGATGGCGAAAAAGCGGTGAATGATGGCAAACTAGCAGC-ATGGACATCCCGAATATGCAAAACGCAGGCAGCCTCGTTGTTCTTGGCAGCATTAATGCTGACCACATTCTTAATCTTCAATCTTTTCCTACTCCAGGCGAAACCGTAACCGGTAACCACTATCAGGTTGCATTTGGCGGCAAAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCTCAGCTACCCGATCAGATGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>AAAAATGGCAAACACATCTGATTAATCCACATATCATTCTGTCCAAAGAGCCACAAGGGTTTGTTGCTGACGCCACAATCAATACACCTAACGGCGTTCTGGTTGCCAGTGGTAAACATGAAGATATGTACACCGCAATTAACGA-GTTGACAGCGTGAAAACAGTACGGGTACTGTACTAAAGTCACTTAAGGAAACAAACATGAAACACATACCGTTTTTCTTCGCATTCTTTTTTACCTTCCCCTGAATGGGAGGCGTTTCGTCGTGTGAAACAGAATGCGAAGACGACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTCAACAAAAAACGCGCCCGAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>ACGCTTTTATTCTTCTGCAAGCCTTTCAACCGCAAACTTAAGCCTTGTAACAAAAATCATCAAAATATGTGCGGTTGCTCATGTTCTTACATTCTGGTTACAGAAAGAGATTGATAATTCGCGTCGCGAAAAATAGTCTGTTCCT-ATGCGTACGTTTAGTGGCAAACGTAGTACGCTGGCGCTGGCTATCGCCGGTGTTACAGCAATGTCGGGCTTTATGGCAATGCCGGAGGCTCGCGCCGAAGGATTCATCGACGATTCAACCTTAACCGGCGGTATCTATTACTGGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTTGCCACTAAACGTACGCATGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>ATGTGTGGACGATGTGTTATCTGTTGATGCGAACGCGCGTGAAGTCGCCAGAAAAGAGGTGATGCGTCTCGCAAGCTGAGGATAATCCGGCTACAGAGAGTCGCGCTATTTGTTAGCGTAGGGCTTCAGTGATATAGTCTGCGCC-TTTGTATAGGCTTCAGTATTCCTGAGTACCGTAAACCCTGTCAGGGAATAAAAAACGCGTGATGTTGTCTGCTACTCAACCACTTAGCGAAAAATTGCCAGCGCATGGCTGCCGTCATGTTGCGATCATTATGGACGGCAATGGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTTATAAGGTCAGATATGCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>AAACCGATGGTGGTAATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGGGTATTACAGA-CTTTCGGCTACGGGCTAATGGTAACACCATTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCCATTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTAAGTATCTACTAACGCTGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>TCAGCGGTATAGAGTGAATTCACGATAAACAGCCCTGCGTTATATGAGTTATCGGCATGATTATCCGTTTCTGCAGGGTTTTTAATCGGACGATTAGTGGGTGAAATGAGGGGTTATTTGGGGGTTACAGGTAAATTCCAGGCAG-CGATTAACCCTGCAGCAGAGACAGAACCTGCTGCGGTACCTGGTTAGCTTTTGCCAACACGGAGTTACCGGCCTGCTGGATGATCTGCGCTTTCGACATATTGGACACTTCGGTCGCATAGTCGGCGTCCTGAATACGGGACTGCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTGCTTCCCCGCCACCGGCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CCAAGGCTTCCACCGGTCATCAAATAACCGCCGAAAACTGTACCGAGAACAACCAGGTAACCTAATAAGATAAGCACGACATCATCCTTCCACTGTTGACCATGACAGGATGTTCAGTCGTCAGGCGTTAACGCGCGATTGGGGC-GGGATAATATCGGCAGGATTCTGGGAAAGTTTACGTCTTTTTACTGCCCGGGATGGCGGTTGACATAAGCTGCAGGCAAAGCTGCCAACAGGCTGGTGAGCGTGGGTAATAAAATTGCCGCCGCAGCAGTTGCAGCTGGAAAGTTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGATTGGGGCAAAAAAAAGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>TTGATGCGGTGTCTGGTGCCTCCAGGTGACTGCAACCAGTTAACAATTACAGTCGGCTTTCCCACCCAAACCAATAAGGACTAACATGACTTTTAACTGTGCCACGTGCGCTTAGCCGCATTCACCGCATCACAAAATTCACTTT-CATTTAAATTTAACAGACAAGACCGACTCTTTATGGATATCGGAAATGCGCCTTCGTGTTGTGCCCGGTTTTATTTCACCACCTCCGGGCTTCGGTGGTCTCGGCTATACCCCTACAGCGAGAGCTTGTGTTAACATTTCAATACCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGCAATGTCGTTATTTACAACGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
+  </si>
+  <si>
+    <t>CGGGTTCAGCTTCAGTTGATTAAATGAGGAGTGAGAAGTCCGAAACAGGACTCACTGTATAAATAAACAGCTATTTTGTTGAGGAAGGGTAAGATAACGGCGGGTGCCTGAAGCTTTCCGGTTTCAGGTTTACTCTGAGGTCTGG-AATTTGGATGGTAGTCCCTTCTTCGCATGGAGGCAATATAAACATGCTGACGAAATATGCCCTTGCGGCAGTCATAGTGCTGTGTTTAACGGTGCTGGGATTTACGCTTCTGGTCGGAGACTCGCTGTGTGAGTTTACGGTGAAGCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGGTTTGGAGTGGCAGCCCCAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
   </si>
 </sst>
 </file>
@@ -696,7 +1620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,13 +1654,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>169</v>
@@ -750,13 +1674,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>169</v>
@@ -770,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>169</v>
@@ -790,15 +1714,495 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="F5">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29">
         <v>169</v>
       </c>
     </row>
@@ -809,7 +2213,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -843,13 +2247,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="F2">
         <v>169</v>
@@ -863,13 +2267,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="F3">
         <v>169</v>
@@ -883,13 +2287,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="F4">
         <v>169</v>
@@ -903,15 +2307,495 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F9">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F13">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
+      </c>
+      <c r="F16">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F20">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" t="s">
+        <v>193</v>
+      </c>
+      <c r="F21">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>194</v>
+      </c>
+      <c r="F22">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
-      <c r="F5">
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29">
         <v>169</v>
       </c>
     </row>
@@ -922,7 +2806,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,13 +2840,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="F2">
         <v>90</v>
@@ -976,13 +2860,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="F3">
         <v>90</v>
@@ -996,13 +2880,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="F4">
         <v>90</v>
@@ -1016,15 +2900,495 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="F5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D22" t="s">
+        <v>223</v>
+      </c>
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>224</v>
+      </c>
+      <c r="E23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+      <c r="F24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29">
         <v>90</v>
       </c>
     </row>
@@ -1035,50 +3399,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2">
-        <v>7375</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +3438,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1120,10 +3452,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1134,7 +3466,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="D2">
         <v>59.99589418478223</v>
@@ -1148,7 +3480,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="D3">
         <v>59.99589418478223</v>
@@ -1162,7 +3494,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="D4">
         <v>59.99589418478223</v>
@@ -1176,9 +3508,345 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>261</v>
       </c>
       <c r="D5">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D10">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>261</v>
+      </c>
+      <c r="D18">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>261</v>
+      </c>
+      <c r="D19">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D23">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D24">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D25">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D26">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28">
+        <v>59.99589418478223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29">
         <v>59.99589418478223</v>
       </c>
     </row>
@@ -1189,13 +3857,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1203,43 +3871,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1247,43 +3903,31 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
+        <v>268</v>
+      </c>
+      <c r="D2">
+        <v>59.6809167228916</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
+        <v>294</v>
+      </c>
+      <c r="F2">
+        <v>59.31207977421116</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>322</v>
       </c>
       <c r="H2">
-        <v>60.12611002183172</v>
+        <v>510</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="J2">
-        <v>65.66953459855546</v>
-      </c>
-      <c r="K2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2">
-        <v>491</v>
-      </c>
-      <c r="M2" t="s">
-        <v>85</v>
-      </c>
-      <c r="N2">
-        <v>1925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1291,43 +3935,31 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" t="s">
-        <v>65</v>
+        <v>269</v>
+      </c>
+      <c r="D3">
+        <v>59.74695613835428</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
+        <v>295</v>
+      </c>
+      <c r="F3">
+        <v>60.10765438101839</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c r="H3">
-        <v>60.57417248282036</v>
+        <v>501</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>323</v>
       </c>
       <c r="J3">
-        <v>64.84955785617689</v>
-      </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3">
-        <v>519</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1335,43 +3967,31 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
+        <v>270</v>
+      </c>
+      <c r="D4">
+        <v>59.64121266401168</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
+        <v>296</v>
+      </c>
+      <c r="F4">
+        <v>58.5822810890989</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
       <c r="H4">
-        <v>64.22898477421717</v>
+        <v>516</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="J4">
-        <v>63.74478854774412</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L4">
-        <v>493</v>
-      </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1379,40 +3999,772 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
+        <v>271</v>
+      </c>
+      <c r="D5">
+        <v>59.27012010950352</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
+        <v>297</v>
+      </c>
+      <c r="F5">
+        <v>59.60766409443983</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="H5">
-        <v>64.60113494502525</v>
+        <v>514</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="J5">
-        <v>64.49313181010598</v>
-      </c>
-      <c r="K5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6">
+        <v>58.98514266141586</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6">
+        <v>60.10842447715316</v>
+      </c>
+      <c r="G6" t="s">
+        <v>326</v>
+      </c>
+      <c r="H6">
+        <v>511</v>
+      </c>
+      <c r="I6" t="s">
+        <v>326</v>
+      </c>
+      <c r="J6">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7">
+        <v>59.96038189038234</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7">
+        <v>59.34905822750966</v>
+      </c>
+      <c r="G7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7">
+        <v>521</v>
+      </c>
+      <c r="I7" t="s">
+        <v>327</v>
+      </c>
+      <c r="J7">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8">
+        <v>60.03778984744611</v>
+      </c>
+      <c r="I8" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9">
+        <v>59.59978688135692</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9">
+        <v>59.96649591440473</v>
+      </c>
+      <c r="G9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9">
+        <v>503</v>
+      </c>
+      <c r="I9" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10">
+        <v>59.53345659238568</v>
+      </c>
+      <c r="E10" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10">
+        <v>61.49973732672316</v>
+      </c>
+      <c r="G10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10">
+        <v>493</v>
+      </c>
+      <c r="I10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11">
+        <v>59.89673717883943</v>
+      </c>
+      <c r="E11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11">
+        <v>61.56947873290846</v>
+      </c>
+      <c r="G11" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11">
+        <v>518</v>
+      </c>
+      <c r="I11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J11">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12">
+        <v>59.73517428281309</v>
+      </c>
+      <c r="E12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12">
+        <v>59.82332025162748</v>
+      </c>
+      <c r="G12" t="s">
+        <v>331</v>
+      </c>
+      <c r="H12">
+        <v>508</v>
+      </c>
+      <c r="I12" t="s">
+        <v>331</v>
+      </c>
+      <c r="J12">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13">
+        <v>59.40882988833823</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13">
+        <v>59.82742247996231</v>
+      </c>
+      <c r="G13" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13">
+        <v>491</v>
+      </c>
+      <c r="I13" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14">
+        <v>60.17905641396885</v>
+      </c>
+      <c r="E14" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14">
+        <v>60.6053193565283</v>
+      </c>
+      <c r="G14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14">
+        <v>503</v>
+      </c>
+      <c r="I14" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15">
+        <v>60.05603500967516</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15">
+        <v>59.03898086307186</v>
+      </c>
+      <c r="G15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15">
+        <v>530</v>
+      </c>
+      <c r="I15" t="s">
+        <v>334</v>
+      </c>
+      <c r="J15">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16">
+        <v>60.39476182622235</v>
+      </c>
+      <c r="E16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16">
+        <v>59.89459165758871</v>
+      </c>
+      <c r="G16" t="s">
+        <v>335</v>
+      </c>
+      <c r="H16">
+        <v>528</v>
+      </c>
+      <c r="I16" t="s">
+        <v>335</v>
+      </c>
+      <c r="J16">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17">
+        <v>60.20279679699951</v>
+      </c>
+      <c r="I17" t="s">
+        <v>349</v>
+      </c>
+      <c r="J17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18">
+        <v>59.10028021499511</v>
+      </c>
+      <c r="E18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F18">
+        <v>59.24038215116332</v>
+      </c>
+      <c r="G18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18">
         <v>496</v>
       </c>
-      <c r="M5" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5">
-        <v>3148</v>
+      <c r="I18" t="s">
+        <v>336</v>
+      </c>
+      <c r="J18">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19">
+        <v>60.50577684820018</v>
+      </c>
+      <c r="E19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19">
+        <v>59.82193174678656</v>
+      </c>
+      <c r="G19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H19">
+        <v>519</v>
+      </c>
+      <c r="I19" t="s">
+        <v>337</v>
+      </c>
+      <c r="J19">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20">
+        <v>61.51299577001384</v>
+      </c>
+      <c r="E20" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20">
+        <v>58.90845861216167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H20">
+        <v>518</v>
+      </c>
+      <c r="I20" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21">
+        <v>59.61819892640887</v>
+      </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21">
+        <v>60.4608107116818</v>
+      </c>
+      <c r="G21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H21">
+        <v>507</v>
+      </c>
+      <c r="I21" t="s">
+        <v>339</v>
+      </c>
+      <c r="J21">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22">
+        <v>59.92986617990761</v>
+      </c>
+      <c r="E22" t="s">
+        <v>314</v>
+      </c>
+      <c r="F22">
+        <v>59.97397297462481</v>
+      </c>
+      <c r="G22" t="s">
+        <v>340</v>
+      </c>
+      <c r="H22">
+        <v>511</v>
+      </c>
+      <c r="I22" t="s">
+        <v>340</v>
+      </c>
+      <c r="J22">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23">
+        <v>58.45322249167117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F23">
+        <v>60.10818551107639</v>
+      </c>
+      <c r="G23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23">
+        <v>502</v>
+      </c>
+      <c r="I23" t="s">
+        <v>341</v>
+      </c>
+      <c r="J23">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24">
+        <v>60.04042504516343</v>
+      </c>
+      <c r="E24" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24">
+        <v>59.82966135418326</v>
+      </c>
+      <c r="G24" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24">
+        <v>498</v>
+      </c>
+      <c r="I24" t="s">
+        <v>342</v>
+      </c>
+      <c r="J24">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25">
+        <v>60.7444138368424</v>
+      </c>
+      <c r="E25" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25">
+        <v>59.90074143450244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25">
+        <v>509</v>
+      </c>
+      <c r="I25" t="s">
+        <v>343</v>
+      </c>
+      <c r="J25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D26">
+        <v>60.1791371095448</v>
+      </c>
+      <c r="E26" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26">
+        <v>59.06996036316491</v>
+      </c>
+      <c r="G26" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26">
+        <v>528</v>
+      </c>
+      <c r="I26" t="s">
+        <v>344</v>
+      </c>
+      <c r="J26">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27">
+        <v>59.18871890616987</v>
+      </c>
+      <c r="E27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27">
+        <v>60.10832907333059</v>
+      </c>
+      <c r="G27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H27">
+        <v>511</v>
+      </c>
+      <c r="I27" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28">
+        <v>59.30980795624293</v>
+      </c>
+      <c r="E28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28">
+        <v>57.44916981542366</v>
+      </c>
+      <c r="G28" t="s">
+        <v>346</v>
+      </c>
+      <c r="H28">
+        <v>522</v>
+      </c>
+      <c r="I28" t="s">
+        <v>346</v>
+      </c>
+      <c r="J28">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29">
+        <v>59.96326795581331</v>
+      </c>
+      <c r="E29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29">
+        <v>60.06570901985623</v>
+      </c>
+      <c r="G29" t="s">
+        <v>347</v>
+      </c>
+      <c r="H29">
+        <v>508</v>
+      </c>
+      <c r="I29" t="s">
+        <v>347</v>
+      </c>
+      <c r="J29">
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +4774,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1433,25 +4785,25 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>351</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>353</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>354</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>95</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1462,19 +4814,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="D2">
         <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="G2" t="s">
-        <v>102</v>
+        <v>386</v>
       </c>
       <c r="H2">
         <v>7712</v>
@@ -1488,19 +4840,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="D3">
         <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="G3" t="s">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="H3">
         <v>7712</v>
@@ -1514,19 +4866,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="D4">
         <v>360</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="H4">
         <v>7712</v>
@@ -1540,21 +4892,645 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="D5">
         <v>360</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>385</v>
       </c>
       <c r="G5" t="s">
-        <v>105</v>
+        <v>389</v>
       </c>
       <c r="H5">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6">
+        <v>360</v>
+      </c>
+      <c r="E6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H6">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7">
+        <v>360</v>
+      </c>
+      <c r="E7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D8">
+        <v>360</v>
+      </c>
+      <c r="E8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" t="s">
+        <v>392</v>
+      </c>
+      <c r="H8">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9">
+        <v>360</v>
+      </c>
+      <c r="E9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10">
+        <v>360</v>
+      </c>
+      <c r="E10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" t="s">
+        <v>394</v>
+      </c>
+      <c r="H10">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11">
+        <v>360</v>
+      </c>
+      <c r="E11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F11" t="s">
+        <v>385</v>
+      </c>
+      <c r="G11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12">
+        <v>360</v>
+      </c>
+      <c r="E12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D13">
+        <v>360</v>
+      </c>
+      <c r="E13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F13" t="s">
+        <v>385</v>
+      </c>
+      <c r="G13" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+      <c r="D14">
+        <v>360</v>
+      </c>
+      <c r="E14" t="s">
+        <v>384</v>
+      </c>
+      <c r="F14" t="s">
+        <v>385</v>
+      </c>
+      <c r="G14" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" t="s">
+        <v>385</v>
+      </c>
+      <c r="G15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16">
+        <v>360</v>
+      </c>
+      <c r="E16" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17">
+        <v>360</v>
+      </c>
+      <c r="E17" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" t="s">
+        <v>385</v>
+      </c>
+      <c r="G17" t="s">
+        <v>401</v>
+      </c>
+      <c r="H17">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18">
+        <v>360</v>
+      </c>
+      <c r="E18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F18" t="s">
+        <v>385</v>
+      </c>
+      <c r="G18" t="s">
+        <v>402</v>
+      </c>
+      <c r="H18">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19">
+        <v>360</v>
+      </c>
+      <c r="E19" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G19" t="s">
+        <v>403</v>
+      </c>
+      <c r="H19">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+      <c r="E20" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" t="s">
+        <v>404</v>
+      </c>
+      <c r="H20">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21">
+        <v>360</v>
+      </c>
+      <c r="E21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" t="s">
+        <v>385</v>
+      </c>
+      <c r="G21" t="s">
+        <v>405</v>
+      </c>
+      <c r="H21">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+      <c r="D22">
+        <v>360</v>
+      </c>
+      <c r="E22" t="s">
+        <v>384</v>
+      </c>
+      <c r="F22" t="s">
+        <v>385</v>
+      </c>
+      <c r="G22" t="s">
+        <v>406</v>
+      </c>
+      <c r="H22">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D23">
+        <v>360</v>
+      </c>
+      <c r="E23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G23" t="s">
+        <v>407</v>
+      </c>
+      <c r="H23">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24">
+        <v>360</v>
+      </c>
+      <c r="E24" t="s">
+        <v>384</v>
+      </c>
+      <c r="F24" t="s">
+        <v>385</v>
+      </c>
+      <c r="G24" t="s">
+        <v>408</v>
+      </c>
+      <c r="H24">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25">
+        <v>360</v>
+      </c>
+      <c r="E25" t="s">
+        <v>384</v>
+      </c>
+      <c r="F25" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" t="s">
+        <v>409</v>
+      </c>
+      <c r="H25">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D26">
+        <v>360</v>
+      </c>
+      <c r="E26" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" t="s">
+        <v>385</v>
+      </c>
+      <c r="G26" t="s">
+        <v>410</v>
+      </c>
+      <c r="H26">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27">
+        <v>360</v>
+      </c>
+      <c r="E27" t="s">
+        <v>384</v>
+      </c>
+      <c r="F27" t="s">
+        <v>385</v>
+      </c>
+      <c r="G27" t="s">
+        <v>411</v>
+      </c>
+      <c r="H27">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28">
+        <v>360</v>
+      </c>
+      <c r="E28" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H28">
+        <v>7712</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>383</v>
+      </c>
+      <c r="D29">
+        <v>360</v>
+      </c>
+      <c r="E29" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29" t="s">
+        <v>385</v>
+      </c>
+      <c r="G29" t="s">
+        <v>413</v>
+      </c>
+      <c r="H29">
         <v>7712</v>
       </c>
     </row>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -629,91 +629,91 @@
     <t>CCAGGTCTCAGGTCAATTTGGATGGTAGTCCCTTCTTCGCATGGAGGCAATATAAACATGCTGACGAAATATGCCCTTGCGGCAGTCATAGTGCTGTGTTTAACGGTGCTGGGATTTACGCTTCTGGTCGGAGACTCGCTGTGTGAGTTTACGGTGAAGACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCAACGCTACTCTGTTTACCACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGAACTTCCCAACGAATCCGCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAGGCCAACGAATGAACCTAGCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGAGCTAATAGTAGGCATACCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCCGTTCTGGTGAAAGAACTCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCATTCATTTCTGAATGTCTCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGGAACATCCTTTCCTAAAGCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTAGGCGAGTCTGAGTATATGACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGCAGGTTGGTGCAAGAGACCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGGGATCACCACTTTAGCACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGGTGTTGTCAGGTGCATACCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTGTGGCGCTTTAGTTTTGTCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGAGCGAGGTTTCGTCAGTCGCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCCGGTTTACTGGCGGTTTTTCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTGGAACCTCGCGAATGCTCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGGTATGTGTATCCACCAGTCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGGCTCAACAGCTACCTGAATCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGCTTCCCGTGTATGATTGACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTCGCCATTCCTGTAGAGGGCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTATCTGATCGGGTAGCTGAGCCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGGGCGCGTTTTTTGTTGACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTATGCGTACGTTTAGTGGCAACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGGCATATCTGACCTTATAACGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCAGCGTTAGTAGATACTTACCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCGCCGGTGGCGGGGAAGCACCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTCTGCTTTTTTTTGCCCCAATCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTGTTGTAAATAACGACATTGCCGCTTAAGATCTGACTCCATAACA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGGGGCTGCCACTCCAAACCCGCTTAAGATCTGACTCCATAACA</t>
+    <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAACGCTACTCTGTTTACCACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGAACTTCCCAACGAATCCGCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGCCAACGAATGAACCTAGCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGAGCTAATAGTAGGCATACCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCCGTTCTGGTGAAAGAACTCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCATTCATTTCTGAATGTCTCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGAACATCCTTTCCTAAAGCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTAGGCGAGTCTGAGTATATGACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCAGGTTGGTGCAAGAGACCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGGGATCACCACTTTAGCACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTGTTGTCAGGTGCATACCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGTGGCGCTTTAGTTTTGTCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGAGCGAGGTTTCGTCAGTCGCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCCGGTTTACTGGCGGTTTTTCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTGGAACCTCGCGAATGCTCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGTATGTGTATCCACCAGTCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGGCTCAACAGCTACCTGAATCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCTTCCCGTGTATGATTGACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTCGCCATTCCTGTAGAGGGCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATCTGATCGGGTAGCTGAGCCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCGGGCGCGTTTTTTGTTGACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTATGCGTACGTTTAGTGGCAACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGGCATATCTGACCTTATAACGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCAGCGTTAGTAGATACTTACCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCGCCGGTGGCGGGGAAGCACCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTCTGCTTTTTTTTGCCCCAATCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTGTTGTAAATAACGACATTGCCGCTTAAGATCTGACTCCAT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGGGGCTGCCACTCCAAACCCGCTTAAGATCTGACTCCAT</t>
   </si>
   <si>
     <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGGTTGCGATGAGACAAATGGTACTCTGGACC</t>
@@ -800,277 +800,16 @@
     <t>CCAGGTCTCACTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGACCCCGACGGTGAGGTTTGGACTCTGGACC</t>
   </si>
   <si>
-    <t>SEQUENCING_PRIMER_1</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_1_TM</t>
-  </si>
-  <si>
-    <t>GCACAAAGCATCTTCTGTTGAGT</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_2</t>
-  </si>
-  <si>
-    <t>SEQUENCING_PRIMER_2_TM</t>
-  </si>
-  <si>
-    <t>SEQUENCING_TARGET</t>
-  </si>
-  <si>
-    <t>SEQUENCING_TARGET_LENGTH</t>
-  </si>
-  <si>
-    <t>WT_SEQUENCING_TARGET</t>
-  </si>
-  <si>
-    <t>WT_SEQUENCING_TARGET_SIZE</t>
-  </si>
-  <si>
-    <t>TTCGCCACATCACCGTAAGT</t>
-  </si>
-  <si>
-    <t>TTCTCATCCTTCCCCGCTTG</t>
-  </si>
-  <si>
-    <t>AGGGGTGCCATGAGAAAATGA</t>
-  </si>
-  <si>
-    <t>AAGAAGTCCCGCCGCC</t>
-  </si>
-  <si>
-    <t>TCGATAACGTCTCCCACTGAG</t>
-  </si>
-  <si>
-    <t>GGCAAGTCCATTCTCCCCAA</t>
-  </si>
-  <si>
-    <t>CAAACAGGTGCTCCAGGGTA</t>
-  </si>
-  <si>
-    <t>ACACTGGACGCACAGGTAAA</t>
-  </si>
-  <si>
-    <t>AGCGAATGGAGGGAGATTACAC</t>
-  </si>
-  <si>
-    <t>GTAAGAACGAAAAAGGCCGCA</t>
-  </si>
-  <si>
-    <t>CGACCATTGGTGAAGCGTTT</t>
-  </si>
-  <si>
-    <t>CGTGTGTTGTTCCAGTCCCT</t>
-  </si>
-  <si>
-    <t>CCTTCGTTTAGGTTACCTCTGCT</t>
-  </si>
-  <si>
-    <t>TGATCCCACCAGCAATCTGC</t>
-  </si>
-  <si>
-    <t>TATCGAAAGTTCCCGCACCT</t>
-  </si>
-  <si>
-    <t>CGCAGAGTCAGGCTGTCG</t>
-  </si>
-  <si>
-    <t>GATCGGTGAGATCGGCGGTA</t>
-  </si>
-  <si>
-    <t>CCGTTGCTGCTCACAAGTTT</t>
-  </si>
-  <si>
-    <t>CACCAAGACGGGAAGACAAGA</t>
-  </si>
-  <si>
-    <t>TCTTCGCGAATTAATTCCGCT</t>
-  </si>
-  <si>
-    <t>AACGAAATCACCGTTGCTGC</t>
-  </si>
-  <si>
-    <t>GAAGTGCTGGCGATGGCTAA</t>
-  </si>
-  <si>
-    <t>CGCCTGTAGCAGATCGTCAA</t>
-  </si>
-  <si>
-    <t>GCCTTCAGCGTGCCTTTAAT</t>
-  </si>
-  <si>
-    <t>TCCGGCCTTCATGAAGAACA</t>
-  </si>
-  <si>
-    <t>GGTGAACTGATGGTGCCTGA</t>
-  </si>
-  <si>
-    <t>TCACTTTGCCATCCGGTACA</t>
-  </si>
-  <si>
-    <t>CATCGGGGAAGGGTGAGAAC</t>
-  </si>
-  <si>
-    <t>AGAAAGTCATCGGCACTTGAC</t>
-  </si>
-  <si>
-    <t>GCACACTTGCCATTTTCCCA</t>
-  </si>
-  <si>
-    <t>GCGAAGAGGTGATGCTGACT</t>
-  </si>
-  <si>
-    <t>AGGGTACAGTGTGAAATTCCAGA</t>
-  </si>
-  <si>
-    <t>AGAGAACGAAGAGGCACAGC</t>
-  </si>
-  <si>
-    <t>GCCTGCTTCGATAATCCCGA</t>
-  </si>
-  <si>
-    <t>CGATTGACCGCTGGTGGC</t>
-  </si>
-  <si>
-    <t>GACTGAAACGCCTGCCAGTC</t>
-  </si>
-  <si>
-    <t>CAGATTCACTGGGGAGGTCG</t>
-  </si>
-  <si>
-    <t>TTATCCGGCGATCATAGCGG</t>
-  </si>
-  <si>
-    <t>TACCTTTCCGCTGCCTGTTG</t>
-  </si>
-  <si>
-    <t>TGCAGGTGTCAGAATTTGCC</t>
-  </si>
-  <si>
-    <t>GCGATACCCATACAACCCGT</t>
-  </si>
-  <si>
-    <t>CCGACCTCAGGCGTCATG</t>
-  </si>
-  <si>
-    <t>TGGCTTTACCATTACTTTTCCCG</t>
-  </si>
-  <si>
-    <t>GGAGCAACGCCTGGAAGATA</t>
-  </si>
-  <si>
-    <t>GGCAGGTCATGGAAAATTCGA</t>
-  </si>
-  <si>
-    <t>TTATCAGTGGCGAGCTGCTG</t>
-  </si>
-  <si>
-    <t>GCGCTGATTTTCTCTCGCAG</t>
-  </si>
-  <si>
-    <t>TCAGCAGCATAACCGGACTG</t>
-  </si>
-  <si>
-    <t>GCCTCAATACCGTTGTTGGC</t>
-  </si>
-  <si>
-    <t>GCGGTACCGGTTTTAATGGC</t>
-  </si>
-  <si>
-    <t>CGCATCTGTAGACAAATTCCGT</t>
-  </si>
-  <si>
-    <t>CGGTGATCAAAGCCTACCGT</t>
-  </si>
-  <si>
-    <t>GCCAGAGAGTGAGACCAAAA</t>
-  </si>
-  <si>
-    <t>CAGGCGTAATACCACAACCCT</t>
-  </si>
-  <si>
-    <t>TTCGCCACATCACCGTAAGTGGTGACATAGCCTTCGGGAATAGCGGCGACGATTTGCCAGACGCGTTGGGGAAATGAATCTTCTTTTTCCATCTTTTCTTCCTGAGGTAATTTTTCAGCATAATCTGGAAAAACGCCCGAGTGAAGTCGCATTGCGCAAGAAACCAGCATCTGGCACGCGATGGGTTGCAATTAGCCGGGGCAGCAGTGATAATGCGCCTGCGCGTTGGTTCTCAACGCTCTCAATATTTCTGCCTCCCACCGTTTCGTCAAAAAATCCCAACATGGCTAAACTTTAACCACAACTGACGTCGCAAGAATTGTCTGGCTGCGCAGTACGCTTCGGAGGTATGTCTGATGAAGTATGTTGATGGTTTTGTGGTTGCCGTTCCTGCCGATAAAAAGGATGCCTATCGGGAAATGGCCGCTAAGGCTGCGCCATTGTTTAAAGAGTTTGGCGCGCTTCGTATTGTCGAATGCTGGGCCAGCGATGTACCGGATGGCAAAGTGA</t>
-  </si>
-  <si>
-    <t>TTCTCATCCTTCCCCGCTTGGGCAGAATATTTGATTGCGGATTCGTTTGAGAATTCCGGGGCTTTTGAAAGTGATGGTGGTGGGGGAAGGATTACTCAGCGCTGCGCGCTTCGCCCTTCGGGTCGTTGCCTGCGGCAACGCTCTCTCGCTGACGCTCGAGCCGAACCTTAGTCGAAGCTTCTCATCCTTCCCCGCATGGGCAGAATATTTGATTGCGGATTCGCTTGAGAGTTCAGGGACTTTTGAAAGTGAAAAGTGATGGTGGTGGGGGAAGGATTCGAACCTTCGAAGTCGATGACGGCAGATTTACAGTCTGCTCCCTTTGGCCGCTCGGGAACCCCACCAGGGGTAATTCAAATTTTGAGGTAATGCTTGAGATGGTGGTGGGGGAAGGATTATTCGTCGCTTCGCTCCTCACCCTTCGGGCCGTTGCCTGTGGCAACGTTCTCTCGCTTTCGCTCGAATCGAACCTTAGTCGAAGGTTCTCACCCTTCCCCGATG</t>
-  </si>
-  <si>
-    <t>AGGGGTGCCATGAGAAAATGAATCTGCTAGTCAAATGCGCGGGGAAAATCCCCGCGCTTGCCCTTACCTGGACGTGCAGGCCATGAGCGCAGCAACCTCCTTATCACCGTCCCGGAACCGCAGTTCGTAGAGCGTTTGTCGGGTCAGGAGTGTGAATGTCAGAATCGTAATGCAGATAATGAGCAGACACACCACCAGAGGGTTGTGCTTCATAGCCTTTCTCCTTGCCGGATGGCGGGTAAGAGGCTAAGATCTGAATTCTGATTCCCGGTTAGCCTGAAAACAGAAAGTCTCAGGCACCCGCAGGCATCCTATGAGGTTTCCTTAGGGACGAAAATAATCACTTCACGAAATTGCGTGCTGTTTTCCAGAATTTTTCGTCATTCGGGTTAGCCAGTTTAGCCATTCGTTACTCTCTTCATTCCAATAGCATTAATTTTCTATGCAATAATTGTTGTAAAAATGTGACGCAAAGAGGTTTTTGGTCATAAGTAATTACCGTCAAGTGCCGATGAC</t>
-  </si>
-  <si>
-    <t>AAGAAGTCCCGCCGCCGACGGACCAACCGGAAGAAATTCTCGAAGAACTTGGCGAAATCGAGAAACCGAATAAGTAATTTCTCATCAGGCGGCTCTGCCGCCTGATTGTTAACCACCGCTAATTGATATTTGCTTGCTCTTCCCCATATTTTCCTGCTTACCGCCATTCAGCTGGTAGTACCTGTCGCAAATTCTTTACAGTTTTTAAACTAATGAGACGAATCTGATCGACGCAAAAAGTCCGTATGCCTACTATTAGCTCAACATTTTTCCGCTTCGCTACCTCGCCCCTCACTCTTTCCAATAATGTTGCACAAGATACTGTGACTCTCTTCAAGCCGTCAGCAGGCTGATAATGTTATTTATATTTTATTGTTTATTTCATGCAGCCATTACACGATGAACGCTTATGAACTCCAGGCACTCCGCCATATTTTTGCCATGACTATTGATGAATGCGCGACCTGGATTGCCCAGACCGGTGACAGTGAAAGCTGGCGTCAGTGGGAAAATG</t>
-  </si>
-  <si>
-    <t>TCGATAACGTCTCCCACTGAGATAAGTAAATCTCGCCACGGATCAAAACGACAATGCCATAATTTGCGGCGCAACTGCTCAAGACAACCGTGTATATCGCCAGAAAGCCAGATATGTCGCCATTGATGACCCGCAATTCTCTGATAAACGGGCGCAGGCTGTTTCATCAATATTTTCCTCCCGCGCTAAAGATCACATAATCTTAACAAGAATGTTAAAAAACGCTGGACTCAGACAGTAGAGTGTGTGTTATGGTTGACTATTGGAAATCAAAAGGCTATTTTAGGTAATTAACAGAGTTTTTCAGCTCGTTCTATAAACGGTGCCAGACTCATTTTTTCGCCGGGATTGTTAGGATCATCAATCTGAATCACCGAAATGGGTTGGGCATTGGTCTTCCCACTGGCAACTTCCTTTTGTGCGATATCGTTTAAAGGATACTGCACGAGGGTACTCGGATTAATAACATACAAAGCATTACCCGGTCGGCAAGTCAGCATCACCTCTTCGC</t>
-  </si>
-  <si>
-    <t>GGCAAGTCCATTCTCCCCAAAAATGCAGAATAATCCAACACGAATATGATACTAAAACTTTTAAGATGTTTCATTTATCGCTATAGATGTTTCAAAATGTAAATGCAAGGGAACTTTTTAAGATTATTGCGGAATGGCGAAATAAGCACCTAACATCAAGCAATAATAATTCAAGGTTAAAATCAATAACTTATTCTTAAGTATTTGACAGCACTGAATGTCAAAACAAAACCTTCACTCGCAACTAGAATAACTCCCACCCTTCTTTACACACTTTTCATTATTCTGTGCTACCACAGAAAAACTATAACGCTTGTTAACTATTTCACAAATAATTAACATCCGCATAATTTCCAGCAATCTTTGTTTATTTGCAATTATTTTTGTTGGGCTTTTTGTAGGTTATTTGTACAGCAAAATGGCGCTTGTACATCTATTTCCCCCAATGCAGGATGATAAATATCACGGGAGAATAGAGAATCATCAATCAGGTAAGAGTCTGGAATTTCACACTGTACCCT</t>
-  </si>
-  <si>
-    <t>CAAACAGGTGCTCCAGGGTATGGATCCCTCTTTCTGGCATCACTTCTTTGTTCGGCACGCAGAAGCGCAGATCGAACACGGTGATTGCGTCGCCATGCGGGGTGTTCATTGTTTTCGCCACCCGAACTGCAGGCGCTTCCATCCGGGTATGATCGACTGTGAAGCTATCTAACAACGGCATTTAGCCACCTCCGGTAATTTTTTTAAAAATTTTCTGAACTCTTTCTTCCCAGGCGAGTCTGAGTATATCTTTTCTGTCAGGCGTGTTTTTCCAGCCACACCGCAAACGGTTCGGTATCAGCGGCTTCCATTTCCTGCTGACGGCGTTCAGACGCCTCGCGCTCGGCTACAAAATCCTCTTCGCGCAGAATTTCCAGCGGCTCTTCACGCAGCAGATTACGGTAGGCTTCTGCAAATGCTTTGCCTGTTCCGCCAATACCAGTATCAATCATAGACCTTAAGATACGGGCAGAGAAAGTCAGATCGGGATTATCGAAGCAGGC</t>
-  </si>
-  <si>
-    <t>ACACTGGACGCACAGGTAAAAACAGTCCAAGCAAAATGCCATCAATAAAAGAGACGTGATTAGGCGTAATTAGAACGCGCTCGCCCTTCAGTGCCTGGGTGTCACCCGTAACGCGAACGCGATACAAAACACGGCACAAATTTCGAAAAAAGCTAAAAAGCATTCCAACTCCCTTTGCTCTGATTCAGTAAAAGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCAAAAAAAACCTGCGCATCTGCGCAGGCTGGTGTAATTCATGTGCTCAACCCGAAGTTGACTTCACCTATCAATACCTCTGGGATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCG</t>
-  </si>
-  <si>
-    <t>AGCGAATGGAGGGAGATTACACGAGATAAAGAACGCGAGCGACAGTAAATTAGGTGCGAAAAAAAACCTGCGCATCCGCGCAGGTTGGTGCAAGAGACAGGGTACGAAGAGCGTACCGAATAATCTCACCAATCAATACCTCTGGGATCTTGATTGTGGTCTGCACGACGACTCTTCGCCAGCGAGAAAACGCAAAGGAATGAAGGGAAATGCAACGAGGTGTGTAAATTGTCGGTTACTGTTACAGATTGATGACCGGCATCACCACTTTAGCAACCTGAAGCCAAACGCCACCAGCGGTCAATCGCAACAGCGTTTCGCAAAGTGTAACCAAAGGTTTGCAATCTCTTTTTTTGTCTTACTTATTTGCGTTTGGCTCACATTCCCACGATGAAAACACGCCACCCCTTGAACCAACGGGCGTTTTCCGTAACACTGAAAGAATGTAAGCGTTTACCCACTAAGGTATTTTCATGGCGACCATAAAGGATGTAGCCCGACTGGCAGGCGTTTCAGTC</t>
-  </si>
-  <si>
-    <t>GTAAGAACGAAAAAGGCCGCAGAGTTTCCCCCCTGCGGCCTGGTCCGGGCGCAAATTGCCATTACGGCAGCCTGACGCCCGCATGACACGTTACTTCCGCTTGTTCAGCCAGTTCACGATCATACTGGCAAGAATGCCAGCAATGACCGGAGCCGCTAAATCATGCCAGAAGGCCATGCCCAGCTCTGCGAACGTCATATAGCCGCCTGTGTTGTAATGACAACGTTTCGCGGCTATTCTTGAGTGCTCTCTCCAGCAACCAATGCCACCAGGGATAAAGCCCCCGCAACATTGCGCCTCACCGGAACCTTTCCGGCTTGCCGCTGATTCTACGATTGCTTTTTACTGTCAGCACCCGGCAATCTTCCTCATTGCGCGATGCCTTCCAGCTTAATTTCTTTATTTGCAATAGTTGCAGTTCATATCCGGGCTGACTCCAGACTGGTAGTGAAATGCGCAATTTTGTAGAATTGCGCCTCCTCGCGACCTCCCCAGTGAATCTGTTGCC</t>
-  </si>
-  <si>
-    <t>CGACCATTGGTGAAGCGTTTGGCGTGTTGCCCGAAGGGCATACGTTAAGTGCGAAAGAGTGGAAACAGCTTTCGTCCCAATGGCGAGAAGAGTTGGATCGGCGCATTCATACCTTAGTGGCGCTGCGTGACGAACTGGACGGATGTATTGGTTGTGGCTGCCTTTCGCGCAGTGATTGCCCGTTGCGTAACCCGGGCGACCGCTTAGGAGAAGAAGGTACCGGCGCACGCTTGCTGGAAGATGAACGCTTTAATTGTATGTCACCGACGTTTCTTCGCCAGTGTAAAAGTATACTTTTTAACCGCAATATTTTTGTCATCTCAGACGATTTTTTATCGCAATCCTGAACGGTATACGGCTCGATAACGCTGCAATCTTGCGCACCGACGATAACGTTTGCGCATCAATTGCCTGGTTTTTCATCGTCAAGACAATAAAAGAGAAAAAAGCAGCAAACTTCGGTTGAAAAAGCCGCTATGATCGCCGGATAA</t>
-  </si>
-  <si>
-    <t>CGTGTGTTGTTCCAGTCCCTACGGCGCATTGCCGACGACCACCACCACACGCACGACGACCACTGCGGCGGATGGCGCAGTTGGTAGTAGTTTTGCGTTGAGCATGGAAGTAGTCATTGGGGACCTTGTTGGTTTTGTGTTTAACAATATTTATACAAGCACAGCTTTACAGGGGAGACAATGGAAAATTTTTCAGCAAGGGAAAATTGAGGGGTTGATCACGTTTTGTACTGAATTGCAGATAACATAGTTGAGTATCGATCACAGTTTGCGTTTTGTCCAAATATTACTGTTTATTTATACAGTAAACTTCTATAATATCACTGTACGCAATGTGTTATGCGGGGGCCGCATCGTTACCCGGCGCACTAAGTCCTGGCTGAAACGGGTGGTGCCGTCAGCGCCTTAACCCCGCGTGAGCACACTGTGTTATGTCAACAAGCACAACGTTTCTCCTTGAGATACCGCGTGCACAACAGCTGGCAACAGGCAGCGGAAAGGTA</t>
-  </si>
-  <si>
-    <t>CCTTCGTTTAGGTTACCTCTGCTAATATCTTTCTCATTGAGATGAAAATTAAGGTAAGCGAGGAAACACACCACACCATAAACGGAGGCAAATAATGCTGGGTAATATGAATGTTTTTATGGCCGTACTGGGAATAATTTTATTTTCTGGTTTTCTGGCCGCGTATTTCAGCCACAAATGGGATGACTAATGAACGGAGATAATCCCTCACCTAACCGGCCCCTTGTTACAGTTGTGTACAAGGGGCCTGATTTTTATGACGGCGGTTGACACAGTAGCATCAGTTTTCTCAATGAATGTTAAACGGAGCTTAAACTCGGTTAATCACATTTTGTTCGTCAATAAACATGCAGCGATTTCTTCCGGTTTGCTTACCCTCATACATTGCCCGGTCCGCTCTTCCAATGACCACATCCAGAGGCTCTTCAGGAAATGCGCGACTCACACCTGCTGTCACGGTAATGTTGATATGCCCTTCAGAATGTGTGATGGCATGGTTATCGACTAACTGGCAAATTCTGACACCTGCA</t>
-  </si>
-  <si>
-    <t>TGATCCCACCAGCAATCTGCAACAGCAGCAACATCAAGGCAATGATAAATTAACAGATGAATATCATTTCCTTTCGTCAAGCTTTTTGAGGATTTTCCCCAGTAATGGCATATATATTTAAAAGGTTCCATTAATAGCCTCCCTGTTTTTTTAGTATTATCGATGATATCAGCGGGCTATTTTTCGATGCTGCTCATAAATATCGAATTACAGTGATATACACATGTCTTGCCTCCCTGCAAAGAAGAGACTAACATTCGAATTCTGGAACCTCGCGAATGCTTAACGCCAGACAGCCTCAAGCACCCGACGCCATTCTATACCTGATAATTCTTCCCGCGGCGTTCACGTTTAAAATCAGGAATGCTGCTCGCAAAATAAAAACGCCCCCATCATTTCTGACAGAGGCGTTTAATTTGTCCGGCAATATTTACCCTTCGTGTAACCCACATTCCCTTTTTAAGCCAAAGAAACGCGTTTCTTCTTCCGCCATGCCGGGTTCCCATTTACGGGTTGTATGGGTATCGC</t>
-  </si>
-  <si>
-    <t>TATCGAAAGTTCCCGCACCTTTATTGCTTATCCCATAGAGCGCATTAATTTCCGGGTTTTCAGACAAAATAGGGATGGTGTCCTGATAAAGCAGCATATCGATTTTTGCATCAGGATAATTCTGCTTGAGCGTACTGATGACAGGAGTAGTTAATAACATATCCCCATGATATCGCATCTTTATGACCAGGATTTTTCGAAATGGCTTTTCCACTAGCGACTCTTTTGTGTGATTGTCTGGTTAACGTGCTAGTGTATCATTTCTTTCGCAGCAATCCGACCCGAATGATTTTTATACACAAAATATACTTTAATCATAAAAATCAAATAGATAAAAAATAGCATTTCGATAATGTCAGTACGGCCTATGTAGATTTGAAAATGGGGCCGAGTTTCAATGAATCGCATAAAAATACAAAAAAAATGAAGATGTAGCGGCAGATCAGACCAAACTGAAGCTATTTAAGTCAAAAACGGGAAAAGTAATGGTAAAGCC</t>
-  </si>
-  <si>
-    <t>CGCAGAGTCAGGCTGTCGCCATTGCGATCCTCAAAGGTGTACATCTCTTTTTCAACCACGTCGGTGACTTCACCAATCGCACGTTTGAATAGCGGGGTCTGCTCTACAATCGGCAAGCGGATTTCACTGTAACCGTAGCTGCCGAGCACGTTTTTCAGTGTGCCTTCAATGCGCTGCCAGATGGCCGTTTCGCCAGGCAGGTAATCGTTCATGCCGCGAATGGCTTGAATGTTTTTTGCCACGTTTATTCTCTTTCTGAATTATTTTTCAACCTGCTGAACGTCAATTCGACGCGCTTCGTCCAGCTGACTGGCTTTCGCACGAATGCGTGCTTCCAGCTGGTCGATCATATCGTTGTTGTCCAGACGGTCTTTGCGCACGCCATCTTCATAGAGGCCGCTTTTCTTGTTGCCGCCGGTGACGCCGAGTGTAGAAACCAGCGCCTCACCTGGGCCATTCACCACGCAGCCGATAATCGAAACGTCCATCGGAGTGATGATATCTTCCAGGCGTTGCTCC</t>
-  </si>
-  <si>
-    <t>GATCGGTGAGATCGGCGGTAGCGCTGAAGAAGAAGCAGCTGCGTACATCAAAGAGCACGTTACCAAGCCAGTTGTGGGTTACATCGCTGGTGTGACTGCGCCGAAAGGCAAACGTATGGGCCACGCGGGTGCCATCATTGCCGGTGGGAAAGGGACTGCGGATGAGAAATTCGCTGCTCTGGAAGCCGCAGGCGTGAAAACCGTTCGCAGCCTGGCGGATATCGGTGAAGCACTGAAAACTGTTCTGAAATAAGCTTATCGCGATGATTTTCGCTGCGCTATCAGGGTAAATTTATAGTCATCGGTATTAAAAGCGTTGCGGCTATATTCAAACACCCGACCATCAACTAAATATCCACGCGATACTTTTTCAAGAATCGGCTTTGTCTGGCTGATATTAAGCAGACGGCTCATCTCTTCGGTTGGCATCAGAGGAATGATTTCCTGTTCGCTACGATCGATAACCATTTTCTTCACTTCTTCGATAAAGTGATATTTCGAATTTTCCATGACCTGCC</t>
-  </si>
-  <si>
-    <t>CCGTTGCTGCTCACAAGTTTAATGTTCTTGCCAGCCAGCCAGCAGATTTTGATCGCATTAAAGGTTTGAACGTAATGCAGAACCTGTTGACCGCTCATCCGGATGTTCAGGCTGTATTCGCGCAGAATGATGAAATGGCGCTGGGCGCGCTGCGCGCACTGCAAACTGCCGGTAAATCGGATGTGATGGTCGTCGGATTTGACGGTACACCGGATGGCGAAAAAGCGGTGAATGATGGCAAACTAGCAGCATGGACATCCCGAATATGCAAAACGCAGGCAGCCTCGTTGTTCTTGGCAGCATTAATGCTGACCACATTCTTAATCTTCAATCTTTTCCTACTCCAGGCGAAACCGTAACCGGTAACCACTATCAGGTTGCATTTGGCGGCAAAGGCGCGAATCAGGCTGTGGCTGCTGGGCGTAGCGGTGCGAATATCGCGTTTATTGCCTGTACGGGTGATGACAGCATTGGTGAGAGCGTTCGCCAGCAGCTCGCCACTGATAA</t>
-  </si>
-  <si>
-    <t>CACCAAGACGGGAAGACAAGAGGTAAAATTTATGACAATGAACATTACCAGCAAACAAATGGAAATTACTCCGGCCATCCGCCAACATGTCGCAGACCGTCTCGCCAAACTGGAAAAATGGCAAACACATCTGATTAATCCACATATCATTCTGTCCAAAGAGCCACAAGGGTTTGTTGCTGACGCCACAATCAATACACCTAACGGCGTTCTGGTTGCCAGTGGTAAACATGAAGATATGTACACCGCAATTAACGAGTTGACAGCGTGAAAACAGTACGGGTACTGTACTAAAGTCACTTAAGGAAACAAACATGAAACACATACCGTTTTTCTTCGCATTCTTTTTTACCTTCCCCTGAATGGGAGGCGTTTCGTCGTGTGAAACAGAATGCGAAGACGAACAATAAGGCCTCCCAAATCGGGGGGCCTTTTTTATTGATAACAAAAAGGCAACACTATGACATCGGAAAACCCGTTACTGGCGCTGCGAGAGAAAATCAGCGCGCTG</t>
-  </si>
-  <si>
-    <t>TCTTCGCGAATTAATTCCGCTTCGCAATTTATCCATAAAATAAATTTAAAATAACAAAACATAATTAAATAAAATGTAACCGCTTTCATCTTGCTGGAATTTCACGCTTTTATTCTTCTGCAAGCCTTTCAACCGCAAACTTAAGCCTTGTAACAAAAATCATCAAAATATGTGCGGTTGCTCATGTTCTTACATTCTGGTTACAGAAAGAGATTGATAATTCGCGTCGCGAAAAATAGTCTGTTCCTATGCGTACGTTTAGTGGCAAACGTAGTACGCTGGCGCTGGCTATCGCCGGTGTTACAGCAATGTCGGGCTTTATGGCAATGCCGGAGGCTCGCGCCGAAGGATTCATCGACGATTCAACCTTAACCGGCGGTATCTATTACTGGCAGCGTGAACGCGACCGTAAAGATGTTACCGACGGCGACAAATACAAAACCAACCTTTCTCACTCCACCTGGAATGCCAACCTCGATTTTCAGTCCGGTTATGCTGCTGA</t>
-  </si>
-  <si>
-    <t>AACGAAATCACCGTTGCTGCTTTTCTTGCGCAACAAATCCGCTTTACGGATATCGCTGCGTTGAATTTATCCGTACTGGAAAAAATGGATATGCGCGAACCACAATGTGTGGACGATGTGTTATCTGTTGATGCGAACGCGCGTGAAGTCGCCAGAAAAGAGGTGATGCGTCTCGCAAGCTGAGGATAATCCGGCTACAGAGAGTCGCGCTATTTGTTAGCGTAGGGCTTCAGTGATATAGTCTGCGCCTTTGTATAGGCTTCAGTATTCCTGAGTACCGTAAACCCTGTCAGGGAATAAAAAACGCGTGATGTTGTCTGCTACTCAACCACTTAGCGAAAAATTGCCAGCGCATGGCTGCCGTCATGTTGCGATCATTATGGACGGCAATGGCCGCTGGGCAAAAAAGCAAGGGAAGATTCGTGCCTTTGGGCATAAAGCCGGGGCAAAATCCGTCCGCCGGGCTGTCTCTTTTGCGGCCAACAACGGTATTGAGGC</t>
-  </si>
-  <si>
-    <t>GAAGTGCTGGCGATGGCTAACAGCCCGTCATACAACCCTAACAATCTGAGCGGCACGCCGAAAGAGGCGATGCGTAACCGTACCATCACCGACGTGTTTGAACCGGGCTCAACGGTTAAACCGATGGTGGTAATGACCGCGTTGCAACGTGGCGTGGTGCGGGAAAACTCGGTACTCAATACCATTCCTTATCGAATTAACGGCCACGAAATCAAAGACGTGGCACGCTACAGCGAATTAACCCTGACCGGGGTATTACAGACTTTCGGCTACGGGCTAATGGTAACACCATTACAGTTAGCGCGAGTCTACGCAACTATCGGCAGCTACGGCATTTATCGCCCACTGTCGATTACCAAAGTTGACCCCCCGGTTCCCGGTGAACGTGTCTTCCCGGAATCCATTGTCCGCACTGTGGTGCATATGATGGAAAGCGTGGCGCTACCAGGCGGCGGCGGCGTGAAGGCGGCGATTAAAGGCTATCGTATCGCCATTAAAACCGGTACCGC</t>
-  </si>
-  <si>
-    <t>CGCCTGTAGCAGATCGTCAAGTTCCACGCTCGCGGGCAGTCGAACCTGCAGGCGCAATGCTTCGTGACGCACCAGCGGGACATAACGCTGCCACAGCGAGTGTTTATCCATTACACCTTCAGCGGTATAGAGTGAATTCACGATAAACAGCCCTGCGTTATATGAGTTATCGGCATGATTATCCGTTTCTGCAGGGTTTTTAATCGGACGATTAGTGGGTGAAATGAGGGGTTATTTGGGGGTTACAGGTAAATTCCAGGCAGCGATTAACCCTGCAGCAGAGACAGAACCTGCTGCGGTACCTGGTTAGCTTTTGCCAACACGGAGTTACCGGCCTGCTGGATGATCTGCGCTTTCGACATATTGGACACTTCGGTCGCATAGTCGGCGTCCTGAATACGGGACTGCGCTTCAGACAGGTTGGTAGTGGTGTTGTTCAGGTTGGTAACCGCGGAATCCAGACGGTTTTGCACCGCACCGAGGGAAGAACGGAATTTGTCTACAGATGCGATAGCATCGTCCAGCGCT</t>
-  </si>
-  <si>
-    <t>GCCTTCAGCGTGCCTTTAATCGCTTTGCCATTATTGCCGACGATAAACGACCCAATCCCTGCACCGGCAATAATCACCAGTTCAGCGGGTTGATAGAGTGCTCCAAGGCTTCCACCGGTCATCAAATAACCGCCGAAAACTGTACCGAGAACAACCAGGTAACCTAATAAGATAAGCACGACATCATCCTTCCACTGTTGACCATGACAGGATGTTCAGTCGTCAGGCGTTAACGCGCGATTGGGGCGGGATAATATCGGCAGGATTCTGGGAAAGTTTACGTCTTTTTACTGCCCGGGATGGCGGTTGACATAAGCTGCAGGCAAAGCTGCCAACAGGCTGGTGAGCGTGGGTAATAAAATTGCCGCCGCAGCAGTTGCAGCTGGAAAGTTGCAGTAATCCACTTTCAACAAACCGCACCAATGTCCAGGCACGGGTTAATGCCAGCAGTGGTCCTTCTTCTGCTTGTGGGCACTGTTCAAGGTATAAACGGTAGGCTTTGATCACCGCA</t>
-  </si>
-  <si>
-    <t>TCCGGCCTTCATGAAGAACATAATCGCCAGGAGTCACACACTGACGTGGTATTTCATCAGTTCCGAAGTGATGTGCAATCATAATTATCTCCATTTTTACAAATGAACTTTGTTGATGCGGTGTCTGGTGCCTCCAGGTGACTGCAACCAGTTAACAATTACAGTCGGCTTTCCCACCCAAACCAATAAGGACTAACATGACTTTTAACTGTGCCACGTGCGCTTAGCCGCATTCACCGCATCACAAAATTCACTTTCATTTAAATTTAACAGACAAGACCGACTCTTTATGGATATCGGAAATGCGCCTTCGTGTTGTGCCCGGTTTTATTTCACCACCTCCGGGCTTCGGTGGTCTCGGCTATACCCCTACAGCGAGAGCTTGTGTTAACATTTCAATACCCTTACAGTTGAGAGTTATTGATATGTTGGATGTATTTACTCCATTGTTGAAACTTTTTGCTAACGAGCCACTCGAAAGACTTATGTATACGATTATCATTTTTGGTCTCACTCTCTGGC</t>
-  </si>
-  <si>
-    <t>GGTGAACTGATGGTGCCTGAAGCAATTTGGCTACTTTTGCAATGTGACAAGTTATGGCAGTGCTGACTGGTGGCGAAGAATTTTGACGATTGAGTCATGCAGAAAAAAACGGGTTCAGCTTCAGTTGATTAAATGAGGAGTGAGAAGTCCGAAACAGGACTCACTGTATAAATAAACAGCTATTTTGTTGAGGAAGGGTAAGATAACGGCGGGTGCCTGAAGCTTTCCGGTTTCAGGTTTACTCTGAGGTCTGGAATTTGGATGGTAGTCCCTTCTTCGCATGGAGGCAATATAAACATGCTGACGAAATATGCCCTTGCGGCAGTCATAGTGCTGTGTTTAACGGTGCTGGGATTTACGCTTCTGGTCGGAGACTCGCTGTGTGAGTTTACGGTGAAGGAACGTAATATTGAGTTTAAGGCTGTTCTCGCTTACGAACCGAAGAAGTAGCCGTTGTGCGGGGAGTAATCCCATAAGCGCTAACTTAAGGGTTGTGGTATTACGCCTG</t>
-  </si>
-  <si>
-    <t>GCGGCCCTTTCCGCCGTCTCGCAAACGGGCGCTGGCTTTAGGAAAGGATGTTCCGTGGCCGTAAATGCAGGTGTTTCACAGCGCTTGCTATCGCGGCAATATCGCCAGTGGTGCTGTCGTGATGCGGTCTTCGCATGGACCGCACAATGAAGATACGGTGCTTTTGTATCGTACTTATTGTTTCTGGTGCGCTGTTAACCGAGGTAAATAATAACCGGAGTCTCTCCGGCGACAATTTACTGGTGGTTAACAACCTTCAGAGCAGCAAGTAAGCCCGAATGCCGCCCTTTGGGCGGCATATTTT</t>
-  </si>
-  <si>
-    <t>CTTTATTCCCCTGGTATGTGTATCCACCAGTAGAACCCTTCGTTGCCCGAATGCTGGCAGGAACTGTTGGCAGAACGGCAACATTTTTTTT</t>
+    <t>plasmid</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTTGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTACAGGCCCATGGATTCTTCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAGTTGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGTACTCTGGACC</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -1176,9 +915,6 @@
   </si>
   <si>
     <t>NOT</t>
-  </si>
-  <si>
-    <t>pMB1-sgRNA</t>
   </si>
   <si>
     <t>CTGAGGTAATTTTTCAGCATAATCTGGAAAAACGCCCGAGTGAAGTCGCATTGCGCAAGAAACCAGCATCTGGCACGCGATGGGTTGCAATTAGCCGGGGCAGCAGTGATAATGCGCCTGCGCGTTGGTTCTCAACGCTCTCAAT-ATTTCTGCCTCCCACCGTTTCGTCAAAAAATCCCAACATGGCTAAACTTTAACCACAACTGACGTCGCAAGAATTGTCTGGCTGCGCAGTACGCTTCGGAGGTATGTCTGATGAAGTATGTTGATGGTTTTGTGGTTGCCGTTCCCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAAGCGTGGTAAACAGAGTAGCGTTGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTAGCATCCAAACTCGAGTAAGGATCTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCAATCCCTTAACGTGAGTTTTCGTTCCACTGAGCGTCAGACCCCGTAGAAAAGATCAAAGGATCTTCTTGAGATCCTTTTTTTCTGCGCGTAATCTGCTGCTTGCAAACAAAAAAACCACCGCTACCAGCGGTGGTTTGTTTGCCGGATCAAGAGCTACCAACTCTTTTTCCGAAGGTAACTGGCTTCAGCAGAGCGCAGATACCAAATACTGTCCTTCTAGTGTAGCCGTAGTTAGGCCACCACTTCAAGAACTCTGTAGCACCGCCTACATACCTCGCTCTGCTAATCCTGTTACCAGTGGCTGCTGCCAGTGGCGATAAGTCGTGTCTTACCGGGTTGGACTCAAGACGATAGTTACCGGATAAGGCGCAGCGGTCGGGCTGAACGGGGGGTTCGTGCACACAGCCCAGCTTGGAGCGAACGACCTACACCGAACTGAGATACCTACAGCGTGAGCTATGAGAAAGCGCCACGCTTCCCGAAGGGAGAAAGGCGGACAGGTATCCGGTAAGCGGCAGGGTCGGAACAGGAGAGCGCACGAGGGAGCTTCCAGGGGGAAACGCCTGGTATCTTTATAGTCCTGTCGGGTTTCGCCACCTCTGACTTGAGCGTCGATTTTTGTGATGCTCGTCAGGGGGGCGGAGCCTATGGAAAAACGCCAGCAACGCGGCCTTTTTACGGTTCCTGGCCTTTTGCTGGCCTTTTGCTCACATGTTCTTTCCTGCGATTTTAGGGATAACAGGGTAATGATTATCAAAAAGGATCTTCACCTAGATCCTTTTAAATTAAAAATGAAGTTTTAAATCAATCTAAAGTATATATGAGTAAACTTGGTCTGACAGTTACCAATGCTTAATCAGTGAGGCACCTATCTCAGCGATCTGTCTATTTCGTTCATCCATAGTTGCCTGACTCCCCGTCGTGTAGATAACTACGATACGGGAGGGCTTACCATCTGGCCCCAGTGCTGCAATGATACCGCGTGATCCACGCTCACCGGCTCCAGATTTATCAGCAATAAACCAGCCAGCCGGAAGGGCCGAGCGCAGAAGTGGTCCTGCAACTTTATCCGCCTCCATCCAGTCTATTAATTGTTGCCGGGAAGCTAGAGTAAGTAGTTCGCCAGTTAATAGTTTGCGCAACGTTGTTGCCATTGCTACAGGCATCGTGGTGTCACGCTCGTCGTTTGGTATGGCTTCATTCAGCTCCGGTTCCCAACGATCAAGGCGAGTTACATGATCCCCCATGTTGTGCAAAAAAGCGGTTAGCTCCTTCGGTCCTCCGATCGTTGTCAGAAGTAAGTTGGCCGCAGTGTTATCACTCATGGTTATGGCAGCACTGCATAATTCTCTTACTGTCATGCCATCCGTAAGATGCTTTTCTGTGACTGGTGAGTACTCAACCAAGTCATTCTGAGAATAGTGTATGCGGCGACCGAGTTGCTCTTGCCCGGCGTCAATACGGGATAATACCGCGCCACATAGCAGAACTTTAAAAGTGCTCATCATTGGAAAACGTTCTTCGGGGCGAAAACTCTCAAGGATCTTACCGCTGTTGAGATCCAGTTCGATGTAACCCACTCGTGCACCCAACTGATCTTCAGCATCTTTTACTTTCACCAGCGTTTCTGGGTGAGCAAAAACAGGAAGGCAAAATGCCGCAAAAAAGGGAATAAGGGCGACACGGAAATGTTGAATACTCATACTCTTCCTTTTTCAATATTATTGAAGCATTTATCAGGGTTATTGTCTCATGAGCGGATACATATTTGAATGTATTTAGAAAAATAAACAAATAGGGGTTCCGCGCACATTTCCCCGAAAAGTGCCACCTGACGTGGCGCCTAGGGATAACAGGGTAATCACATATACCTGCCGTTCACTATTATTTAGTGAAATGAGATATTATGATATTTTCTGAATTGTGATTAAAAAGGCAACTTTATGCCCATGCAACAGAAACTATAAAAAATACAGAGAATGAAAAGAAACAGATAGATTTTTTAGTTCTTTAGGCCCGTAGTCTGCAAATCCTTTTATGATTTTCTATCAAACAAAAGAGGAAAATAGACCAGTTGCAATCCAAACGAGAGTCTAATAGAATGAGGTCGAAAAGTAAATCGCGCGGGTTTGTTACTGATAAAGCAGGCAAGACCTAAAATGTGTAAAGGGCAAAGTGTATACTTTGGCGTCACCCCTTACATATTTTAGGTCTTTTTTTATTGTGCGTAACTAACTTGCCATCTTCAAACAGGAGGGCTGGAAGAAGCAGACCGCTAACACAGTACATAAAAAAGGAGACATGAACGATGAACATCAAAAAGTTTGCAAAACAAGCAACAGTATTAACCTTTACTACCGCACTGCTGGCAGGAGGCGCAACTCAAGCGTTTGCGAAAGAAACGAACCAAAAGCCATATAAGGAAACATACGGCATTTCCCATATTACACGCCATGATATGCTGCAAATCCCTGAACAGCAAAAAAATGAAAAATATCAAGTTTCTGAATTTGATTCGTCCACAATTAAAAATATCTCTTCTGCAAAAGGCCTGGACGTTTGGGACAGCTGGCCATTACAAAACGCTGACGGCACTGTCGCAAACTATCACGGCTACCACATCGTCTTTGCATTAGCCGGAGATCCTAAAAATGCGGATGACACATCGATTTACATGTTCTATCAAAAAGTCGGCGAAACTTCTATTGACAGCTGGAAAAACGCTGGCCGCGTCTTTAAAGACAGCGACAAATTCGATGCAAATGATTCTATCCTAAAAGACCAAACACAAGAATGGTCAGGTTCAGCCACATTTACATCTGACGGAAAAATCCGTTTATTCTACACTGATTTCTCCGGTAAACATTACGGCAAACAAACACTGACAACTGCACAAGTTAACGTATCAGCATCAGACAGCTCTTTGAACATCAACGGTGTAGAGGATTATAAATCAATCTTTGACGGTGACGGAAAAACGTATCAAAATGTACAGCAGTTCATCGATGAAGGCAACTACAGCTCAGGCGACAACCATACGCTGAGAGATCCTCACTACGTAGAAGATAAAGGCCACAAATACTTAGTATTTGAAGCAAACACTGGAACTGAAGATGGCTACCAAGGCGAAGAATCTTTATTTAACAAAGCATACTATGGCAAAAGCACATCATTCTTCCGTCAAGAAAGTCAAAAACTTCTGCAAAGCGATAAAAAACGCACGGCTGAGTTAGCAAACGGCGCTCTCGGTATGATTGAGCTAAACGATGATTACACACTGAAAAAAGTGATGAAACCGCTGATTGCATCTAACACAGTAACAGATGAAATTGAACGCGCGAACGTCTTTAAAATGAACGGCAAATGGTACCTGTTCACTGACTCCCGCGGATCAAAAATGACGATTGACGGCATTACGTCTAACGATATTTACATGCTTGGTTATGTTTCTAATTCTTTAACTGGCCCATACAAGCCGCTGAACAAAACTGGCCTTGTGTTAAAAATGGATCTTGATCCTAACGATGTAACCTTTACTTACTCACACTTCGCTGTACCTCAAGCGAAAGGAAACAATGTCGTGATTACAAGCTATATGACAAACAGAGGATTCTACGCAGACAAACAATCAACGTTTGCGCCGAGCTTCCTGCTGAACATCAAAGGCAAGAAAACATCTGTTGTCAAAGACAGCATCCTTGAACAAGGACAATTAACAGTTAACAAATAAAAACGCAAAAGAAAATGCCGATGGGTACCGAGCGAAGCATCGATTTATTATGACAACTTGACGGCTACATCATTCACTTTTTCTTCACAACCGGCACGGAACTCGCTCGGGCTGGCCCCGGTGCATTTTTTAAATACCCGCGAGAAATAGAGTTGATCGTCAAAACCAACATTGCGACCGACGGTGGCGATAGGCATCCGGGTGGTGCTCAAAAGCAGCTTCGCCTGGCTGATACGTTGGTCCTCGCGCCAGCTTAAGACGCTAATCCCTAACTGCTGGCGGAAAAGATGTGACAGACGCGACGGCGACAAGCAAACATGCTGTGCGACGCTGGCGATATCAAAATTGCTGTCTGCCAGGTGATCGCTGATGTACTGACAAGCCTCGCGTACCCGATTATCCATCGGTGGATGGAGCGACTCGTTAATCGCTTCCATGCGCCGCAGTAACAATTGCTCAAGCAGATTTATCGCCAGCAGCTCCGAATAGCGCCCTTCCCCTTGCCCGGCGTTAATGATTTGCCCAAACAGGTCGCTGAAATGCGGCTGGTGCGCTTCATCCGGGCGAAAGAACCCCGTATTGGCAAATATTGACGGCCAGTTAAGCCATTCATGCCAGTAGGCGCGCGGACGAAAGTAAACCCACTGGTGATACCATTCGCGAGCCTCCGGATGACGACCGTAGTGATGAATCTCTCCTGGCGGGAACAGCAAAATATCACCCGGTCGGCAAACAAATTCTCGTCCCTGATTTTTCACCACCCCCTGACCGCGAATGGTGAGATTGAGAATATAACCTTTCATTCCCAGCGGTCGGTCGATAAAAAAATCGAGATAACCGTTGGCCTCAATCGGCGTTAAACCCGCCACCAGATGGGCATTAAACGAGTATCCCGGCAGCAGGGGATCATTTTGCGCTTCAGCCATACTTTTCATACTCCCGCCATTCAGAGAAGAAACCAATTGTCCATATTGCATCAGACATTGCCGTCACTGCGTCTTTTACTGGCTCTTCTCGCTAACCAAACCGGTAACCCCGCTTATTAAAAGCATTCTGTAACAAAGCGGGACCAAAGCCATGACAAAAACGCGTAACAAAAGTGTCTATAATCACGGCAGAAAAGTCCACATTGATTATTTGCACGGCGTCACACTTTGCTATGCCATAGCATTTTTATCCATAAGATTAGCGGATCCTACCTGACGCTTTTTATCGCAACTCTCTACTGTTTCTCCATACCCGTTTTTTTGGGAATTCGAGCTCTAAGGAGGTTATAAAAAATGGATATTAATACTGAAACTGAGATCAAGCAAAAGCATTCACTAACCCCCTTTCCTGTTTTCCTAATCAGCCCGGCATTTCGCGGGCGATATTTTCACAGCTATTTCAGGAGTTCAGCCATGAACGCTTATTACATTCAGGATCGTCTTGAGGCTCAGAGCTGGGCGCGTCACTACCAGCAGCTCGCCCGTGAAGAGAAAGAGGCAGAACTGGCAGACGACATGGAAAAAGGCCTGCCCCAGCACCTGTTTGAATCGCTATGCATCGATCATTTGCAACGCCACGGGGCCAGCAAAAAATCCATTACCCGTGCGTTTGATGACGATGTTGAGTTTCAGGAGCGCATGGCAGAACACATCCGGTACATGGTTGAAACCATTGCTCACCACCAGGTTGATATTGATTCAGAGGTATAAAACGAATGAGTACTGCACTCGCAACGCTGGCTGGGAAGCTGGCTGAACGTGTCGGCATGGATTCTGTCGACCCACAGGAACTGATCACCACTCTTCGCCAGACGGCATTTAAAGGTGATGCCAGCGATGCGCAGTTCATCGCATTACTGATCGTTGCCAACCAGTACGGCCTTAATCCGTGGACGAAAGAAATTTACGCCTTTCCTGATAAGCAGAATGGCATCGTTCCGGTGGTGGGCGTTGATGGCTGGTCCCGCATCATCAATGAAAACCAGCAGTTTGATGGCATGGACTTTGAGCAGGACAATGAATCCTGTACATGCCGGATTTACCGCAAGGACCGTAATCATCCGATCTGCGTTACCGAATGGATGGATGAATGCCGCCGCGAACCATTCAAAACTCGCGAAGGCAGAGAAATCACGGGGCCGTGGCAGTCGCATCCCAAACGGATGTTACGTCATAAAGCCATGATTCAGTGTGCCCGTCTGGCCTTCGGATTTGCTGGTATCTATGACAAGGATGAAGCCGAGCGCATTGTCGAAAATACTGCATACACTGCAGAACGTCAGCCGGAACGCGACATCACTCCGGTTAACGATGAAACCATGCAGGAGATTAACACTCTGCTGATCGCCCTGGATAAAACATGGGATGACGACTTATTGCCGCTCTGTTCCCAGATATTTCGCCGCGACATTCGTGCATCGTCAGAACTGACACAGGCCGAAGCAGTAAAAGCTCTTGGATTCCTGAAACAGAAAGCCGCAGAGCAGAAGGTGGCAGCATGACACCGGACATTATCCTGCAGCGTACCGGGATCGATGTGAGAGCTGTCGAACAGGGGGATGATGCGTGGCACAAATTACGGCTCGGCGTCATCACCGCTTCAGAAGTTCACAACGTGATAGCAAAACCCCGCTCCGGAAAGAAGTGGCCTGACATGAAAATGTCCTACTTCCACACCCTGCTTGCTGAGGTTTGCACCGGTGTGGCTCCGGAAGTTAACGCTAAAGCACTGGCCTGGGGAAAACAGTACGAGAACGACGCCAGAACCCTGTTTGAATTCACTTCCGGCGTGAATGTTACTGAATCCCCGATCATCTATCGCGACGAAAGTATGCGTACCGCCTGCTCTCCCGATGGTTTATGCAGTGACGGCAACGGCCTTGAACTGAAATGCCCGTTTACCTCCCGGGATTTCATGAAGTTCCGGCTCGGTGGTTTCGAGGCCATAAAGTCAGCTTACATGGCCCAGGTGCAGTACAGCATGTGGGTGACGCGAAAAAATGCCTGGTACTTTGCCAACTATGACCCGCGTATGAAGCGTGAAGGCCTGCATTATGTCGTGATTGAGCGGGATGAAAAGTACATGGCGAGTTTTGACGAGATCGTGCCGGAGTTCATCGAAAAAATGGACGAGGCACTGGCTGAAATTGGTTTTGTATTTGGGGAGCAATGGCGATGACGCATCCTCACGATAATATCCGGGTAGGCGCAATCACTTTCGTCTACTCCGTTACAAAGCGAGGCTGGGTATTTCCCGGCCTTTCTGTTATCCGAAATCCACTGAAAGCACAGCGGCTGGCTGAGGAGATAAATAATAAACGAGGGGCTGTATGCACAAAGCATCTTCTGTTGAGTTAAGAACGAGTATCGAGATGGCACATAGCCTTGCTCAAATTGGAATCAGGTTTGTGCCAATACCAGTAGAAACAGACGAAGAATCCATGGGCCTGT</t>
@@ -3399,18 +3135,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2">
+        <v>7375</v>
       </c>
     </row>
   </sheetData>
@@ -3438,416 +3206,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D6">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D8">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>261</v>
-      </c>
-      <c r="D9">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D10">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D13">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>261</v>
-      </c>
-      <c r="D15">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>261</v>
-      </c>
-      <c r="D19">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D22">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D23">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D24">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
-      </c>
-      <c r="D25">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>261</v>
-      </c>
-      <c r="D26">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>261</v>
-      </c>
-      <c r="D27">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D28">
-        <v>59.99589418478223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29">
-        <v>59.99589418478223</v>
       </c>
     </row>
   </sheetData>
@@ -3857,914 +3224,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2">
-        <v>59.6809167228916</v>
-      </c>
-      <c r="E2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2">
-        <v>59.31207977421116</v>
-      </c>
-      <c r="G2" t="s">
-        <v>322</v>
-      </c>
-      <c r="H2">
-        <v>510</v>
-      </c>
-      <c r="I2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J2">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3">
-        <v>59.74695613835428</v>
-      </c>
-      <c r="E3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3">
-        <v>60.10765438101839</v>
-      </c>
-      <c r="G3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H3">
-        <v>501</v>
-      </c>
-      <c r="I3" t="s">
-        <v>323</v>
-      </c>
-      <c r="J3">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4">
-        <v>59.64121266401168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F4">
-        <v>58.5822810890989</v>
-      </c>
-      <c r="G4" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4">
-        <v>516</v>
-      </c>
-      <c r="I4" t="s">
-        <v>324</v>
-      </c>
-      <c r="J4">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5">
-        <v>59.27012010950352</v>
-      </c>
-      <c r="E5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5">
-        <v>59.60766409443983</v>
-      </c>
-      <c r="G5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H5">
-        <v>514</v>
-      </c>
-      <c r="I5" t="s">
-        <v>325</v>
-      </c>
-      <c r="J5">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6">
-        <v>58.98514266141586</v>
-      </c>
-      <c r="E6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F6">
-        <v>60.10842447715316</v>
-      </c>
-      <c r="G6" t="s">
-        <v>326</v>
-      </c>
-      <c r="H6">
-        <v>511</v>
-      </c>
-      <c r="I6" t="s">
-        <v>326</v>
-      </c>
-      <c r="J6">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7">
-        <v>59.96038189038234</v>
-      </c>
-      <c r="E7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7">
-        <v>59.34905822750966</v>
-      </c>
-      <c r="G7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7">
-        <v>521</v>
-      </c>
-      <c r="I7" t="s">
-        <v>327</v>
-      </c>
-      <c r="J7">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>60.03778984744611</v>
-      </c>
-      <c r="I8" t="s">
-        <v>348</v>
-      </c>
-      <c r="J8">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9">
-        <v>59.59978688135692</v>
-      </c>
-      <c r="E9" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9">
-        <v>59.96649591440473</v>
-      </c>
-      <c r="G9" t="s">
-        <v>328</v>
-      </c>
-      <c r="H9">
-        <v>503</v>
-      </c>
-      <c r="I9" t="s">
-        <v>328</v>
-      </c>
-      <c r="J9">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10">
-        <v>59.53345659238568</v>
-      </c>
-      <c r="E10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10">
-        <v>61.49973732672316</v>
-      </c>
-      <c r="G10" t="s">
-        <v>329</v>
-      </c>
-      <c r="H10">
-        <v>493</v>
-      </c>
-      <c r="I10" t="s">
-        <v>329</v>
-      </c>
-      <c r="J10">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11">
-        <v>59.89673717883943</v>
-      </c>
-      <c r="E11" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11">
-        <v>61.56947873290846</v>
-      </c>
-      <c r="G11" t="s">
-        <v>330</v>
-      </c>
-      <c r="H11">
-        <v>518</v>
-      </c>
-      <c r="I11" t="s">
-        <v>330</v>
-      </c>
-      <c r="J11">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12">
-        <v>59.73517428281309</v>
-      </c>
-      <c r="E12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F12">
-        <v>59.82332025162748</v>
-      </c>
-      <c r="G12" t="s">
-        <v>331</v>
-      </c>
-      <c r="H12">
-        <v>508</v>
-      </c>
-      <c r="I12" t="s">
-        <v>331</v>
-      </c>
-      <c r="J12">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13">
-        <v>59.40882988833823</v>
-      </c>
-      <c r="E13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13">
-        <v>59.82742247996231</v>
-      </c>
-      <c r="G13" t="s">
-        <v>332</v>
-      </c>
-      <c r="H13">
-        <v>491</v>
-      </c>
-      <c r="I13" t="s">
-        <v>332</v>
-      </c>
-      <c r="J13">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14">
-        <v>60.17905641396885</v>
-      </c>
-      <c r="E14" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14">
-        <v>60.6053193565283</v>
-      </c>
-      <c r="G14" t="s">
-        <v>333</v>
-      </c>
-      <c r="H14">
-        <v>503</v>
-      </c>
-      <c r="I14" t="s">
-        <v>333</v>
-      </c>
-      <c r="J14">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15">
-        <v>60.05603500967516</v>
-      </c>
-      <c r="E15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F15">
-        <v>59.03898086307186</v>
-      </c>
-      <c r="G15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15">
-        <v>530</v>
-      </c>
-      <c r="I15" t="s">
-        <v>334</v>
-      </c>
-      <c r="J15">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D16">
-        <v>60.39476182622235</v>
-      </c>
-      <c r="E16" t="s">
-        <v>308</v>
-      </c>
-      <c r="F16">
-        <v>59.89459165758871</v>
-      </c>
-      <c r="G16" t="s">
-        <v>335</v>
-      </c>
-      <c r="H16">
-        <v>528</v>
-      </c>
-      <c r="I16" t="s">
-        <v>335</v>
-      </c>
-      <c r="J16">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17">
-        <v>60.20279679699951</v>
-      </c>
-      <c r="I17" t="s">
-        <v>349</v>
-      </c>
-      <c r="J17">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18">
-        <v>59.10028021499511</v>
-      </c>
-      <c r="E18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F18">
-        <v>59.24038215116332</v>
-      </c>
-      <c r="G18" t="s">
-        <v>336</v>
-      </c>
-      <c r="H18">
-        <v>496</v>
-      </c>
-      <c r="I18" t="s">
-        <v>336</v>
-      </c>
-      <c r="J18">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19">
-        <v>60.50577684820018</v>
-      </c>
-      <c r="E19" t="s">
-        <v>311</v>
-      </c>
-      <c r="F19">
-        <v>59.82193174678656</v>
-      </c>
-      <c r="G19" t="s">
-        <v>337</v>
-      </c>
-      <c r="H19">
-        <v>519</v>
-      </c>
-      <c r="I19" t="s">
-        <v>337</v>
-      </c>
-      <c r="J19">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20">
-        <v>61.51299577001384</v>
-      </c>
-      <c r="E20" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20">
-        <v>58.90845861216167</v>
-      </c>
-      <c r="G20" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20">
-        <v>518</v>
-      </c>
-      <c r="I20" t="s">
-        <v>338</v>
-      </c>
-      <c r="J20">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21">
-        <v>59.61819892640887</v>
-      </c>
-      <c r="E21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F21">
-        <v>60.4608107116818</v>
-      </c>
-      <c r="G21" t="s">
-        <v>339</v>
-      </c>
-      <c r="H21">
-        <v>507</v>
-      </c>
-      <c r="I21" t="s">
-        <v>339</v>
-      </c>
-      <c r="J21">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22">
-        <v>59.92986617990761</v>
-      </c>
-      <c r="E22" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22">
-        <v>59.97397297462481</v>
-      </c>
-      <c r="G22" t="s">
-        <v>340</v>
-      </c>
-      <c r="H22">
-        <v>511</v>
-      </c>
-      <c r="I22" t="s">
-        <v>340</v>
-      </c>
-      <c r="J22">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23">
-        <v>58.45322249167117</v>
-      </c>
-      <c r="E23" t="s">
-        <v>315</v>
-      </c>
-      <c r="F23">
-        <v>60.10818551107639</v>
-      </c>
-      <c r="G23" t="s">
-        <v>341</v>
-      </c>
-      <c r="H23">
-        <v>502</v>
-      </c>
-      <c r="I23" t="s">
-        <v>341</v>
-      </c>
-      <c r="J23">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24">
-        <v>60.04042504516343</v>
-      </c>
-      <c r="E24" t="s">
-        <v>316</v>
-      </c>
-      <c r="F24">
-        <v>59.82966135418326</v>
-      </c>
-      <c r="G24" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24">
-        <v>498</v>
-      </c>
-      <c r="I24" t="s">
-        <v>342</v>
-      </c>
-      <c r="J24">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>289</v>
-      </c>
-      <c r="D25">
-        <v>60.7444138368424</v>
-      </c>
-      <c r="E25" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25">
-        <v>59.90074143450244</v>
-      </c>
-      <c r="G25" t="s">
-        <v>343</v>
-      </c>
-      <c r="H25">
-        <v>509</v>
-      </c>
-      <c r="I25" t="s">
-        <v>343</v>
-      </c>
-      <c r="J25">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D26">
-        <v>60.1791371095448</v>
-      </c>
-      <c r="E26" t="s">
-        <v>318</v>
-      </c>
-      <c r="F26">
-        <v>59.06996036316491</v>
-      </c>
-      <c r="G26" t="s">
-        <v>344</v>
-      </c>
-      <c r="H26">
-        <v>528</v>
-      </c>
-      <c r="I26" t="s">
-        <v>344</v>
-      </c>
-      <c r="J26">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27">
-        <v>59.18871890616987</v>
-      </c>
-      <c r="E27" t="s">
-        <v>319</v>
-      </c>
-      <c r="F27">
-        <v>60.10832907333059</v>
-      </c>
-      <c r="G27" t="s">
-        <v>345</v>
-      </c>
-      <c r="H27">
-        <v>511</v>
-      </c>
-      <c r="I27" t="s">
-        <v>345</v>
-      </c>
-      <c r="J27">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D28">
-        <v>59.30980795624293</v>
-      </c>
-      <c r="E28" t="s">
-        <v>320</v>
-      </c>
-      <c r="F28">
-        <v>57.44916981542366</v>
-      </c>
-      <c r="G28" t="s">
-        <v>346</v>
-      </c>
-      <c r="H28">
-        <v>522</v>
-      </c>
-      <c r="I28" t="s">
-        <v>346</v>
-      </c>
-      <c r="J28">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>293</v>
-      </c>
-      <c r="D29">
-        <v>59.96326795581331</v>
-      </c>
-      <c r="E29" t="s">
-        <v>321</v>
-      </c>
-      <c r="F29">
-        <v>60.06570901985623</v>
-      </c>
-      <c r="G29" t="s">
-        <v>347</v>
-      </c>
-      <c r="H29">
-        <v>508</v>
-      </c>
-      <c r="I29" t="s">
-        <v>347</v>
-      </c>
-      <c r="J29">
-        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -4788,22 +3256,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>350</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>353</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>354</v>
+        <v>267</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>355</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4814,19 +3282,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="D2">
         <v>360</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F2" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="H2">
         <v>7712</v>
@@ -4840,19 +3305,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="D3">
         <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F3" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G3" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="H3">
         <v>7712</v>
@@ -4866,19 +3328,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>271</v>
       </c>
       <c r="D4">
         <v>360</v>
       </c>
       <c r="E4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F4" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="H4">
         <v>7712</v>
@@ -4892,19 +3351,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="D5">
         <v>360</v>
       </c>
       <c r="E5" t="s">
-        <v>384</v>
-      </c>
-      <c r="F5" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="H5">
         <v>7712</v>
@@ -4918,19 +3374,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
       <c r="D6">
         <v>360</v>
       </c>
       <c r="E6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F6" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G6" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="H6">
         <v>7712</v>
@@ -4944,19 +3397,16 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="D7">
         <v>360</v>
       </c>
       <c r="E7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F7" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G7" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="H7">
         <v>7712</v>
@@ -4970,19 +3420,16 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>275</v>
       </c>
       <c r="D8">
         <v>360</v>
       </c>
       <c r="E8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F8" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="H8">
         <v>7712</v>
@@ -4996,19 +3443,16 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>276</v>
       </c>
       <c r="D9">
         <v>360</v>
       </c>
       <c r="E9" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="H9">
         <v>7712</v>
@@ -5022,19 +3466,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>277</v>
       </c>
       <c r="D10">
         <v>360</v>
       </c>
       <c r="E10" t="s">
-        <v>384</v>
-      </c>
-      <c r="F10" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="H10">
         <v>7712</v>
@@ -5048,19 +3489,16 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="D11">
         <v>360</v>
       </c>
       <c r="E11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F11" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="H11">
         <v>7712</v>
@@ -5074,19 +3512,16 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="D12">
         <v>360</v>
       </c>
       <c r="E12" t="s">
-        <v>384</v>
-      </c>
-      <c r="F12" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G12" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="H12">
         <v>7712</v>
@@ -5100,19 +3535,16 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>360</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F13" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="H13">
         <v>7712</v>
@@ -5126,19 +3558,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="D14">
         <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="H14">
         <v>7712</v>
@@ -5152,19 +3581,16 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="D15">
         <v>360</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="H15">
         <v>7712</v>
@@ -5178,19 +3604,16 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="D16">
         <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>384</v>
-      </c>
-      <c r="F16" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="H16">
         <v>7712</v>
@@ -5204,19 +3627,16 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>360</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
-      </c>
-      <c r="F17" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="H17">
         <v>7712</v>
@@ -5230,19 +3650,16 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="D18">
         <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>384</v>
-      </c>
-      <c r="F18" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="H18">
         <v>7712</v>
@@ -5256,19 +3673,16 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="D19">
         <v>360</v>
       </c>
       <c r="E19" t="s">
-        <v>384</v>
-      </c>
-      <c r="F19" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G19" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="H19">
         <v>7712</v>
@@ -5282,19 +3696,16 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="D20">
         <v>360</v>
       </c>
       <c r="E20" t="s">
-        <v>384</v>
-      </c>
-      <c r="F20" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="H20">
         <v>7712</v>
@@ -5308,19 +3719,16 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="D21">
         <v>360</v>
       </c>
       <c r="E21" t="s">
-        <v>384</v>
-      </c>
-      <c r="F21" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="H21">
         <v>7712</v>
@@ -5334,19 +3742,16 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="D22">
         <v>360</v>
       </c>
       <c r="E22" t="s">
-        <v>384</v>
-      </c>
-      <c r="F22" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G22" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="H22">
         <v>7712</v>
@@ -5360,19 +3765,16 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="D23">
         <v>360</v>
       </c>
       <c r="E23" t="s">
-        <v>384</v>
-      </c>
-      <c r="F23" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G23" t="s">
-        <v>407</v>
+        <v>319</v>
       </c>
       <c r="H23">
         <v>7712</v>
@@ -5386,19 +3788,16 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>378</v>
+        <v>291</v>
       </c>
       <c r="D24">
         <v>360</v>
       </c>
       <c r="E24" t="s">
-        <v>384</v>
-      </c>
-      <c r="F24" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="H24">
         <v>7712</v>
@@ -5412,19 +3811,16 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>379</v>
+        <v>292</v>
       </c>
       <c r="D25">
         <v>360</v>
       </c>
       <c r="E25" t="s">
-        <v>384</v>
-      </c>
-      <c r="F25" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G25" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="H25">
         <v>7712</v>
@@ -5438,19 +3834,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>380</v>
+        <v>293</v>
       </c>
       <c r="D26">
         <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>384</v>
-      </c>
-      <c r="F26" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="H26">
         <v>7712</v>
@@ -5464,19 +3857,16 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>381</v>
+        <v>294</v>
       </c>
       <c r="D27">
         <v>360</v>
       </c>
       <c r="E27" t="s">
-        <v>384</v>
-      </c>
-      <c r="F27" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="H27">
         <v>7712</v>
@@ -5490,19 +3880,16 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>382</v>
+        <v>295</v>
       </c>
       <c r="D28">
         <v>360</v>
       </c>
       <c r="E28" t="s">
-        <v>384</v>
-      </c>
-      <c r="F28" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="H28">
         <v>7712</v>
@@ -5516,19 +3903,16 @@
         <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>383</v>
+        <v>296</v>
       </c>
       <c r="D29">
         <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>384</v>
-      </c>
-      <c r="F29" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="H29">
         <v>7712</v>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="167">
   <si>
     <t>ID</t>
   </si>
@@ -44,93 +44,201 @@
     <t>153019_ecoil_ybeL_ins;BA000036.3:153019-153020</t>
   </si>
   <si>
+    <t>Cgl0006_1176_G_A_sub;BA000036.3:6529-6530</t>
+  </si>
+  <si>
     <t>Cgl0141_cds_del;BA000036.3:153222-155613</t>
   </si>
   <si>
     <t>Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470</t>
   </si>
   <si>
+    <t>Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378</t>
+  </si>
+  <si>
     <t>Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459</t>
   </si>
   <si>
+    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092</t>
+  </si>
+  <si>
+    <t>Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020</t>
+  </si>
+  <si>
+    <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCAC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGC</t>
+    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
+    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTG</t>
+    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
   </si>
   <si>
     <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTCTCAAAGTCCGTGCAGAAATGCGGG</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTCTCAATAAAAGTTTGGTGAAGTCTTGTT</t>
+    <t>GGTCCAGAGTTCTCATGTAAAGTTCGGACTTTTCTGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAATAAAAGTTTGGTGAAGTCTTGT</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCTCATTTCCAAAATATCATTACCCACTGG</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCTCAATCCCTTCTCCGGCATCATCGT</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTCTCACTGCAGCACACCGAGCAAAAGC</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCTCACCGGAATTTACTATCCCGGCCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCAGCAGTGGCGCACCGCTATG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCTCACCTCCAGAACGCGGTCGAGT</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATAACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
@@ -140,9 +248,21 @@
     <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACTCTGGACC</t>
   </si>
   <si>
@@ -152,13 +272,22 @@
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>plasmid</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGTT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGA</t>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACTCTGGACC</t>
@@ -167,12 +296,21 @@
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGC</t>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
   </si>
   <si>
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACTCTGGACC</t>
+  </si>
+  <si>
     <t>SEQUENCING_PRIMER_1</t>
   </si>
   <si>
@@ -191,12 +329,30 @@
     <t>SEQUENCING_PRIMER_3_TM</t>
   </si>
   <si>
+    <t>SEQUENCING_PRIMER_4</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_4_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_5</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_5_TM</t>
+  </si>
+  <si>
     <t>TGCTCACCCAGAAACGCTG</t>
   </si>
   <si>
     <t>TACCGCTCGCCGCAGCC</t>
   </si>
   <si>
+    <t>acaggatctggcgaaagagtgcg</t>
+  </si>
+  <si>
+    <t>cgcgaagtggttgagcagga</t>
+  </si>
+  <si>
     <t>TGGTCAATGTCGCGGGGG</t>
   </si>
   <si>
@@ -215,39 +371,84 @@
     <t>AGGACTCGACGAGCTCCACA</t>
   </si>
   <si>
+    <t>GCAACGGAACTATCCCTCGA</t>
+  </si>
+  <si>
     <t>GGAGCCACCACAGACCCGT</t>
   </si>
   <si>
     <t>ACCTTGGGCCTGGCGCT</t>
   </si>
   <si>
+    <t>CCACCGACGTGACGCGGA</t>
+  </si>
+  <si>
     <t>ACACCATCTACACCCGCGACA</t>
   </si>
   <si>
+    <t>GCGCGCACATTCAGGCCG</t>
+  </si>
+  <si>
+    <t>CCGTCAATGCTTGGTTCGGCC</t>
+  </si>
+  <si>
+    <t>ACAGCCCTGAACTGCCAAACCA</t>
+  </si>
+  <si>
     <t>AGAAGAATCCCCGCAGCTCTG</t>
   </si>
   <si>
+    <t>AGGCGGGCCTTTTCCACGT</t>
+  </si>
+  <si>
     <t>TGGTGAAAGATGCACGACCTGGA</t>
   </si>
   <si>
     <t>AGGTTCCACTGATTCACACCCA</t>
   </si>
   <si>
+    <t>AGCCGACCACCGCATCCC</t>
+  </si>
+  <si>
     <t>CCACGGATGGTGCCCTCA</t>
   </si>
   <si>
+    <t>TGCTGCTCGCCACCGTGA</t>
+  </si>
+  <si>
+    <t>TGTCTAGGTACTTCCGCAGCCA</t>
+  </si>
+  <si>
+    <t>ACCAAATAAATGTTAGACCCAGT</t>
+  </si>
+  <si>
     <t>AGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCT</t>
   </si>
   <si>
+    <t>GCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCC</t>
+  </si>
+  <si>
     <t>GGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCA</t>
   </si>
   <si>
     <t>ACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCT</t>
   </si>
   <si>
+    <t>CCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCT</t>
+  </si>
+  <si>
     <t>ACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACT</t>
   </si>
   <si>
+    <t>GCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCA</t>
+  </si>
+  <si>
+    <t>CCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACA</t>
+  </si>
+  <si>
+    <t>ACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGT</t>
+  </si>
+  <si>
     <t>SEQUENCE</t>
   </si>
   <si>
@@ -269,28 +470,58 @@
     <t>GTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
   </si>
   <si>
+    <t>CTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCG</t>
+  </si>
+  <si>
     <t>GTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCT</t>
   </si>
   <si>
     <t>GGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCG</t>
   </si>
   <si>
+    <t>TCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
+  </si>
+  <si>
     <t>ACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
+    <t>CTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGG</t>
+  </si>
+  <si>
+    <t>CTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTA</t>
+  </si>
+  <si>
+    <t>AAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTA</t>
+  </si>
+  <si>
     <t>NOT</t>
   </si>
   <si>
     <t>GTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
+    <t>CTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
     <t>GTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
     <t>GGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
+    <t>TCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
     <t>ACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>CTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>CTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>AAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
 </sst>
 </file>
@@ -648,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,13 +913,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>330</v>
@@ -702,16 +933,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -722,16 +953,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -742,16 +973,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>333</v>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -761,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -795,13 +1126,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>326</v>
@@ -815,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>326</v>
@@ -835,16 +1166,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -855,16 +1186,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
         <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,13 +1339,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>3681</v>
@@ -928,13 +1359,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>3681</v>
@@ -948,13 +1379,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>3681</v>
@@ -968,15 +1399,115 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F5">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
         <v>3681</v>
       </c>
     </row>
@@ -1018,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>7713</v>
@@ -1040,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1074,16 +1605,36 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1644,649 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="K3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6">
+        <v>65.15385345255226</v>
+      </c>
+      <c r="I6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6">
+        <v>63.04183328682285</v>
+      </c>
+      <c r="K6" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2">
+        <v>62.74970643811804</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2">
+        <v>62.18408991060545</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2">
+        <v>1303</v>
+      </c>
+      <c r="M2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3">
+        <v>59.54133127379924</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3">
+        <v>64.7641895140049</v>
+      </c>
+      <c r="G3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3">
+        <v>829</v>
+      </c>
+      <c r="M3" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4">
+        <v>64.1495270510103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4">
+        <v>64.26794617737897</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4">
+        <v>804</v>
+      </c>
+      <c r="M4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5">
+        <v>64.26239510560578</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5">
+        <v>61.56387211013669</v>
+      </c>
+      <c r="G5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5">
+        <v>883</v>
+      </c>
+      <c r="M5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>64.96789884238098</v>
+      </c>
+      <c r="E6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6">
+        <v>64.83200654342289</v>
+      </c>
+      <c r="G6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H6">
+        <v>2476</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6">
+        <v>65.15385345255226</v>
+      </c>
+      <c r="K6" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6">
+        <v>63.04183328682285</v>
+      </c>
+      <c r="M6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7">
+        <v>63.81048306105311</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7">
+        <v>61.71619469010028</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7">
+        <v>837</v>
+      </c>
+      <c r="M7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8">
+        <v>65.40613093626928</v>
+      </c>
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>64.63528015163649</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8">
+        <v>823</v>
+      </c>
+      <c r="M8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9">
+        <v>64.7068639825622</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9">
+        <v>63.12237729036769</v>
+      </c>
+      <c r="G9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>816</v>
+      </c>
+      <c r="M9" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10">
+        <v>64.93150880859542</v>
+      </c>
+      <c r="E10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10">
+        <v>55.81070237481293</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10">
+        <v>827</v>
+      </c>
+      <c r="M10" t="s">
+        <v>141</v>
+      </c>
+      <c r="N10">
+        <v>827</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1107,22 +2300,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1133,22 +2326,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="D2">
-        <v>60.59785390246162</v>
+        <v>673</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2">
-        <v>65.39684924843954</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="H2">
-        <v>62.40252848344147</v>
+        <v>12429</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1159,16 +2349,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="D3">
-        <v>60.59785390246162</v>
+        <v>673</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="H3">
-        <v>62.40252848344147</v>
+        <v>11947</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1179,22 +2372,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D4">
-        <v>60.59785390246162</v>
+        <v>673</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4">
-        <v>65.39684924843954</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="H4">
-        <v>62.40252848344147</v>
+        <v>11946</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1205,326 +2395,134 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5">
-        <v>60.59785390246162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5">
-        <v>65.39684924843954</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5">
-        <v>62.40252848344147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2">
-        <v>62.74970643811804</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2">
-        <v>62.18408991060545</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2">
-        <v>1303</v>
-      </c>
-      <c r="I2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>64.1495270510103</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>64.26794617737897</v>
-      </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3">
-        <v>804</v>
-      </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4">
-        <v>64.26239510560578</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>61.56387211013669</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4">
-        <v>883</v>
-      </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>63.81048306105311</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5">
-        <v>61.71619469010028</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5">
-        <v>837</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5">
-        <v>837</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2">
-        <v>673</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2">
-        <v>12429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3">
-        <v>673</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3">
-        <v>11946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4">
-        <v>673</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4">
-        <v>12010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="D5">
         <v>673</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="H5">
+        <v>12010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6">
+        <v>673</v>
+      </c>
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6">
+        <v>13596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7">
+        <v>673</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H7">
         <v>11961</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8">
+        <v>673</v>
+      </c>
+      <c r="E8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8">
+        <v>11946</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9">
+        <v>673</v>
+      </c>
+      <c r="E9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H9">
+        <v>11949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10">
+        <v>673</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10">
+        <v>11949</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
+++ b/output/only_primer/one_plasmid_system_result/one_plasmid_design_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -68,247 +68,247 @@
     <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCAAAGTCCGTGCAGAAATGCGGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCATGTAAAGTTCGGACTTTTCTGGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCAATAAAAGTTTGGTGAAGTCTTGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCATTTCCAAAATATCATTACCCACTGG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCAATCCCTTCTCCGGCATCATCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCACTGCAGCACACCGAGCAAAAGC</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCACCGGAATTTACTATCCCGGCCGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCAGCAGTGGCGCACCGCTATG</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTCACCTCCAGAACGCGGTCGAGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACTCTGGACC</t>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCGC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTTTTGGCACGACTTGATGTGAGCC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCTTCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAATAA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATAGCCAGTGGAACCCGCGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGAAGCCATAGAAGCCTGCAT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAAAGAACTGTACTAAATCCTGCCAGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCACCTGTGAGTTTTCCAATGCCTTCGC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATCGACCTCTCCCGACTGATCACC</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGTCAATTGCTGATCTACATACCA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCATATCGATCTTGATGCTATTGCGGA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCAGCACAACGGCGGGCCGAGAA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTCACTCTACGGAGCGTGTGCGCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGA</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCGGTGTGTTAATCCGCCAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACAGAAGACC</t>
   </si>
   <si>
     <t>plasmid</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
-  </si>
-  <si>
-    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACTCTGGACC</t>
+    <t>CCAGAAGACAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTAGGATCTTACCGCTGTTGAGATCCA</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAATATTACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCTTCTGTTttaaccgcgccacgctttatagc</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACAGAAGACC</t>
+  </si>
+  <si>
+    <t>CCAGAAGACAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACAGAAGACC</t>
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1</t>
@@ -341,16 +341,94 @@
     <t>SEQUENCING_PRIMER_5_TM</t>
   </si>
   <si>
+    <t>SEQUENCING_PRIMER_6</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_6_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_7</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_7_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_8</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_8_TM</t>
+  </si>
+  <si>
     <t>TGCTCACCCAGAAACGCTG</t>
   </si>
   <si>
     <t>TACCGCTCGCCGCAGCC</t>
   </si>
   <si>
-    <t>acaggatctggcgaaagagtgcg</t>
-  </si>
-  <si>
-    <t>cgcgaagtggttgagcagga</t>
+    <t>AGCATCTCCGAGCGCAACT</t>
+  </si>
+  <si>
+    <t>ACCACCGAGTTTGATTTCGAAACG</t>
+  </si>
+  <si>
+    <t>GCAGCCGCCGACATCGC</t>
+  </si>
+  <si>
+    <t>GCCTGTTGTTGGGCGCGA</t>
+  </si>
+  <si>
+    <t>CCCAGCAGCGCCCACGA</t>
+  </si>
+  <si>
+    <t>ACGTTGCAGTGGAGCAGCT</t>
+  </si>
+  <si>
+    <t>TGGTCGCACCCTTCTTATCGA</t>
+  </si>
+  <si>
+    <t>CGGCATAAAACGCTCAGTGGTGG</t>
+  </si>
+  <si>
+    <t>ACCGTGGTCAATGTGGGCA</t>
+  </si>
+  <si>
+    <t>CACTGAGCGAACGCCTGCG</t>
+  </si>
+  <si>
+    <t>TGCGCTACCACAAGATCGTGCT</t>
+  </si>
+  <si>
+    <t>ACTGGCATTAATCTCGGCTTCGCA</t>
+  </si>
+  <si>
+    <t>GGCACGCCGATTCCTTGGAC</t>
+  </si>
+  <si>
+    <t>cctggcaggcactacagaaacact</t>
+  </si>
+  <si>
+    <t>CCGGATCGCTTTGAGGGTCGT</t>
+  </si>
+  <si>
+    <t>TCCCTGATTATGCTGCTGC</t>
+  </si>
+  <si>
+    <t>CCGACCATGAGCTTTTTCATCGCC</t>
+  </si>
+  <si>
+    <t>CGGACAGGACCTTGGGTTCGT</t>
+  </si>
+  <si>
+    <t>TCACTGCGTACAAAGAGGGCCT</t>
+  </si>
+  <si>
+    <t>gcccatagcgcgcgtg</t>
+  </si>
+  <si>
+    <t>acccgctctctgatcatcacca</t>
+  </si>
+  <si>
+    <t>CCCGGTGTTGGGCGACTGT</t>
   </si>
   <si>
     <t>TGGTCAATGTCGCGGGGG</t>
@@ -368,85 +446,85 @@
     <t>WT_SEQUENCING_TARGET_SIZE</t>
   </si>
   <si>
-    <t>AGGACTCGACGAGCTCCACA</t>
-  </si>
-  <si>
-    <t>GCAACGGAACTATCCCTCGA</t>
-  </si>
-  <si>
-    <t>GGAGCCACCACAGACCCGT</t>
-  </si>
-  <si>
-    <t>ACCTTGGGCCTGGCGCT</t>
-  </si>
-  <si>
-    <t>CCACCGACGTGACGCGGA</t>
-  </si>
-  <si>
-    <t>ACACCATCTACACCCGCGACA</t>
-  </si>
-  <si>
-    <t>GCGCGCACATTCAGGCCG</t>
-  </si>
-  <si>
-    <t>CCGTCAATGCTTGGTTCGGCC</t>
-  </si>
-  <si>
-    <t>ACAGCCCTGAACTGCCAAACCA</t>
-  </si>
-  <si>
-    <t>AGAAGAATCCCCGCAGCTCTG</t>
-  </si>
-  <si>
-    <t>AGGCGGGCCTTTTCCACGT</t>
-  </si>
-  <si>
-    <t>TGGTGAAAGATGCACGACCTGGA</t>
-  </si>
-  <si>
-    <t>AGGTTCCACTGATTCACACCCA</t>
-  </si>
-  <si>
-    <t>AGCCGACCACCGCATCCC</t>
-  </si>
-  <si>
-    <t>CCACGGATGGTGCCCTCA</t>
-  </si>
-  <si>
-    <t>TGCTGCTCGCCACCGTGA</t>
-  </si>
-  <si>
-    <t>TGTCTAGGTACTTCCGCAGCCA</t>
-  </si>
-  <si>
-    <t>ACCAAATAAATGTTAGACCCAGT</t>
-  </si>
-  <si>
-    <t>AGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCT</t>
-  </si>
-  <si>
-    <t>GCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCC</t>
-  </si>
-  <si>
-    <t>GGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCA</t>
-  </si>
-  <si>
-    <t>ACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCT</t>
-  </si>
-  <si>
-    <t>CCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCT</t>
-  </si>
-  <si>
-    <t>ACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACT</t>
-  </si>
-  <si>
-    <t>GCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCA</t>
-  </si>
-  <si>
-    <t>CCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACA</t>
-  </si>
-  <si>
-    <t>ACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGT</t>
+    <t>TGCTCCGGTGCAGGCGC</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGA</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGG</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGA</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCC</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCA</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCA</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGA</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTG</t>
+  </si>
+  <si>
+    <t>GGCACCTGCGTCGGTTGG</t>
+  </si>
+  <si>
+    <t>GCCAAGAAACCGGCCAGGA</t>
+  </si>
+  <si>
+    <t>TGGTACGTGGCTACCGGCG</t>
+  </si>
+  <si>
+    <t>TGTGTTCATGCTGGCTGGTGA</t>
+  </si>
+  <si>
+    <t>GCCTCGCCATCGTCACAGGT</t>
+  </si>
+  <si>
+    <t>GCCAGAAGCTCGCGTGGGA</t>
+  </si>
+  <si>
+    <t>GGTGTAGGGGTCGCAGGTTCA</t>
+  </si>
+  <si>
+    <t>AGCAGTTGGAGCGCGATGC</t>
+  </si>
+  <si>
+    <t>GCTCCGTTGATGCCAGCGC</t>
+  </si>
+  <si>
+    <t>TGCTCCGGTGCAGGCGCCCTGGCTGCGAGTCTCATTGACAAACAAATCATGCGACCGCTGATCATCGTGTTGATGCTGGTCGTTGGCCTGATCGTGGTGTTCAAACCAAACTTCGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTAAAAGGTATTCTCCATTGTCTATTTTTCGGCCGATGAGCTGCGGGAATGCAGCGCCTACGATTTGCCCCGCACTCGCTTTTCCAACCGACGCAGGTGCC</t>
+  </si>
+  <si>
+    <t>GGGACCTAAGCGTGTAAGATGGAAACGTCTGTATCGGATAAGTAGCGAGGAGTGTTCGTTAAAAGTGGCAAACACTGAACACAATTATGACGCTTCATCGATCACCATCCTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCAAGTTGGCCAATACGTGGGGTTGATTTTTTAAAACCAGACTGGCGTGCCCAAGAGCTGAACTTTCGCTAGTCATGGGCATTCCTGGCCGGTTTCTTGGCCTTCAAACCGGACAGGA</t>
+  </si>
+  <si>
+    <t>ACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTAGTATTTCGGCAGTTCGTGCGGGGTCTGTAGGTCCAATTTGGTTGTATTCGTGGAAAAGTAACGCTGTTTTTTGTGCCACTTCTTCACGTTCCGCGCCGGTAGCCACGT</t>
+  </si>
+  <si>
+    <t>TGGTGGCCGCGGTTGGAGCGAAACTGCTCAAAGTAAATCACCGGGAAGATGCTCGAAAAGAAGGCATGATCACCGCACCGCTGGTGTGGAAGGGTGTGCAGCTCAAACCTGGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGCCAAGGGCGCTGCAGCAGTGTATGCCAATGACGTTTTCGTCCCAGTGGATTACTCTCTGGAAACCGCACAACACCTGCCCGGTGTGCAGCTGTTTATCACCAGCCAGCATGAACACA</t>
+  </si>
+  <si>
+    <t>GCCTTGTCGCAAAGTAACCGCCTCTAATAACGAAGAGTGTTGCAACCGCAAAAAGCACAAAGATTGTTCGGAAGCTGCCTGTCGCATCGACAATGAAACCAGTCAACAAGGGACCGAAACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGAGGTGGTACAGCTTTTGTTGCAGGGCTTTGAGTTCGGGCAAGTCGGCGAGCGTGGCAAACGCGATGGATATGCGGGAGACCTGCGCTTTTGTTAGACCTGTGACGATGGCGAGGC</t>
+  </si>
+  <si>
+    <t>GCCTGGAAGATCGTGGCCCAGAGTCATGGGAAGAGTTCTCCGAGTGGGGTCCAAAGCTGCAGGAAGCGATGGACAGTGGTTTCGCACACGGTTGGGGAGATGCAACCAACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACGCCACGTTTAGTGCTTTCCACGAGGGCAAGATCGCGCCCACATTTTTTAGCGGGATGTAATCAAGAATGCGCAGATCATCCATGGACGCATCGCGCAAGATTCCCACGCGAGCTTCTGGC</t>
+  </si>
+  <si>
+    <t>TCGCTGGCATGGCAGTCATGGCGATCAGCCTGCTGCTGTTTATCTAGCGTTCAGCCGCAACAAGCATCCGGTCAATGTTGGTCAACACCTCATCAACATAGGCCGGATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATCAATGGTGAGTTTCATGTTTTATCCAGCCTGACAAATAGAGAAAACCTAGGGGAGAAAATACATCCTCACCTAGGCTAATTGTCGGACTAACAGGATTTGAACCTGCGACCCCTACACC</t>
+  </si>
+  <si>
+    <t>ACCAGCGTTAGTTGTCATGACGATATAGGTATTAAGAAAACTCACCTCACGGTTGTAATCGTCAGATAGTCGGCCATCATCAAGTACCTGCAGTAACAACCGCGCAATAGCTCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGCAGCAGCTTTCCCTGACTGCTCCGCTACAAATTCTTGAGCCTTACGCTTACGCTCAATCTCTTTATCGCGCTCAGCTTGGGTTCGCTTGCGTTGTGCATCGCGCTCC</t>
+  </si>
+  <si>
+    <t>ACCACGCCGCGGTAGGTGTCATAGACAGAGTCGAAAATCATCGCACGAGCTGGGGCGTCTTCCTCAAATTCAGAGGTAGGTGCTGGGATAAGTTCAACGACCTTATCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGACAATGAGGCACACAGCAGAGAAGGTAACAAAGGTCTGCACTAAAATCGCCACGATGATAGAGAACGCCAGCACCGGTGATGGGTGCGCTGGCATCAACGGAGC</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -467,61 +545,61 @@
     <t>PLASMID SEQUENCE SIZE(bp)</t>
   </si>
   <si>
-    <t>GTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
-  </si>
-  <si>
-    <t>CTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCG</t>
-  </si>
-  <si>
-    <t>GTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCT</t>
-  </si>
-  <si>
-    <t>GGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCG</t>
-  </si>
-  <si>
-    <t>TCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
-  </si>
-  <si>
-    <t>ACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAG</t>
-  </si>
-  <si>
-    <t>CTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGG</t>
-  </si>
-  <si>
-    <t>CTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTA</t>
-  </si>
-  <si>
-    <t>AAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTA</t>
+    <t>CGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
+  </si>
+  <si>
+    <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCG</t>
+  </si>
+  <si>
+    <t>GTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCT</t>
+  </si>
+  <si>
+    <t>GGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCG</t>
+  </si>
+  <si>
+    <t>ACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
+  </si>
+  <si>
+    <t>ACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAG</t>
+  </si>
+  <si>
+    <t>ATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGG</t>
+  </si>
+  <si>
+    <t>TCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTA</t>
+  </si>
+  <si>
+    <t>TCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTA</t>
   </si>
   <si>
     <t>NOT</t>
   </si>
   <si>
-    <t>GTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>CTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>GTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>GGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>TCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>ACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>CTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>CTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
-  </si>
-  <si>
-    <t>AAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+    <t>CGGAACCGGCGAAAGCAAAGCCCTGCCCACCGGATGGAAACGCTGGGCCGCCATCGTTGCAGTCGGACTCATCGCAGCCTACGACGGCATCTTCGGACCCGGAACCGGCATGTTCCTCATCATGGCGTTCACCGCACTGCTCTCCCAAAATTTCCTGTCCTCCGCAGCCATGGCGAAGGTCGTAAACACCGCAACAAACCTGGGTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCTAATCCGAAGCATTCTTGTAATTTCACTCGTATAACTGGCCTGCCTGATGAATAATCTAGTCGGTGCTGATTCCCGCTGGGTACGGATAGGTGGGAAGGAGCGAATTCTTCAAAGTTGGTTGCTTCAGGCCAGGGGAGAAGTCGCTGGAGTGCGGGATACATATCGATATTGTTTAGTCGTGTTCCGTGGCTGAGCGCCTCAATTTCTGGAGATAACCACAGGTGCGGGTCCGCAGTTTCAATATCTGGCCAGGGTTCGCCACGGTGTTCGTGGATGAATTTCAGTCGGTCACGCAAGGATGCCGCTTTGTCGGAGAAGTGGAATAGGTCGATTCCGCCTTTGGCAAGGGCTGTGGCGATTGTTTCCGAGGCTTCGGCGGGTGTTGGTTTTGTCGGAGTGGAACTTAATTCGATCGCGCCTGCTGCTTTGACCTTCCGGGCTTGGACTTTTCCGTTGACAAAAATCGCGCGGGTTTCTTCCACGACTCCGATGATGTCTATGGCATCGTCCTCTGAAATGCGGGCGGCGGCGCGGATGATGGCAGAATTTTGTGAGCGGTTAATTGCAGCAACGGAGATCCATTCGGCATCTTTGAGATCTGAATCCATGAGGCGTGCGCGGGTTCCACTGGCTATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>CTTGAAGGTCTTGAGGCGGTACGTAAGCGCCCGGGCATGTACATCGGTTCAACTGGACCGCGTGGACTGCACCACCTGATTTGGGAAGTCGTTGACAACTCAGTGGATGAGGCCATGGCTGGCCACGCCACCAAGGTTGAAGTGACCCTTCTGGAAGATGGTGGCGTTCAAGTTGTCGATGACGGTCGAGGAATTCCCGTCGATATGCACCCATCCGGTGCACCAACCGTGCAGGTTGTTATGACCCAGCTGCACGCCGGCGGTAAGTTTGACTCCGATTCTTACGCCGTTTCCGGTGGTCTGCATGGTGTTGGTATTTCTGTGGTGAACGCCCTGTCCACCCGCGTGGAAGCCGACATCAAGTTGCACGGCAAGCACTGGTACCAAAACTTTGAAAAGTCTGTTCCAGACGAGTTGATCGAAGGCGGCAACGCTCGCGGCACCGGTACCACCATTCGTTTTTGGCCAGACGCTGAAATTTTCGAAACCACCGAGTTTGATTTCGAAACGATTTCTCGACGTCTGCAGGAAATGGCATTCCTTAACAAGGGTCTGACCATCACCTTGACGGACAACCGCGCCACCGACGAGGAACTCGAGCTCGAAGCACTCGCTGAGCAGGGCGAAACCGCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCCTAGACAAGGTTCTGAAGAACGCCGAAGTCCAAGCGATCATCACCGCACTGGGTACCGGCATCCACGACGAGTTCGACATCAACAAGCTGCGCTACCACAAGATCGTGCTGATGGCCGACGCCGATGTTGACGGCCAGCACATCGCAACGCTGCTGCTCACCCTGCTTTTCCGCTTCATGCCAGACCTCGTCGCCGAAGGCCACGTCTACTTGGCACAGCCACCTTTGTACAAACTGAAGTGGCAGCGCGGAGAGCCAGGATTCGCATACTCCGATGAGGAGCGCGATGAGCAGCTCAACGAAGGCCTTGCCGCTGGACGCAAGATCAACAAGGACGACGGCATCCAGCGCTACAAGGGTCTCGGCGAGATGAACGCCAGCGAGCTGTGGGAAACCACCATGGACCCAACTGTTCGTATTCTGCGCCGCGTGGACATCACCGATGCTCAGCGTGCTGATGAACTGTTCTCCATCTTGATGGGTGACGACGTTGTGGCTCGCCGCAGCTTCATCACCCGAAATGCCAAGGATGTTCGTTTCCTCGATATCTAAAGCGCCTTACTTAACCCGCCCCTGGAATTCTGGGGGCGGGTTTTGTGATTTTTAGGGTCAGCACTTTATAAATGCAGGCTTCTATGGCTTCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>GTGCGCTAATTGTATTCATCATCGGCGGCCACATGTGGTGGACCCTAGGACTCGTGCTGGCAGTCGCCAATGTCGCAGGCGCACAACTCGGTGCCCGAACGGTGCTTGGTGGCGGTACCAGGCTAATTAGATACGCACTACTAACCCTGGTTGTCGTCATGAGCGTCTACCTCACCTGGCAACAAATCCAAGGAATGTAGATAAGTCGGGGCAAACTCTAAGAAATCATCCTGGTTTGTGGCAGGGAACATTCCTAGGATGGGAGGCATGGCAAAGACAAAACTAGAAAGCATCTCCGAGCGCAACTCGGATGATCCGCTTAGTTACCCCGACCTGACTCTTGCACCAATATCCACAACAGTCACAGTCGTGGTCGCCGAAGACACCCCAAACGATAACTTCTCAGAACTTCTCCTCGGCGCAGCAGAATCAACCCGTCTTTTAGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATCAAAACAAAAGACCAGGTGGACTCCCACAGCACTGATTTCTCTCGGTTGTATCGTTGTCGCTATTTTAGCTTTAGTAGTTTTCCATGGTTCTTCCAGGTCGTGCATCTTTCACCAAGTAATTTGCCCTTTGATTCTGGGAATTTCTGGAGCAATTGCAGGAATCGTCGCAAAGAAACCACTGCTGACTGGCATTAATCTCGGCTTCGCATTCTTCTTAGTGCCTGCGTATTTAATATTTTTCGGCAATATTTTCTGACAGCCTAGGTGATTTTGTAGGAAGAATCCCCAACGCATCCACGGAAGCACCTTCTGGCAGCTGCGAACGTTCGAGCCGGCTATCATCACGTTTCCGCACTACTCGCGCAGGGTTGCCCACAGCAATAGAATCATCCGGAATATCCTTGGTCACCACGGCCCCCGCGCCAATCACACACCTATCGCCAATGCTCACGCCACCAACGACGGTGACATTTCCACCCAGCCACGTATCCTCGCCAATGGAAATGGGTGCGCCATTTTCCCACCCACCGGAGCGCATTTCCCAGTCATCGACCGGGTGACCTGCGGTGAAGAGCTGACAGTTTGGCCCGAGCATGCTGCGTGCCCCGATGCGAACCGGTGCGATATCTAAAATGGTGAGGCCAAAGTTGATGAACACATGCTCGCCGATCGTGGTGTTGAAGCCGTATTCAATGATGGCTGGCGCTTTGATCGTGCAGGTTCCGCTGGCAGGATTTAGTACAGTTCTTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>GGAATCACAGGCAGGGTGGGAGATCTTCCACGCCTTGCAGGTGAAAGTATCATCGCAACCCGCATTGTGGATGATCCACATACACACCGCCTCGCGGATCCAGATCTGCCGATTACTGAAGGCATGGAACTGTTGATCAACGGCACTGAAGAAGCCGTGGATCGGGCAATTAAGGCGTTGGGTGAAGAACGCGAAACCAAAATTGAGGACACAGAGCTGATCTACACCCGCCTGACGGTATCTAGCCCTGAGGTTGCAGGTAGAACCGTTGCTGAGCTTGATACTGTAGCTCACGGATTCATGATTGCCCGTATCCGCCAGGGCGATTCTGAGGTAGTGCCTAAACCTGACACCGTGATCAACTACTCTGACCGCATCCGCGTGGTGGTTGCTCCTGGTCGTGTGGCTGAAGTGCGACGATTCTTAGGGGACTCTGAAAAGTCCCTTGCTGATGTTAATCTGCTGCCTTTAGCCATCGGATTATCTCTTGGCCTGTTGTTGGGCGCGATCCCGATTCCTCTTCCAGGCGGCACCACGATGTCCCTTGGCTTTGGTGGCGGCCCGATTATTGCCGGCCTGATTTTGGGAGCACTCAAGCACACAGGACCGCTGACGTGGCAGATGCCGTTCCACGCCAACCGCACGATCTCCACCTTGGGCCTGGCGCTGTTTTTGGCTGGTGTGGGTACCTCTGCAGGTGCAGGATTTAGAGCTGCGCTTACCGATTCCTCCTCCTTGATCTACATGGCCGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACCCACAGCAGAAGTAGTGGAGTACTTATCCCACCTGCGCGCAGATGGCATTGTGCGAGATGCTGAAGCCCTGCGTAAGCATTTGGGTGTGAATCAGTGGAACCTTTTAGGCCAGTCCTTCGGAGGTTTCACCACCCTGCATTACTTGTCCCGGCACGCCGATTCCTTGGACAACGTGTTTATTACCGGCGGTCTCAGCGCTATTGATCGCCCAGCAGAAGACGTGTATGCCAACTGTTACAACCGCATGCGCCGAAACTCTGAGGAATTCTACCGTCGCTTCCCGCAATTACGGGAAACTTTCCGAGGGTTGGTTAATCGTGCTCGCGCCGGGGAGATTGTGCTTCCCACCGGCGAAGTTGTGTCAGAAACCAGGCTGCGATCCCTTGGTCACTTGTTGGGTAGCAATGACGGCTGGTTTGATCTGTACAACCTGCTGGAATTAGATCCCACCTCCAACGCTTTTGTCCATGACCTGGCAGGACTTTTGCCTTTCGGCAACCGCAACCCAATTTATTACGTGCTCCATGAGTCCTCTTACGCCGACGGTGTGGTGACAAATTGGGCAGCAGAGCGTGTGCTTCCAGAGGATTTCCGCGAGGATCCAACACTGCTCACCGGTGAGCACGTGTTCCAGGAGTGGACAGACACCGTGCCGTCGCTCAAGCCGTGGAAGGACGTTGCCCTGGCATTGGCTCAGCAGGAATGGCCCAAGCTTTATGATGCGAAGGCATTGGAAAACTCACAGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTGGCGGATTAACACACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>ACACGCAATCGTATAACCCAAACCCTGCCCGAAGGAACTCAACGCAGAAGCACCAGCACTAGTTTCAGCACGAATATTAATGAGCGTCAACGCCATCGGGAACGCAAGGGGACCAAGACCAGACAACGTCGCCCACAACCACGGCGCAACATCCGGAGCCAAACAAAACCCACCATTACCGATGAGAAACATGACACTGGCGATAACAACCATCGGGAAGCAGTTAGTGAAACGCGTCACCAACCACGGTCCCAGAATGTTCAGCGGCAATCCCAAAATTGACCACCAGCCTAACAACACCGCACCGAGCTGAGGATCACCTACCATCTGCGGCATAAAACCCATGAGGATATACGTCGCAAACGAAGTAAACCCAAACATCAACCCGAGCCCCACACCAACCGAAGACTTCCACACAGGAAGAGAAACCTTCGACGGCGCCGCAACAACCCTGGCACCCTGCAAACTCAACAGCGGAATCCACGAAATCGCCGCAACCAACCCCAGCAGCGCCCACGAACCGAGCGACACCCTCCAACCGGTCAACCCCACATGTGTAGCCCACTGAGAAATCGGCACGGCAAGCGTCGGAGCAAGTGCCTGAACAATCTGGAACGACACCAGATAAGTTGTCGACATTCCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCTTGGGTTTTGAGCGCTGGGACTGAACAGCCAGGGAATCGGCAGGTGCCATCACGACCAATGAGTGCGTCACGCAACGCTGGTGGAGGATCGTGTTTGTCGGTGCTGATTTTGGCAGCCGCATCCATGTCTTGTTCTTTGTTGGCTTTCTCTGACCAGAATGTTCCAGTCTTGGCATCCAACCAGCCGATTCCGCTGGCCCACACTGGGGCGTTGGCGAGGTCTTTGGCGGTGTACAAGTTGAGGACTACCTTGACTTGGATATTGTTCCGAAGGATGTCGCTGAAAGCTTCGCCGTAGGTGAGGTCGTTTTTCTTCGCGTGTTGGGTGACGGCGTCGTTGATGATGTGCCCGTCCACAGCATCGACGGAGGCTCCGATTTCGGCGGTTCCGTCTGGGGAGAAGGTCACTCCGAAAGAGCTGTCGTCTTGGGTACCGCGCGAACCGGTGGCTCTTGCGTCGTCAAGCAAATCTCTTATTTCTTTTATCTTGCGTCCTATGGACGCCGGGCTTGGCAGAATCTGGTTGGGGCTGGTGGCGGTGAGGTATTCGGTGAGGATTGCGTCGGCGCCGGCGAGGTTGTCGGGGTTGATGCCGGCGAGTTCGTTGCTAATGGTGATCAGTCGGGAGAGGTCGATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>ACTACCTTTCTTGGACTTTCGAAGGCCCAATGTGGTCCCTCGGCGGCAACTACTCTGAAGGTTGGGAGTCCCGTCTGACTACCCCAGAGACCATCCGTGCAGTTGAGTGGCTCAAGTCCACCGTTGATGAAGGTTTCGCAACCGTCTCCACCGACGTCACCAACGAGTTCGCAACCGGCCTGATCGGTTCATGCATCCAGTCCACCGGTGATCTGTCTTCGGTTGCCGGCGCTGCAAGCTTCGACTGGGGCGTAGCAGCACTTCCTAACCCAACCGGCGAGGGCGCTTGCCCAACCGGTGGCGCAGGCCTGGGAATCCCATCTGGCATCTCTGAGCAGCGTCAGGACAACGCCCTGAAGTTCATCGACTTCCTCACCAACGCCGCGAACACTGGCTACTGGTCCCGCGAGACCGGTTATGTTCCAGTTCGTAAGGATGCTGCATCTGATCCAGATCACGCAGCATTCCTCGAGGAGAACCCTGCATACAACGTTGCAGTGGAGCAGCTTCCTGATACCCGTTCCCAGGACAACTTCCGCGTGCTGCTGCCAAACGGTGACCGCACCATCGGTGACGCACTGGAGAAGATCTGCCTGACTGGTGCAGACATCGATGTCACCCTGGCTGAGGTTGAGACCAAGCTGAACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACTTTGGGTACTGGAATTCAGATTTCAGTTCCTGATGAGGTGGCAGCAGAGGTTCGCAACAACCCGGATCGCTTTGAGGGTCGTCCAGTCATTGTTGGTGCTCGTCCCGAGCACATGTATTTGACCACGGCGAATGAGAGTGGTGCTGTATTGGGCGAAGTCAGCCACATTGATGAGCTCGGCGCGGATTCAATGGTCTACGTATTGGCGTCTGGTGTGAAGAACCCGAATACTGATCTTTTGGGTGAGGGCATTCCAGAGGATATGCGCGTGACCGTTGTCGGTGCTGAAGAGACCGATAAGGCCCGGCTGGGTATTCGTGTTGAGCGCCATCACGGTCTGAAGGCCGGCGATAAGGTGCACGTTGTTGCTGCACCGAAGGATGTTCACCTCTTCGACGGTCTTGATGGCCGTCGAATCGGTGCAACGGTTCTAGCTCCAGCCCATACAGTCCAGGCTGGTCACTAGATTATTTACCAGTGCAACTCCCCAGCAGGGGAGGGCGCGAGGAAACGAGAGGGATCGCTAACAGTGGCGTAATCAACGCCAGCTTGTTGTGCGATCCCAAACGCATTTTCATCCCGAATTGTCCAGCAGCCAACCTTGATTCCCTTGGTATGTAGATCAGCAATTGACTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>ATTAACGCCGCGCTCCCGCCGCGCCTTCAACAGCTCCTCCTGGGCCGCCTTAATTGCCCCGACACGCGCATGATGCGCGCGCTGATGCAGCTTATCGACGTTCTCCTGCAGTTCATCAGCGTCAATTTCTTGCGAGAACCAATTCTTGATCGCCACCATCTGCTCCATCGGCAACTCCGTGGTATCCACCAAATACGTTGTTGCGGCCTTGTGAGCCCTCTCTGTCAGCGCGGCGATACTCTCATCGCCCGCAGCATCGGGACCCTTATCCAAGCTGAGCTTCCGCATCAGCCACGGCAACGTCAAACCAGGGCCCACCATGGTGATTAAGAGAACGACCAGCGCAATGACCTGCAACTCGTGGTGATACGGGAAAATATCCTCCGGAATAGACAGCACCAGCGCCAACGTCACCAAACCGCGCATGCCCGCCCACGTCATCAGCAACGATTCCTGCAGTCGAAGAGGCGCCCGCAATGAACTATTGGTCGCACCCTTCTTATCGATCTTGAAACGATTGCGCTTATACGCCGCGAACATCCACACACCACGGACAACGATCGCCACCACCGAGAGCACAATGCCCACGACCACGGCATGCCACAGCTCAGATCCAACTTCATCAATCGCAGCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCAGCAATGTAATGAGCATGAACAATATCGTCATGAATAAGGTCTCTTCGGGTCAGGTCTGTCAGGTTTGTCAGTTTTTCAGTAAACAGTTCCTATTTTTCCCTGATTATGCTGCTGCATGGGAGAGCGCACACCAATTGAAAGCAACTTCACAGGAAGTGTTCAGTTGTGAGTTTTTGGGGTGTCGTGTGGCGCCCGTTTAAGGGGTCGAATTTCTGCAATGGGTTCGAGTGTGGGTGCGCTCTGTTCAGGCATTTGTAGGCGATTCTGGAGCGTCGATTTTTTCGGGTTCGGGGTGGCATTTTTAGACGAGTGGAGCCATGTGTCCGTTTGAGACCAAGGAACGAGTTTCGCCCTGTCTGTTTGGTTTAATACGCACGTTTTGACGCGCAAGAACTGCAGATCGAGACCAAAGAGAGGTAGATTTTTGAGGTCTTTGGTCTCGATCTGCAGTCTTTGATTTTGCCCTAGCCAGATCTACTTTTCAGCCGTGATCTTGATGGTTCCTACCTCTGCGTCATAGGTTGAGTTCATCAACGCATGTTCCGCCTCGGCCGAAAGATCCATTTGGGATAGCGCACCTGCCCAATATCTTAAAATCCGTCCCGCTTCACCGGCAGGATCATCCGCAATAGCATCAAGATCGATATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>TCGATCAGCTTTCTCAACCTCATCGAGCAGGACAATAGCGTTACCCTGGTCAGCGACACGACGAGTGAGCTCAGACCTGAAAAGGTCAAGACTTGATTCTAAGGCGAACTCTGACATGTCAAAACGAATCAATCGCCCAGTGTCATCACCAAAGAGCACCCGTGCTAGTTGCTTGACCAGCTCTGTTTTACCGACACCAGTAGGCCCGGTGAACAAGAAGTTCGACAGTGGCCGTGATTTATCATGAAGATCCGCCACCACCAGCTGCAAACGACGTGCTACCACAGTGGTGGCAAGACTTTGCGCCATTACCTTCTCATCAAGCTTGTCTTTAATGCTCGTACCATCGACCTTGAATGCAATATCGACACCAATAGCATCGTGGAGCACATCACCGAGCAGATCCATATCCATCGGCTTGCCGGAAAGTCGATGCCAACCAACCATCGCATCAAGGACACGAATGGATTTACGAGGCTGGACAGAACTCGGCATAAAACGCTCAGTGGTGGAGTAAATCTGCTCAAAAACGTGGTCGTCATAGAACTGATCACTTACGCCATAACGATCTGCCATACCACGCAAAATCGCCACAGTGGTCTTCTGATCGGTCGGCGTTAGTCGAATTTCCTGCAAACGCTCCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACATAGACCAATAAGCACACCGATAAAACCACCGAGCATAAGCCCTAAAGCTGGCCCACCCACGATGAGTATGCACAAGCCAATAAACAACCCGACCATGAGCTTTTTCATCGCCTCAAAGGAATACACCCGCTTCATCACCCAGACGTAAGGCTGCGACTCATCTGGCTGATAATGCAAAAACTTCGTCGTGTCACCGCCCATGCCATCTGCACCATCACCGAAATTCACCAACATCACCTCGGCCTCAATCTGATGAATACCTGCCGGCACACCCAATAGCGACGCTGCATCATCAAGGGTAACTAGTTCAGTGTTGTTAAGACCAAGACTATGAAACTGTGCTTCAAGCTCTGCAATTTTTCGATCATCCTGCGATTTAGACATCGCGGACACCCGCTGCCATATCAACGTGCACAACGCTGTCGTCATCTCTACAGCCAGCTATACTGCGGGTTTTCTCCGCATACGCCAACACATCGTCCACAGCGGAATTATCAACGGCACCAACTTTGCGCCCTTGTGCTTTCTTCGCACGCTGCTTGTCCCGCTTACAGTGAGTTTTCTGCTCCTGAGCAGCCTGTTTCTGCGCCACCAGTTCATCTACACGCGCTTGCTTCGCAGCCTTTTTCTCGGCCCGCCGTTGTGCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>TCCAGAAGCTCAGGGACACCCATGCCAGTTTTACCGGACACGCGCAACACATCTTCAGGTTCACAACCCACAATGTTGGCGATCTCCAACGCGTACTTGTCTGGATCCGCCGCTGGAAGGTCAATCTTGTTCAGCACAGGGATGATCTCAAGATCGTTTTCCATAGCCAAGTACAAGTTTGCCAAGGTCTGGGCTTCAATGCCCTGCGCTGCATCAACAAGCAAAATCGCGCCTTCACACGCTTCAAGCGCCCGAGACACTTCATAGGTGAAGTCCACGTGGCCTGGCGTATCGATCATCTGCATGACGATCTGCTGGCCCTCGTACTCACCACTGCGAGGAATCCATGGCAGGCGAACGTTCTGAGCCTTAATGGTAATGCCACGTTCACGTTCGATGTCCATGTTGTCCAGGTACTGATCACGCATATCGCGGGCATCCACAACGTTAGACAGCTGCAGGATACGGTCAGCGAGCGTAGATTTACCGTGGTCAATGTGGGCAATGATGCAGAAGTTACGAATCCTGGCTGGATCCGTAAATGTTGTTTCTGCAAATTTCTCTGCCATATGCGTCAGGGGTCCCTTCAATTAAATAACGGTGTCCTACTCTACCTGAGCAAACCCAAACAGTTAAACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGTAATTGGGCAACATCACTGATACTCTTGAACGCTGTTGTCCATCTTTGATGTGAGCATTCCAGTGACATGCGGACAGGACCTTGGGTTCGTTGCACTTTATGCCAAGCAGTTTATTTAAAACTGCGGGAGAAACACTCCTCGATGGGTTTGTACACAACTTTAACTAGAAAGTTCAAGAGGTATTTGCGATGGCAAACATCAAGTCTCAGATCAAGCGTAACAAGACCAACGAGAAGGCTCGTCTGCGTAACCAGGCAGTTCGCTCCGCAGTCCGCACCGAGATCCGCAAGTTCAACGCTGCGATTGAAGCAGGCGACAAGGATGCAGCTCAGGCTCAGCTCCGTACCGCTTCCCGCGCACTGGACAAGGCAGTAACCAAGGGTGTCTTCCACATCAACAACGCTGCTAACAAGAAGTCCAACATGGCTACCGCTTTCAACAAGCTTGGCTAATTTTTGGCTCTTTTGAAAATGGCTTCCTATCAGTTTTGATTGGAAGCCATTTTTTATGCCTTTACCCGAGTAAACCGGTCAGGCCTTCATACAGCAGAGTCACACCCACAACGAGGAAGACAACGCCAGCAAGCAGGTCAAACCAGGGACCTGCACGCAGCATTGCTTTGCGCACACGCTCCGTAGAGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAAAAAAAAAAAAAAAAAAAAAGCAAGTTAAAATAAGGCTAGTCCGTTATCTTTTTTTTTTTTTTTTTTTTTTTTTTTTTTGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1000,7 @@
         <v>33</v>
       </c>
       <c r="F2">
-        <v>330</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -942,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="F3">
-        <v>327</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -962,7 +1040,7 @@
         <v>35</v>
       </c>
       <c r="F4">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -982,7 +1060,7 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>358</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1002,7 +1080,7 @@
         <v>37</v>
       </c>
       <c r="F6">
-        <v>330</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1022,7 +1100,7 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>333</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1042,7 +1120,7 @@
         <v>39</v>
       </c>
       <c r="F8">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1062,7 +1140,7 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>329</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1082,7 +1160,7 @@
         <v>41</v>
       </c>
       <c r="F10">
-        <v>329</v>
+        <v>1079</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1213,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1155,7 +1233,7 @@
         <v>61</v>
       </c>
       <c r="F3">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1175,7 +1253,7 @@
         <v>62</v>
       </c>
       <c r="F4">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1195,7 +1273,7 @@
         <v>63</v>
       </c>
       <c r="F5">
-        <v>358</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1215,7 +1293,7 @@
         <v>64</v>
       </c>
       <c r="F6">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1235,7 +1313,7 @@
         <v>65</v>
       </c>
       <c r="F7">
-        <v>334</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1255,7 +1333,7 @@
         <v>66</v>
       </c>
       <c r="F8">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1275,7 +1353,7 @@
         <v>67</v>
       </c>
       <c r="F9">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1295,7 +1373,7 @@
         <v>68</v>
       </c>
       <c r="F10">
-        <v>326</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>
@@ -1644,13 +1722,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1687,8 +1765,26 @@
       <c r="L1" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1696,25 +1792,43 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>60.59785390246162</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F2">
         <v>65.39684924843954</v>
       </c>
+      <c r="G2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>62.01163517884282</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2">
+        <v>64.47237827659706</v>
+      </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L2">
+        <v>63.90605700066322</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1722,25 +1836,37 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>60.59785390246162</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>65.39684924843954</v>
       </c>
-      <c r="K3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3">
+      <c r="G3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3">
+        <v>62.3070547928009</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3">
+        <v>64.78597081263268</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1748,19 +1874,37 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>60.59785390246162</v>
       </c>
-      <c r="K4" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4">
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4">
+        <v>64.72517295129251</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <v>65.02802783225161</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>136</v>
+      </c>
+      <c r="R4">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1768,25 +1912,37 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>60.59785390246162</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>65.39684924843954</v>
       </c>
-      <c r="K5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5">
+      <c r="G5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5">
+        <v>63.96643472816334</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5">
+        <v>64.06962284156873</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>136</v>
+      </c>
+      <c r="R5">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1794,37 +1950,55 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>60.59785390246162</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>65.39684924843954</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H6">
-        <v>65.15385345255226</v>
+        <v>65.33046891902711</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="J6">
-        <v>63.04183328682285</v>
+        <v>64.88966510285542</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="L6">
+        <v>61.80880265667895</v>
+      </c>
+      <c r="M6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6">
+        <v>63.20315157291196</v>
+      </c>
+      <c r="O6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P6">
+        <v>65.06141045233028</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R6">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1832,25 +2006,37 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>60.59785390246162</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>65.39684924843954</v>
       </c>
-      <c r="K7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7">
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7">
+        <v>62.46679097625599</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7">
+        <v>64.76421932244233</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>136</v>
+      </c>
+      <c r="R7">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1858,19 +2044,37 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>60.59785390246162</v>
       </c>
-      <c r="K8" t="s">
-        <v>110</v>
-      </c>
-      <c r="L8">
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8">
+        <v>61.22969895770865</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8">
+        <v>57.59079941647826</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>136</v>
+      </c>
+      <c r="R8">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1878,25 +2082,37 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>60.59785390246162</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>65.39684924843954</v>
       </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9">
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9">
+        <v>64.60735549723296</v>
+      </c>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9">
+        <v>64.75610972804407</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>136</v>
+      </c>
+      <c r="R9">
         <v>62.40252848344147</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1904,21 +2120,33 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>60.59785390246162</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>65.39684924843954</v>
       </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10">
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10">
+        <v>62.12670289646758</v>
+      </c>
+      <c r="I10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10">
+        <v>64.35166066214509</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>136</v>
+      </c>
+      <c r="R10">
         <v>62.40252848344147</v>
       </c>
     </row>
@@ -1929,13 +2157,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1955,10 +2183,10 @@
         <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>100</v>
@@ -1973,13 +2201,31 @@
         <v>103</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>105</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1987,31 +2233,49 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D2">
-        <v>62.74970643811804</v>
+        <v>66.00255393960521</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="F2">
-        <v>62.18408991060545</v>
+        <v>64.02025660626504</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="H2">
-        <v>1303</v>
+        <v>2794</v>
+      </c>
+      <c r="I2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2">
+        <v>62.01163517884282</v>
+      </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2">
+        <v>64.47237827659706</v>
       </c>
       <c r="M2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N2">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>63.90605700066322</v>
+      </c>
+      <c r="S2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2019,31 +2283,43 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>59.54133127379924</v>
+        <v>61.75288997524922</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="F3">
-        <v>64.7641895140049</v>
+        <v>62.86092969455734</v>
       </c>
       <c r="G3" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="H3">
-        <v>829</v>
-      </c>
-      <c r="M3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>2326</v>
+      </c>
+      <c r="I3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3">
+        <v>62.3070547928009</v>
+      </c>
+      <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3">
+        <v>64.78597081263268</v>
+      </c>
+      <c r="S3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2051,31 +2327,43 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="D4">
-        <v>64.1495270510103</v>
+        <v>64.59749529410232</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="F4">
-        <v>64.26794617737897</v>
+        <v>64.54515808958774</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="H4">
-        <v>804</v>
-      </c>
-      <c r="M4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>2329</v>
+      </c>
+      <c r="I4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J4">
+        <v>64.72517295129251</v>
+      </c>
+      <c r="K4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4">
+        <v>65.02802783225161</v>
+      </c>
+      <c r="S4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T4">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2083,31 +2371,43 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D5">
-        <v>64.26239510560578</v>
+        <v>64.52423562230456</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="F5">
-        <v>61.56387211013669</v>
+        <v>62.53971658740039</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="H5">
-        <v>883</v>
-      </c>
-      <c r="M5" t="s">
-        <v>136</v>
-      </c>
-      <c r="N5">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>2391</v>
+      </c>
+      <c r="I5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5">
+        <v>63.96643472816334</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5">
+        <v>64.06962284156873</v>
+      </c>
+      <c r="S5" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2115,43 +2415,61 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="D6">
-        <v>64.96789884238098</v>
+        <v>65.00319862891456</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F6">
-        <v>64.83200654342289</v>
+        <v>64.95400195660716</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H6">
-        <v>2476</v>
+        <v>3982</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J6">
-        <v>65.15385345255226</v>
+        <v>65.33046891902711</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="L6">
-        <v>63.04183328682285</v>
+        <v>64.88966510285542</v>
       </c>
       <c r="M6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N6">
-        <v>2476</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>61.80880265667895</v>
+      </c>
+      <c r="O6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6">
+        <v>63.20315157291196</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+      <c r="R6">
+        <v>65.06141045233028</v>
+      </c>
+      <c r="S6" t="s">
+        <v>163</v>
+      </c>
+      <c r="T6">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2159,31 +2477,43 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D7">
-        <v>63.81048306105311</v>
+        <v>64.69801219278492</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="F7">
-        <v>61.71619469010028</v>
+        <v>65.14920789589138</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="H7">
-        <v>837</v>
-      </c>
-      <c r="M7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>2343</v>
+      </c>
+      <c r="I7" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7">
+        <v>62.46679097625599</v>
+      </c>
+      <c r="K7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7">
+        <v>64.76421932244233</v>
+      </c>
+      <c r="S7" t="s">
+        <v>164</v>
+      </c>
+      <c r="T7">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2191,31 +2521,43 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D8">
-        <v>65.40613093626928</v>
+        <v>62.01931167424249</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="F8">
-        <v>64.63528015163649</v>
+        <v>64.10520005439656</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="H8">
-        <v>823</v>
-      </c>
-      <c r="M8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>2326</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8">
+        <v>61.22969895770865</v>
+      </c>
+      <c r="K8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8">
+        <v>57.59079941647826</v>
+      </c>
+      <c r="S8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T8">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2223,31 +2565,43 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>64.7068639825622</v>
+        <v>62.40864996439342</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="F9">
-        <v>63.12237729036769</v>
+        <v>63.92839694794333</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="H9">
-        <v>816</v>
-      </c>
-      <c r="M9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N9">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>2323</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="J9">
+        <v>64.60735549723296</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
+      </c>
+      <c r="L9">
+        <v>64.75610972804407</v>
+      </c>
+      <c r="S9" t="s">
+        <v>166</v>
+      </c>
+      <c r="T9">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2255,28 +2609,40 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D10">
-        <v>64.93150880859542</v>
+        <v>65.04737031446456</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F10">
-        <v>55.81070237481293</v>
+        <v>64.88518553740045</v>
       </c>
       <c r="G10" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H10">
-        <v>827</v>
-      </c>
-      <c r="M10" t="s">
-        <v>141</v>
-      </c>
-      <c r="N10">
-        <v>827</v>
+        <v>2312</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10">
+        <v>62.12670289646758</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10">
+        <v>64.35166066214509</v>
+      </c>
+      <c r="S10" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10">
+        <v>2312</v>
       </c>
     </row>
   </sheetData>
@@ -2300,22 +2666,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2326,19 +2692,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D2">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="H2">
-        <v>12429</v>
+        <v>13929</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2349,19 +2715,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D3">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="H3">
-        <v>11947</v>
+        <v>13447</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2372,19 +2738,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D4">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E4" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="H4">
-        <v>11946</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2395,19 +2761,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D5">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="H5">
-        <v>12010</v>
+        <v>13510</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2418,19 +2784,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D6">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="H6">
-        <v>13596</v>
+        <v>15096</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2441,19 +2807,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E7" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="H7">
-        <v>11961</v>
+        <v>13461</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2464,19 +2830,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D8">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="H8">
-        <v>11946</v>
+        <v>13446</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2487,19 +2853,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D9">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="H9">
-        <v>11949</v>
+        <v>13449</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2510,19 +2876,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D10">
-        <v>673</v>
+        <v>2173</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="H10">
-        <v>11949</v>
+        <v>13449</v>
       </c>
     </row>
   </sheetData>
